--- a/Technology/Hardware/Taiwan Semiconductor.xlsx
+++ b/Technology/Hardware/Taiwan Semiconductor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7E11D1-9C6D-1F40-86BF-1A97C3E02FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3890BB50-1E68-C247-9B8E-2BAAF1B5DC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6080" yWindow="3020" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2434,11 +2434,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>560</v>
+    <v>574</v>
     <v>370</v>
-    <v>1.3649</v>
-    <v>18</v>
-    <v>3.4285999999999997E-2</v>
+    <v>1.3778999999999999</v>
+    <v>-9</v>
+    <v>-1.5901000000000002E-2</v>
     <v>TWD</v>
     <v>Taiwan Semiconductor Manufacturing Co Ltd is a Taiwan-based company mainly engaged in the provision of integrated circuit manufacturing services. The integrated circuit manufacturing services include process technology, special process technology, design ecosystem support, mask technology, 3DFabricTM advanced packaging and silicon stacking technology services. The Company has completed the transfer and mass production of 5nm technology, and is engaged in the research and development of 3nm process technology and 2nm process technology. The product application range covers the entire electronic application industry, including personal computers and peripheral products, information application products, wired and wireless communication system products, servers and data centers.</v>
     <v>52045</v>
@@ -2446,24 +2446,24 @@
     <v>XTAI</v>
     <v>XTAI</v>
     <v>No.8, Li-Hsin 6th Road, Hsinchu Science Park, HSINCHU, HSINCHU, 300 TW</v>
-    <v>545</v>
+    <v>562</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45071.398043981484</v>
+    <v>45077.159629629627</v>
     <v>0</v>
-    <v>537</v>
-    <v>14081342070000</v>
+    <v>551</v>
+    <v>14729420000000</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
-    <v>542</v>
-    <v>13.79</v>
-    <v>525</v>
-    <v>543</v>
-    <v>25932490000</v>
+    <v>560</v>
+    <v>14.15</v>
+    <v>566</v>
+    <v>557</v>
+    <v>25932070000</v>
     <v>2330</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd. (XTAI:2330)</v>
-    <v>68360924</v>
-    <v>26111130</v>
+    <v>26438000</v>
+    <v>44314050</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2485,13 +2485,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>102.37</v>
+    <v>105.24</v>
     <v>59.43</v>
-    <v>1.0956999999999999</v>
-    <v>10.802</v>
-    <v>0.119849</v>
-    <v>-0.49</v>
-    <v>-4.8539999999999998E-3</v>
+    <v>1.1049</v>
+    <v>-1.23</v>
+    <v>-1.1917000000000001E-2</v>
+    <v>0.01</v>
+    <v>9.8060000000000006E-5</v>
     <v>USD</v>
     <v>Taiwan Semiconductor Manufacturing Co Ltd is a Taiwan-based company mainly engaged in the provision of integrated circuit manufacturing services. The integrated circuit manufacturing services include process technology, special process technology, design ecosystem support, mask technology, 3DFabricTM advanced packaging and silicon stacking technology services. The Company has completed the transfer and mass production of 5nm technology, and is engaged in the research and development of 3nm process technology and 2nm process technology. The product application range covers the entire electronic application industry, including personal computers and peripheral products, information application products, wired and wireless communication system products, servers and data centers.</v>
     <v>52045</v>
@@ -2499,25 +2499,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>No.8, Li-Hsin 6th Road, Hsinchu Science Park, HSINCHU, HSINCHU, 300 TW</v>
-    <v>102.37</v>
+    <v>105.24</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45071.956310057809</v>
+    <v>45076.999222128907</v>
     <v>3</v>
-    <v>96.98</v>
-    <v>442160300000</v>
+    <v>101.52500000000001</v>
+    <v>480976300000</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
-    <v>97.06</v>
-    <v>13.9815</v>
-    <v>90.13</v>
-    <v>100.932</v>
-    <v>100.46</v>
-    <v>5186498000</v>
+    <v>103.79</v>
+    <v>16.0105</v>
+    <v>103.21</v>
+    <v>101.98</v>
+    <v>101.99</v>
+    <v>5186414000</v>
     <v>TSM</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd. (XNYS:TSM)</v>
-    <v>60774125</v>
-    <v>9934697</v>
+    <v>25247959</v>
+    <v>12116592</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2804,9 +2804,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3265,7 +3265,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="Y94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A111" sqref="A111"/>
+      <selection pane="bottomRight" activeCell="AA117" sqref="AA117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4868,15 +4868,15 @@
       </c>
       <c r="AH16" s="30">
         <f>AI101/AA3</f>
-        <v>6.2199727167818448</v>
+        <v>6.5062399648118792</v>
       </c>
       <c r="AI16" s="30">
         <f>AI101/AA28</f>
-        <v>13.852359124435656</v>
+        <v>14.489898371927346</v>
       </c>
       <c r="AJ16" s="31">
         <f>AI101/AA106</f>
-        <v>27.028942601164776</v>
+        <v>28.272919282078664</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -11642,7 +11642,7 @@
       </c>
       <c r="AI95" s="39" cm="1">
         <f t="array" ref="AI95">_FV(A1,"Beta")</f>
-        <v>1.3649</v>
+        <v>1.3778999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11821,7 +11821,7 @@
       </c>
       <c r="AI97" s="36">
         <f>(AI94)+((AI95)*(AI96-AI94))</f>
-        <v>9.9708945000000007E-2</v>
+        <v>0.100268595</v>
       </c>
     </row>
     <row r="98" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -12094,7 +12094,7 @@
       </c>
       <c r="AI100" s="34">
         <f>AI99/AI103</f>
-        <v>5.933220819176406E-2</v>
+        <v>5.6870120017033565E-2</v>
       </c>
       <c r="AJ100" s="61">
         <v>3.3000000000000002E-2</v>
@@ -12187,7 +12187,7 @@
       </c>
       <c r="AI101" s="40" cm="1">
         <f t="array" ref="AI101">_FV(A1,"Market cap",TRUE)</f>
-        <v>14081342070000</v>
+        <v>14729420000000</v>
       </c>
       <c r="AJ101" s="63" t="s">
         <v>159</v>
@@ -12280,11 +12280,11 @@
       </c>
       <c r="AI102" s="60">
         <f>AI101/AI103</f>
-        <v>0.9406677918082359</v>
+        <v>0.94312987998296638</v>
       </c>
       <c r="AJ102" s="62">
         <f>AI101*AJ100</f>
-        <v>464684288310</v>
+        <v>486070860000</v>
       </c>
     </row>
     <row r="103" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12374,7 +12374,7 @@
       </c>
       <c r="AI103" s="41">
         <f>AI99+AI101</f>
-        <v>14969516542000</v>
+        <v>15617594472000</v>
       </c>
     </row>
     <row r="104" spans="1:36" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12580,7 +12580,7 @@
       </c>
       <c r="AI105" s="26">
         <f>(AI100*AI92)+(AI102*AI97)</f>
-        <v>9.4490598057199129E-2</v>
+        <v>9.5234964637376018E-2</v>
       </c>
     </row>
     <row r="106" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -12730,7 +12730,7 @@
       <c r="AE107" s="43"/>
       <c r="AF107" s="46">
         <f>AF106*(1+AI107)/(AI108-AI107)</f>
-        <v>11385914901664.018</v>
+        <v>11273263894537.389</v>
       </c>
       <c r="AG107" s="47" t="s">
         <v>148</v>
@@ -12761,7 +12761,7 @@
       </c>
       <c r="AF108" s="46">
         <f>AF107+AF106</f>
-        <v>12217428245245.711</v>
+        <v>12104777238119.082</v>
       </c>
       <c r="AG108" s="47" t="s">
         <v>144</v>
@@ -12771,7 +12771,7 @@
       </c>
       <c r="AI108" s="51">
         <f>AI105</f>
-        <v>9.4490598057199129E-2</v>
+        <v>9.5234964637376018E-2</v>
       </c>
     </row>
     <row r="109" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -12786,7 +12786,7 @@
       </c>
       <c r="AC110" s="40">
         <f>NPV(AI108,AB108,AC108,AD108,AE108,AF108)</f>
-        <v>9879677855533.9492</v>
+        <v>9778224360296.5977</v>
       </c>
     </row>
     <row r="111" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12813,7 +12813,7 @@
       </c>
       <c r="AC113" s="40">
         <f>AC110+AC111-AC112</f>
-        <v>10578003508533.949</v>
+        <v>10476550013296.598</v>
       </c>
     </row>
     <row r="114" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -12831,7 +12831,7 @@
       </c>
       <c r="AC115" s="55">
         <f>AC113/AC114*AJ100</f>
-        <v>67.30987277888336</v>
+        <v>66.664304657083264</v>
       </c>
     </row>
     <row r="116" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -12840,7 +12840,7 @@
       </c>
       <c r="AC116" s="56" cm="1">
         <f t="array" ref="AC116">_FV(AJ98,"Price")</f>
-        <v>100.932</v>
+        <v>101.98</v>
       </c>
     </row>
     <row r="117" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -12849,7 +12849,7 @@
       </c>
       <c r="AC117" s="58">
         <f>AC115/AC116-1</f>
-        <v>-0.33311662526370867</v>
+        <v>-0.34630020928531813</v>
       </c>
     </row>
     <row r="118" spans="28:29" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Taiwan Semiconductor.xlsx
+++ b/Technology/Hardware/Taiwan Semiconductor.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3890BB50-1E68-C247-9B8E-2BAAF1B5DC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46278ACC-0309-9D4D-A9EE-37FFA7A02FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -80,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="163">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -520,9 +523,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -566,6 +566,12 @@
   </si>
   <si>
     <t>Intrinsic Value (USD)</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
@@ -914,7 +920,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1001,7 +1007,6 @@
     <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1039,6 +1044,9 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1441,7 +1449,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1485,7 +1493,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$AA$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$AA$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="26"/>
@@ -2314,6 +2322,66 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="7 Powers"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12">
+        <row r="8">
+          <cell r="C8">
+            <v>3.7229999999999999E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -2434,11 +2502,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>574</v>
+    <v>594</v>
     <v>370</v>
-    <v>1.3778999999999999</v>
-    <v>-9</v>
-    <v>-1.5901000000000002E-2</v>
+    <v>1.3668</v>
+    <v>-2</v>
+    <v>-3.431E-3</v>
     <v>TWD</v>
     <v>Taiwan Semiconductor Manufacturing Co Ltd is a Taiwan-based company mainly engaged in the provision of integrated circuit manufacturing services. The integrated circuit manufacturing services include process technology, special process technology, design ecosystem support, mask technology, 3DFabricTM advanced packaging and silicon stacking technology services. The Company has completed the transfer and mass production of 5nm technology, and is engaged in the research and development of 3nm process technology and 2nm process technology. The product application range covers the entire electronic application industry, including personal computers and peripheral products, information application products, wired and wireless communication system products, servers and data centers.</v>
     <v>52045</v>
@@ -2446,24 +2514,24 @@
     <v>XTAI</v>
     <v>XTAI</v>
     <v>No.8, Li-Hsin 6th Road, Hsinchu Science Park, HSINCHU, HSINCHU, 300 TW</v>
-    <v>562</v>
+    <v>585</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45077.159629629627</v>
+    <v>45098.398842592593</v>
     <v>0</v>
-    <v>551</v>
-    <v>14729420000000</v>
+    <v>578</v>
+    <v>15066530000000</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
-    <v>560</v>
-    <v>14.15</v>
-    <v>566</v>
-    <v>557</v>
+    <v>582</v>
+    <v>14.76</v>
+    <v>583</v>
+    <v>581</v>
     <v>25932070000</v>
     <v>2330</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd. (XTAI:2330)</v>
-    <v>26438000</v>
-    <v>44314050</v>
+    <v>23718735</v>
+    <v>28938200</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2473,25 +2541,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a24kjc&amp;q=XNYS%3aTSM&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="3">
-    <v>5</v>
+  <rv s="1">
+    <v>0</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd. (XNYS:TSM)</v>
     <v>2</v>
+    <v>5</v>
+    <v>Finance</v>
     <v>6</v>
-    <v>Finance</v>
-    <v>7</v>
     <v>en-US</v>
     <v>a24kjc</v>
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>105.24</v>
+    <v>110.69</v>
     <v>59.43</v>
-    <v>1.1049</v>
-    <v>-1.23</v>
-    <v>-1.1917000000000001E-2</v>
-    <v>0.01</v>
-    <v>9.8060000000000006E-5</v>
+    <v>1.0913999999999999</v>
+    <v>1.49</v>
+    <v>1.4659999999999999E-2</v>
     <v>USD</v>
     <v>Taiwan Semiconductor Manufacturing Co Ltd is a Taiwan-based company mainly engaged in the provision of integrated circuit manufacturing services. The integrated circuit manufacturing services include process technology, special process technology, design ecosystem support, mask technology, 3DFabricTM advanced packaging and silicon stacking technology services. The Company has completed the transfer and mass production of 5nm technology, and is engaged in the research and development of 3nm process technology and 2nm process technology. The product application range covers the entire electronic application industry, including personal computers and peripheral products, information application products, wired and wireless communication system products, servers and data centers.</v>
     <v>52045</v>
@@ -2499,25 +2565,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>No.8, Li-Hsin 6th Road, Hsinchu Science Park, HSINCHU, HSINCHU, 300 TW</v>
-    <v>105.24</v>
+    <v>103.425</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45076.999222128907</v>
+    <v>45099.999144779686</v>
     <v>3</v>
-    <v>101.52500000000001</v>
-    <v>480976300000</v>
+    <v>101.33</v>
+    <v>486959700000</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
-    <v>103.79</v>
-    <v>16.0105</v>
-    <v>103.21</v>
-    <v>101.98</v>
-    <v>101.99</v>
+    <v>101.42</v>
+    <v>15.998100000000001</v>
+    <v>101.64</v>
+    <v>103.13</v>
     <v>5186414000</v>
     <v>TSM</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd. (XNYS:TSM)</v>
-    <v>25247959</v>
-    <v>12116592</v>
+    <v>10473</v>
+    <v>16197287</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2527,7 +2592,7 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -2579,59 +2644,12 @@
   <s t="_linkedentity">
     <k n="%cvi" t="r"/>
   </s>
-  <s t="_linkedentitycore">
-    <k n="_Display" t="spb"/>
-    <k n="_DisplayString" t="s"/>
-    <k n="_Flags" t="spb"/>
-    <k n="_Format" t="spb"/>
-    <k n="_Icon" t="s"/>
-    <k n="_SubLabel" t="spb"/>
-    <k n="%EntityCulture" t="s"/>
-    <k n="%EntityId" t="s"/>
-    <k n="%EntityServiceId"/>
-    <k n="%IsRefreshable" t="b"/>
-    <k n="%ProviderInfo" t="s"/>
-    <k n="52 week high"/>
-    <k n="52 week low"/>
-    <k n="Beta"/>
-    <k n="Change"/>
-    <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
-    <k n="Currency" t="s"/>
-    <k n="Description" t="s"/>
-    <k n="Employees"/>
-    <k n="Exchange" t="s"/>
-    <k n="Exchange abbreviation" t="s"/>
-    <k n="ExchangeID" t="s"/>
-    <k n="Headquarters" t="s"/>
-    <k n="High"/>
-    <k n="Industry" t="s"/>
-    <k n="Instrument type" t="s"/>
-    <k n="Last trade time"/>
-    <k n="LearnMoreOnLink" t="r"/>
-    <k n="Low"/>
-    <k n="Market cap"/>
-    <k n="Name" t="s"/>
-    <k n="Official name" t="s"/>
-    <k n="Open"/>
-    <k n="P/E"/>
-    <k n="Previous close"/>
-    <k n="Price"/>
-    <k n="Price (Extended hours)"/>
-    <k n="Shares outstanding"/>
-    <k n="Ticker symbol" t="s"/>
-    <k n="UniqueName" t="s"/>
-    <k n="Volume"/>
-    <k n="Volume average"/>
-    <k n="Year incorporated"/>
-  </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="2">
+  <spbArrays count="1">
     <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -2676,55 +2694,8 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="45">
-      <v t="s">%EntityServiceId</v>
-      <v t="s">_Format</v>
-      <v t="s">%IsRefreshable</v>
-      <v t="s">%EntityCulture</v>
-      <v t="s">%EntityId</v>
-      <v t="s">_Icon</v>
-      <v t="s">_Display</v>
-      <v t="s">Name</v>
-      <v t="s">_SubLabel</v>
-      <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
-      <v t="s">Exchange</v>
-      <v t="s">Official name</v>
-      <v t="s">Last trade time</v>
-      <v t="s">Ticker symbol</v>
-      <v t="s">Exchange abbreviation</v>
-      <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
-      <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
-      <v t="s">Currency</v>
-      <v t="s">Previous close</v>
-      <v t="s">Open</v>
-      <v t="s">High</v>
-      <v t="s">Low</v>
-      <v t="s">52 week high</v>
-      <v t="s">52 week low</v>
-      <v t="s">Volume</v>
-      <v t="s">Volume average</v>
-      <v t="s">Market cap</v>
-      <v t="s">Beta</v>
-      <v t="s">P/E</v>
-      <v t="s">Shares outstanding</v>
-      <v t="s">Description</v>
-      <v t="s">Employees</v>
-      <v t="s">Headquarters</v>
-      <v t="s">Industry</v>
-      <v t="s">Instrument type</v>
-      <v t="s">Year incorporated</v>
-      <v t="s">_Flags</v>
-      <v t="s">UniqueName</v>
-      <v t="s">_DisplayString</v>
-      <v t="s">LearnMoreOnLink</v>
-      <v t="s">ExchangeID</v>
-      <v t="s">%ProviderInfo</v>
-    </a>
   </spbArrays>
-  <spbData count="8">
+  <spbData count="7">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -2770,12 +2741,7 @@
       <v>Source: TWSE</v>
       <v>GMT</v>
     </spb>
-    <spb s="0">
-      <v>1</v>
-      <v>Name</v>
-      <v>LearnMoreOnLink</v>
-    </spb>
-    <spb s="5">
+    <spb s="3">
       <v>10</v>
       <v>2</v>
       <v>2</v>
@@ -2796,26 +2762,20 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>10</v>
-      <v>10</v>
-      <v>5</v>
     </spb>
-    <spb s="6">
-      <v>at close</v>
+    <spb s="4">
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="7">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
   <s>
     <k n="^Order" t="spba"/>
     <k n="TitleProperty" t="s"/>
@@ -2860,41 +2820,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-  </s>
-  <s>
-    <k n="Low" t="i"/>
-    <k n="P/E" t="i"/>
-    <k n="Beta" t="i"/>
-    <k n="High" t="i"/>
-    <k n="Name" t="i"/>
-    <k n="Open" t="i"/>
-    <k n="Price" t="i"/>
-    <k n="Change" t="i"/>
-    <k n="Volume" t="i"/>
-    <k n="Employees" t="i"/>
-    <k n="Change (%)" t="i"/>
-    <k n="Market cap" t="i"/>
-    <k n="52 week low" t="i"/>
-    <k n="52 week high" t="i"/>
-    <k n="Previous close" t="i"/>
-    <k n="Volume average" t="i"/>
-    <k n="Last trade time" t="i"/>
-    <k n="Year incorporated" t="i"/>
-    <k n="`%EntityServiceId" t="i"/>
-    <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
-  </s>
-  <s>
-    <k n="Price" t="s"/>
-    <k n="Change" t="s"/>
-    <k n="Change (%)" t="s"/>
-    <k n="ExchangeID" t="s"/>
-    <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3262,10 +3187,10 @@
   <dimension ref="A1:AJ118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Y87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA117" sqref="AA117"/>
+      <selection pane="bottomRight" activeCell="Z119" sqref="Z119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3715,7 +3640,7 @@
         <v>0.43961966142045794</v>
       </c>
       <c r="AJ4" s="17">
-        <f>(AA105+Z105+Y105)/3</f>
+        <f>(AA106+Z106+Y106)/3</f>
         <v>0.64230232086255812</v>
       </c>
     </row>
@@ -3992,7 +3917,7 @@
         <v>0.44900000000000001</v>
       </c>
       <c r="AJ7" s="20">
-        <f>AA106/AA3</f>
+        <f>AA107/AA3</f>
         <v>0.23012268028989794</v>
       </c>
     </row>
@@ -4868,15 +4793,15 @@
       </c>
       <c r="AH16" s="30">
         <f>AI101/AA3</f>
-        <v>6.5062399648118792</v>
+        <v>6.6551472914097856</v>
       </c>
       <c r="AI16" s="30">
         <f>AI101/AA28</f>
-        <v>14.489898371927346</v>
+        <v>14.821526476778754</v>
       </c>
       <c r="AJ16" s="31">
-        <f>AI101/AA106</f>
-        <v>28.272919282078664</v>
+        <f>AI101/AA107</f>
+        <v>28.919997294599288</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -10541,10 +10466,10 @@
       <c r="AA83" s="1">
         <v>-28046827000</v>
       </c>
-      <c r="AH83" s="66" t="s">
+      <c r="AH83" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="AI83" s="67"/>
+      <c r="AI83" s="69"/>
     </row>
     <row r="84" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -10628,10 +10553,10 @@
       <c r="AA84" s="1">
         <v>7594105000</v>
       </c>
-      <c r="AH84" s="68" t="s">
+      <c r="AH84" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="AI84" s="69"/>
+      <c r="AI84" s="71"/>
     </row>
     <row r="85" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -11461,10 +11386,10 @@
       <c r="AA93" s="1">
         <v>20581671000</v>
       </c>
-      <c r="AH93" s="68" t="s">
+      <c r="AH93" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="AI93" s="69"/>
+      <c r="AI93" s="71"/>
     </row>
     <row r="94" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -11551,8 +11476,9 @@
       <c r="AH94" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AI94" s="37">
-        <v>4.095E-2</v>
+      <c r="AI94" s="65">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.7229999999999999E-2</v>
       </c>
     </row>
     <row r="95" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11642,7 +11568,7 @@
       </c>
       <c r="AI95" s="39" cm="1">
         <f t="array" ref="AI95">_FV(A1,"Beta")</f>
-        <v>1.3778999999999999</v>
+        <v>1.3668</v>
       </c>
     </row>
     <row r="96" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11821,7 +11747,7 @@
       </c>
       <c r="AI97" s="36">
         <f>(AI94)+((AI95)*(AI96-AI94))</f>
-        <v>0.100268595</v>
+        <v>0.10115523600000001</v>
       </c>
     </row>
     <row r="98" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -11906,10 +11832,10 @@
       <c r="AA98" s="1">
         <v>-285234185000</v>
       </c>
-      <c r="AH98" s="68" t="s">
+      <c r="AH98" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="AI98" s="69"/>
+      <c r="AI98" s="71"/>
       <c r="AJ98" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
@@ -12003,8 +11929,8 @@
         <f>AI86+AI87</f>
         <v>888174472000</v>
       </c>
-      <c r="AJ99" s="63" t="s">
-        <v>158</v>
+      <c r="AJ99" s="62" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="100" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12094,9 +12020,9 @@
       </c>
       <c r="AI100" s="34">
         <f>AI99/AI103</f>
-        <v>5.6870120017033565E-2</v>
-      </c>
-      <c r="AJ100" s="61">
+        <v>5.5668500382361708E-2</v>
+      </c>
+      <c r="AJ100" s="60">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
@@ -12187,10 +12113,10 @@
       </c>
       <c r="AI101" s="40" cm="1">
         <f t="array" ref="AI101">_FV(A1,"Market cap",TRUE)</f>
-        <v>14729420000000</v>
-      </c>
-      <c r="AJ101" s="63" t="s">
-        <v>159</v>
+        <v>15066530000000</v>
+      </c>
+      <c r="AJ101" s="62" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="102" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12278,13 +12204,13 @@
       <c r="AH102" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="AI102" s="60">
+      <c r="AI102" s="59">
         <f>AI101/AI103</f>
-        <v>0.94312987998296638</v>
-      </c>
-      <c r="AJ102" s="62">
+        <v>0.94433149961763829</v>
+      </c>
+      <c r="AJ102" s="61">
         <f>AI101*AJ100</f>
-        <v>486070860000</v>
+        <v>497195490000</v>
       </c>
     </row>
     <row r="103" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12374,7 +12300,7 @@
       </c>
       <c r="AI103" s="41">
         <f>AI99+AI101</f>
-        <v>15617594472000</v>
+        <v>15954704472000</v>
       </c>
     </row>
     <row r="104" spans="1:36" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12459,237 +12385,272 @@
       <c r="AA104" s="11">
         <v>1342814083000</v>
       </c>
-      <c r="AH104" s="68" t="s">
+      <c r="AH104" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="AI104" s="69"/>
+      <c r="AI104" s="71"/>
     </row>
     <row r="105" spans="1:36" ht="21" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>-0.66023844690773537</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>-4.716021352464761</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>-2.0633066879522239</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>-1.3540175301892403</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>10.830968261796651</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:AA105" si="8">(H106/G106)-1</f>
-        <v>1.6720148824889343</v>
-      </c>
-      <c r="I105" s="15">
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:Z105" si="8">(B22*(1-$AI$91))+B77+B88+B81</f>
+        <v>-10594400990.662193</v>
+      </c>
+      <c r="C105" s="1">
         <f t="shared" si="8"/>
-        <v>-0.37688644544148509</v>
-      </c>
-      <c r="J105" s="15">
+        <v>-5083598385.9156761</v>
+      </c>
+      <c r="D105" s="1">
         <f t="shared" si="8"/>
-        <v>7.1969148897544022E-2</v>
-      </c>
-      <c r="K105" s="15">
+        <v>5170992493.5488586</v>
+      </c>
+      <c r="E105" s="1">
         <f t="shared" si="8"/>
-        <v>0.63174925618738054</v>
-      </c>
-      <c r="L105" s="15">
+        <v>-22784906494.670135</v>
+      </c>
+      <c r="F105" s="1">
         <f t="shared" si="8"/>
-        <v>-0.20966073965313869</v>
-      </c>
-      <c r="M105" s="15">
+        <v>-7247944526.3330536</v>
+      </c>
+      <c r="G105" s="1">
         <f t="shared" si="8"/>
-        <v>0.63082925717436633</v>
-      </c>
-      <c r="N105" s="15">
+        <v>41296755384.959106</v>
+      </c>
+      <c r="H105" s="1" t="e">
         <f t="shared" si="8"/>
-        <v>-0.55638676946104537</v>
-      </c>
-      <c r="O105" s="15">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I105" s="1">
         <f t="shared" si="8"/>
-        <v>-0.41076868726751314</v>
-      </c>
-      <c r="P105" s="15">
+        <v>60917509142.183899</v>
+      </c>
+      <c r="J105" s="1">
         <f t="shared" si="8"/>
-        <v>-0.20942311128666691</v>
-      </c>
-      <c r="Q105" s="15">
+        <v>68341628778.374603</v>
+      </c>
+      <c r="K105" s="1">
         <f t="shared" si="8"/>
-        <v>0.27664054484081557</v>
-      </c>
-      <c r="R105" s="15">
+        <v>113723898324.59692</v>
+      </c>
+      <c r="L105" s="1">
         <f t="shared" si="8"/>
-        <v>0.32874641246412462</v>
-      </c>
-      <c r="S105" s="15">
+        <v>90975763762.5672</v>
+      </c>
+      <c r="M105" s="1">
         <f t="shared" si="8"/>
-        <v>1.2638157168078292</v>
-      </c>
-      <c r="T105" s="15">
+        <v>150885242435.73981</v>
+      </c>
+      <c r="N105" s="1">
         <f t="shared" si="8"/>
-        <v>1.0761305781565347</v>
-      </c>
-      <c r="U105" s="15">
+        <v>64132220153.438171</v>
+      </c>
+      <c r="O105" s="1">
         <f t="shared" si="8"/>
-        <v>-0.2288051978765937</v>
-      </c>
-      <c r="V105" s="15">
+        <v>28416088991.197083</v>
+      </c>
+      <c r="P105" s="1">
         <f t="shared" si="8"/>
-        <v>0.20648454176217679</v>
-      </c>
-      <c r="W105" s="15">
+        <v>23454164747.12146</v>
+      </c>
+      <c r="Q105" s="1">
         <f t="shared" si="8"/>
-        <v>7.3864499696707497E-3</v>
-      </c>
-      <c r="X105" s="15">
+        <v>33074247015.50415</v>
+      </c>
+      <c r="R105" s="1">
         <f t="shared" si="8"/>
-        <v>-0.4213977596398486</v>
-      </c>
-      <c r="Y105" s="15">
+        <v>48927121110.705505</v>
+      </c>
+      <c r="S105" s="1">
         <f t="shared" si="8"/>
-        <v>1.0716606619867304</v>
-      </c>
-      <c r="Z105" s="15">
+        <v>125016591427.57812</v>
+      </c>
+      <c r="T105" s="1">
         <f t="shared" si="8"/>
-        <v>-0.12771733085606274</v>
-      </c>
-      <c r="AA105" s="15">
+        <v>272656565987.03973</v>
+      </c>
+      <c r="U105" s="1">
         <f t="shared" si="8"/>
-        <v>0.98296363145700649</v>
-      </c>
-      <c r="AB105" s="15"/>
-      <c r="AC105" s="15"/>
-      <c r="AD105" s="15"/>
-      <c r="AE105" s="15"/>
-      <c r="AF105" s="15"/>
-      <c r="AG105" s="15"/>
+        <v>215828229826.9082</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="8"/>
+        <v>281379480815.89771</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="8"/>
+        <v>256245325724.81091</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="8"/>
+        <v>168522533041.60278</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="8"/>
+        <v>295185515854.72095</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="8"/>
+        <v>292136601112.85095</v>
+      </c>
+      <c r="AA105" s="1">
+        <f>(AA22*(1-$AI$91))+AA77+AA88+AA81</f>
+        <v>473628314891.33008</v>
+      </c>
+      <c r="AB105" s="42">
+        <f>AA105*(1+$AI$106)</f>
+        <v>520054075232.27551</v>
+      </c>
+      <c r="AC105" s="42">
+        <f t="shared" ref="AC105:AF105" si="9">AB105*(1+$AI$106)</f>
+        <v>571030558482.87097</v>
+      </c>
+      <c r="AD105" s="42">
+        <f t="shared" si="9"/>
+        <v>627003833352.56409</v>
+      </c>
+      <c r="AE105" s="42">
+        <f t="shared" si="9"/>
+        <v>688463692877.13464</v>
+      </c>
+      <c r="AF105" s="42">
+        <f t="shared" si="9"/>
+        <v>755947940342.97632</v>
+      </c>
+      <c r="AG105" s="43" t="s">
+        <v>161</v>
+      </c>
       <c r="AH105" s="25" t="s">
         <v>108</v>
       </c>
       <c r="AI105" s="26">
         <f>(AI100*AI92)+(AI102*AI97)</f>
-        <v>9.5234964637376018E-2</v>
+        <v>9.6178604200471418E-2</v>
       </c>
     </row>
     <row r="106" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>-7709062103</v>
-      </c>
-      <c r="C106" s="1">
-        <v>-2619242913</v>
-      </c>
-      <c r="D106" s="1">
-        <v>9733162592</v>
-      </c>
-      <c r="E106" s="1">
-        <v>-10349336879</v>
-      </c>
-      <c r="F106" s="1">
-        <v>3663846681</v>
-      </c>
-      <c r="G106" s="1">
-        <v>43346853799</v>
-      </c>
-      <c r="H106" s="1">
-        <v>115823438460</v>
-      </c>
-      <c r="I106" s="1">
-        <v>72171154440</v>
-      </c>
-      <c r="J106" s="1">
-        <v>77365251000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>126240690774</v>
-      </c>
-      <c r="L106" s="1">
-        <v>99772974172</v>
-      </c>
-      <c r="M106" s="1">
-        <v>162712685355</v>
-      </c>
-      <c r="N106" s="1">
-        <v>72181500000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>42531600000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>33624500000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>42926400000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>57038300000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>129124200000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>268078700000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>206740900000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>249429700000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>251272100000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>145386600000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>301191700000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>262724300000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>520972732000</v>
-      </c>
-      <c r="AB106" s="42">
-        <f>AA106*(1+$AI$106)</f>
-        <v>572039263369.74927</v>
-      </c>
-      <c r="AC106" s="42">
-        <f t="shared" ref="AC106:AF106" si="9">AB106*(1+$AI$106)</f>
-        <v>628111413010.77808</v>
-      </c>
-      <c r="AD106" s="42">
-        <f t="shared" si="9"/>
-        <v>689679839160.599</v>
-      </c>
-      <c r="AE106" s="42">
-        <f t="shared" si="9"/>
-        <v>757283295115.71484</v>
-      </c>
-      <c r="AF106" s="42">
-        <f t="shared" si="9"/>
-        <v>831513343581.69434</v>
+      <c r="A106" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f t="shared" ref="C106:AA106" si="10">(C107/B107)-1</f>
+        <v>-0.66023844690773537</v>
+      </c>
+      <c r="D106" s="15">
+        <f t="shared" si="10"/>
+        <v>-4.716021352464761</v>
+      </c>
+      <c r="E106" s="15">
+        <f t="shared" si="10"/>
+        <v>-2.0633066879522239</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="10"/>
+        <v>-1.3540175301892403</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="10"/>
+        <v>10.830968261796651</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="10"/>
+        <v>1.6720148824889343</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="10"/>
+        <v>-0.37688644544148509</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="10"/>
+        <v>7.1969148897544022E-2</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="10"/>
+        <v>0.63174925618738054</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="10"/>
+        <v>-0.20966073965313869</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="10"/>
+        <v>0.63082925717436633</v>
+      </c>
+      <c r="N106" s="15">
+        <f t="shared" si="10"/>
+        <v>-0.55638676946104537</v>
+      </c>
+      <c r="O106" s="15">
+        <f t="shared" si="10"/>
+        <v>-0.41076868726751314</v>
+      </c>
+      <c r="P106" s="15">
+        <f t="shared" si="10"/>
+        <v>-0.20942311128666691</v>
+      </c>
+      <c r="Q106" s="15">
+        <f t="shared" si="10"/>
+        <v>0.27664054484081557</v>
+      </c>
+      <c r="R106" s="15">
+        <f t="shared" si="10"/>
+        <v>0.32874641246412462</v>
+      </c>
+      <c r="S106" s="15">
+        <f t="shared" si="10"/>
+        <v>1.2638157168078292</v>
+      </c>
+      <c r="T106" s="15">
+        <f t="shared" si="10"/>
+        <v>1.0761305781565347</v>
+      </c>
+      <c r="U106" s="15">
+        <f t="shared" si="10"/>
+        <v>-0.2288051978765937</v>
+      </c>
+      <c r="V106" s="15">
+        <f t="shared" si="10"/>
+        <v>0.20648454176217679</v>
+      </c>
+      <c r="W106" s="15">
+        <f t="shared" si="10"/>
+        <v>7.3864499696707497E-3</v>
+      </c>
+      <c r="X106" s="15">
+        <f t="shared" si="10"/>
+        <v>-0.4213977596398486</v>
+      </c>
+      <c r="Y106" s="15">
+        <f t="shared" si="10"/>
+        <v>1.0716606619867304</v>
+      </c>
+      <c r="Z106" s="15">
+        <f t="shared" si="10"/>
+        <v>-0.12771733085606274</v>
+      </c>
+      <c r="AA106" s="15">
+        <f t="shared" si="10"/>
+        <v>0.98296363145700649</v>
+      </c>
+      <c r="AB106" s="63">
+        <v>390447000000</v>
+      </c>
+      <c r="AC106" s="63">
+        <v>737351000000</v>
+      </c>
+      <c r="AD106" s="63">
+        <v>930079000000</v>
+      </c>
+      <c r="AE106" s="63">
+        <v>811055000000</v>
+      </c>
+      <c r="AF106" s="63">
+        <v>987401000000</v>
       </c>
       <c r="AG106" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH106" s="44" t="s">
         <v>146</v>
-      </c>
-      <c r="AH106" s="44" t="s">
-        <v>147</v>
       </c>
       <c r="AI106" s="45">
         <f>(SUM(AB4:AF4)/5)</f>
@@ -12697,101 +12658,155 @@
       </c>
     </row>
     <row r="107" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
+      <c r="A107" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B107" s="1">
+        <v>-7709062103</v>
+      </c>
+      <c r="C107" s="1">
+        <v>-2619242913</v>
+      </c>
+      <c r="D107" s="1">
+        <v>9733162592</v>
+      </c>
+      <c r="E107" s="1">
+        <v>-10349336879</v>
+      </c>
+      <c r="F107" s="1">
+        <v>3663846681</v>
+      </c>
+      <c r="G107" s="1">
+        <v>43346853799</v>
+      </c>
+      <c r="H107" s="1">
+        <v>115823438460</v>
+      </c>
+      <c r="I107" s="1">
+        <v>72171154440</v>
+      </c>
+      <c r="J107" s="1">
+        <v>77365251000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>126240690774</v>
+      </c>
+      <c r="L107" s="1">
+        <v>99772974172</v>
+      </c>
+      <c r="M107" s="1">
+        <v>162712685355</v>
+      </c>
+      <c r="N107" s="1">
+        <v>72181500000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>42531600000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>33624500000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>42926400000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>57038300000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>129124200000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>268078700000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>206740900000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>249429700000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>251272100000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>145386600000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>301191700000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>262724300000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>520972732000</v>
+      </c>
       <c r="AB107" s="43"/>
       <c r="AC107" s="43"/>
       <c r="AD107" s="43"/>
       <c r="AE107" s="43"/>
-      <c r="AF107" s="46">
+      <c r="AF107" s="64">
         <f>AF106*(1+AI107)/(AI108-AI107)</f>
-        <v>11273263894537.389</v>
-      </c>
-      <c r="AG107" s="47" t="s">
+        <v>14218964200948.699</v>
+      </c>
+      <c r="AG107" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH107" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="AH107" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI107" s="49">
-        <v>0.02</v>
+      <c r="AI107" s="48">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="AB108" s="46">
-        <f t="shared" ref="AB108:AD108" si="10">AB107+AB106</f>
-        <v>572039263369.74927</v>
-      </c>
-      <c r="AC108" s="46">
-        <f t="shared" si="10"/>
-        <v>628111413010.77808</v>
-      </c>
-      <c r="AD108" s="46">
-        <f t="shared" si="10"/>
-        <v>689679839160.599</v>
-      </c>
-      <c r="AE108" s="46">
+      <c r="AB108" s="64">
+        <f t="shared" ref="AB108:AD108" si="11">AB107+AB106</f>
+        <v>390447000000</v>
+      </c>
+      <c r="AC108" s="64">
+        <f t="shared" si="11"/>
+        <v>737351000000</v>
+      </c>
+      <c r="AD108" s="64">
+        <f t="shared" si="11"/>
+        <v>930079000000</v>
+      </c>
+      <c r="AE108" s="64">
         <f>AE107+AE106</f>
-        <v>757283295115.71484</v>
-      </c>
-      <c r="AF108" s="46">
+        <v>811055000000</v>
+      </c>
+      <c r="AF108" s="64">
         <f>AF107+AF106</f>
-        <v>12104777238119.082</v>
-      </c>
-      <c r="AG108" s="47" t="s">
+        <v>15206365200948.699</v>
+      </c>
+      <c r="AG108" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="AH108" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI108" s="51">
+      <c r="AH108" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI108" s="50">
         <f>AI105</f>
-        <v>9.5234964637376018E-2</v>
+        <v>9.6178604200471418E-2</v>
       </c>
     </row>
     <row r="109" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="AB109" s="64" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC109" s="65"/>
+      <c r="AB109" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC109" s="67"/>
     </row>
     <row r="110" spans="1:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB110" s="52" t="s">
-        <v>152</v>
+      <c r="AB110" s="51" t="s">
+        <v>151</v>
       </c>
       <c r="AC110" s="40">
         <f>NPV(AI108,AB108,AC108,AD108,AE108,AF108)</f>
-        <v>9778224360296.5977</v>
+        <v>11845354933176.092</v>
       </c>
     </row>
     <row r="111" spans="1:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB111" s="52" t="s">
-        <v>153</v>
+      <c r="AB111" s="51" t="s">
+        <v>152</v>
       </c>
       <c r="AC111" s="40">
         <f>AA40</f>
@@ -12799,7 +12814,7 @@
       </c>
     </row>
     <row r="112" spans="1:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB112" s="52" t="s">
+      <c r="AB112" s="51" t="s">
         <v>140</v>
       </c>
       <c r="AC112" s="40">
@@ -12808,55 +12823,55 @@
       </c>
     </row>
     <row r="113" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB113" s="52" t="s">
-        <v>154</v>
+      <c r="AB113" s="51" t="s">
+        <v>153</v>
       </c>
       <c r="AC113" s="40">
         <f>AC110+AC111-AC112</f>
-        <v>10476550013296.598</v>
+        <v>12543680586176.092</v>
       </c>
     </row>
     <row r="114" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB114" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC114" s="53">
+      <c r="AB114" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC114" s="52">
         <f>AA34*(1+(5*AG16))</f>
         <v>5186076000</v>
       </c>
     </row>
     <row r="115" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB115" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC115" s="55">
+      <c r="AB115" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC115" s="54">
         <f>AC113/AC114*AJ100</f>
-        <v>66.664304657083264</v>
+        <v>79.817854451768753</v>
       </c>
     </row>
     <row r="116" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB116" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC116" s="56" cm="1">
+      <c r="AB116" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC116" s="55" cm="1">
         <f t="array" ref="AC116">_FV(AJ98,"Price")</f>
-        <v>101.98</v>
+        <v>103.13</v>
       </c>
     </row>
     <row r="117" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB117" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC117" s="58">
+      <c r="AB117" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC117" s="57">
         <f>AC115/AC116-1</f>
-        <v>-0.34630020928531813</v>
+        <v>-0.22604620913634488</v>
       </c>
     </row>
     <row r="118" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB118" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC118" s="59" t="str">
+      <c r="AB118" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC118" s="58" t="str">
         <f>IF(AC115&gt;AC116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -12925,8 +12940,9 @@
     <hyperlink ref="AA36" r:id="rId52" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
     <hyperlink ref="AA74" r:id="rId53" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
     <hyperlink ref="AB1" r:id="rId54" display="https://finbox.com/NYSE:TSM/explorer/revenue_proj" xr:uid="{BD4BDCDA-3FE0-8448-B821-18ACC774C463}"/>
+    <hyperlink ref="AG106" r:id="rId55" xr:uid="{FFA92C07-BB9C-F94C-BBBB-FF7DE1364AC8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId55"/>
+  <drawing r:id="rId56"/>
 </worksheet>
 </file>
--- a/Technology/Hardware/Taiwan Semiconductor.xlsx
+++ b/Technology/Hardware/Taiwan Semiconductor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46278ACC-0309-9D4D-A9EE-37FFA7A02FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B12769-62DC-684B-8EE9-EF6D9D84F50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2340,12 +2340,13 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="Treasuries"/>
       <sheetName val="All Stars"/>
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
-      <sheetName val="7 Powers"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
       <sheetName val="Compounders"/>
       <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
@@ -2362,14 +2363,14 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
+      <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.7229999999999999E-2</v>
+            <v>3.739E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
@@ -2377,6 +2378,7 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2505,8 +2507,8 @@
     <v>594</v>
     <v>370</v>
     <v>1.3668</v>
-    <v>-2</v>
-    <v>-3.431E-3</v>
+    <v>-7</v>
+    <v>-1.2048000000000001E-2</v>
     <v>TWD</v>
     <v>Taiwan Semiconductor Manufacturing Co Ltd is a Taiwan-based company mainly engaged in the provision of integrated circuit manufacturing services. The integrated circuit manufacturing services include process technology, special process technology, design ecosystem support, mask technology, 3DFabricTM advanced packaging and silicon stacking technology services. The Company has completed the transfer and mass production of 5nm technology, and is engaged in the research and development of 3nm process technology and 2nm process technology. The product application range covers the entire electronic application industry, including personal computers and peripheral products, information application products, wired and wireless communication system products, servers and data centers.</v>
     <v>52045</v>
@@ -2514,23 +2516,23 @@
     <v>XTAI</v>
     <v>XTAI</v>
     <v>No.8, Li-Hsin 6th Road, Hsinchu Science Park, HSINCHU, HSINCHU, 300 TW</v>
-    <v>585</v>
+    <v>578</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45098.398842592593</v>
+    <v>45103.398888888885</v>
     <v>0</v>
-    <v>578</v>
-    <v>15066530000000</v>
+    <v>574</v>
+    <v>14885008180000</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
-    <v>582</v>
-    <v>14.76</v>
-    <v>583</v>
+    <v>576</v>
+    <v>14.58</v>
     <v>581</v>
+    <v>574</v>
     <v>25932070000</v>
     <v>2330</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd. (XTAI:2330)</v>
-    <v>23718735</v>
+    <v>29870090</v>
     <v>28938200</v>
     <v>1987</v>
   </rv>
@@ -2555,9 +2557,9 @@
     <v>Powered by Refinitiv</v>
     <v>110.69</v>
     <v>59.43</v>
-    <v>1.0913999999999999</v>
-    <v>1.49</v>
-    <v>1.4659999999999999E-2</v>
+    <v>1.0934999999999999</v>
+    <v>-1.22</v>
+    <v>-1.183E-2</v>
     <v>USD</v>
     <v>Taiwan Semiconductor Manufacturing Co Ltd is a Taiwan-based company mainly engaged in the provision of integrated circuit manufacturing services. The integrated circuit manufacturing services include process technology, special process technology, design ecosystem support, mask technology, 3DFabricTM advanced packaging and silicon stacking technology services. The Company has completed the transfer and mass production of 5nm technology, and is engaged in the research and development of 3nm process technology and 2nm process technology. The product application range covers the entire electronic application industry, including personal computers and peripheral products, information application products, wired and wireless communication system products, servers and data centers.</v>
     <v>52045</v>
@@ -2565,24 +2567,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>No.8, Li-Hsin 6th Road, Hsinchu Science Park, HSINCHU, HSINCHU, 300 TW</v>
-    <v>103.425</v>
+    <v>102.19</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45099.999144779686</v>
+    <v>45100.998575092184</v>
     <v>3</v>
-    <v>101.33</v>
+    <v>101.005</v>
     <v>486959700000</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
-    <v>101.42</v>
-    <v>15.998100000000001</v>
-    <v>101.64</v>
+    <v>101.52</v>
+    <v>15.8089</v>
     <v>103.13</v>
+    <v>101.91</v>
     <v>5186414000</v>
     <v>TSM</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd. (XNYS:TSM)</v>
-    <v>10473</v>
-    <v>16197287</v>
+    <v>9935</v>
+    <v>15517243</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -3190,7 +3192,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="Y87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z119" sqref="Z119"/>
+      <selection pane="bottomRight" activeCell="AC93" sqref="AC93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4793,15 +4795,15 @@
       </c>
       <c r="AH16" s="30">
         <f>AI101/AA3</f>
-        <v>6.6551472914097856</v>
+        <v>6.5749659590987113</v>
       </c>
       <c r="AI16" s="30">
         <f>AI101/AA28</f>
-        <v>14.821526476778754</v>
+        <v>14.642956463561175</v>
       </c>
       <c r="AJ16" s="31">
         <f>AI101/AA107</f>
-        <v>28.919997294599288</v>
+        <v>28.5715686555357</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -11478,7 +11480,7 @@
       </c>
       <c r="AI94" s="65">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7229999999999999E-2</v>
+        <v>3.739E-2</v>
       </c>
     </row>
     <row r="95" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11747,7 +11749,7 @@
       </c>
       <c r="AI97" s="36">
         <f>(AI94)+((AI95)*(AI96-AI94))</f>
-        <v>0.10115523600000001</v>
+        <v>0.10109654800000001</v>
       </c>
     </row>
     <row r="98" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -12020,7 +12022,7 @@
       </c>
       <c r="AI100" s="34">
         <f>AI99/AI103</f>
-        <v>5.5668500382361708E-2</v>
+        <v>5.6309147722154965E-2</v>
       </c>
       <c r="AJ100" s="60">
         <v>3.3000000000000002E-2</v>
@@ -12113,7 +12115,7 @@
       </c>
       <c r="AI101" s="40" cm="1">
         <f t="array" ref="AI101">_FV(A1,"Market cap",TRUE)</f>
-        <v>15066530000000</v>
+        <v>14885008180000</v>
       </c>
       <c r="AJ101" s="62" t="s">
         <v>158</v>
@@ -12206,11 +12208,11 @@
       </c>
       <c r="AI102" s="59">
         <f>AI101/AI103</f>
-        <v>0.94433149961763829</v>
+        <v>0.94369085227784499</v>
       </c>
       <c r="AJ102" s="61">
         <f>AI101*AJ100</f>
-        <v>497195490000</v>
+        <v>491205269940</v>
       </c>
     </row>
     <row r="103" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12300,7 +12302,7 @@
       </c>
       <c r="AI103" s="41">
         <f>AI99+AI101</f>
-        <v>15954704472000</v>
+        <v>15773182652000</v>
       </c>
     </row>
     <row r="104" spans="1:36" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12523,7 +12525,7 @@
       </c>
       <c r="AI105" s="26">
         <f>(AI100*AI92)+(AI102*AI97)</f>
-        <v>9.6178604200471418E-2</v>
+        <v>9.6065948520194816E-2</v>
       </c>
     </row>
     <row r="106" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -12745,7 +12747,7 @@
       <c r="AE107" s="43"/>
       <c r="AF107" s="64">
         <f>AF106*(1+AI107)/(AI108-AI107)</f>
-        <v>14218964200948.699</v>
+        <v>14241504490894.049</v>
       </c>
       <c r="AG107" s="46" t="s">
         <v>147</v>
@@ -12776,7 +12778,7 @@
       </c>
       <c r="AF108" s="64">
         <f>AF107+AF106</f>
-        <v>15206365200948.699</v>
+        <v>15228905490894.049</v>
       </c>
       <c r="AG108" s="46" t="s">
         <v>144</v>
@@ -12786,7 +12788,7 @@
       </c>
       <c r="AI108" s="50">
         <f>AI105</f>
-        <v>9.6178604200471418E-2</v>
+        <v>9.6065948520194816E-2</v>
       </c>
     </row>
     <row r="109" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -12801,7 +12803,7 @@
       </c>
       <c r="AC110" s="40">
         <f>NPV(AI108,AB108,AC108,AD108,AE108,AF108)</f>
-        <v>11845354933176.092</v>
+        <v>11865153638549.742</v>
       </c>
     </row>
     <row r="111" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12828,7 +12830,7 @@
       </c>
       <c r="AC113" s="40">
         <f>AC110+AC111-AC112</f>
-        <v>12543680586176.092</v>
+        <v>12563479291549.742</v>
       </c>
     </row>
     <row r="114" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -12846,7 +12848,7 @@
       </c>
       <c r="AC115" s="54">
         <f>AC113/AC114*AJ100</f>
-        <v>79.817854451768753</v>
+        <v>79.943837425664711</v>
       </c>
     </row>
     <row r="116" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -12855,7 +12857,7 @@
       </c>
       <c r="AC116" s="55" cm="1">
         <f t="array" ref="AC116">_FV(AJ98,"Price")</f>
-        <v>103.13</v>
+        <v>101.91</v>
       </c>
     </row>
     <row r="117" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -12864,7 +12866,7 @@
       </c>
       <c r="AC117" s="57">
         <f>AC115/AC116-1</f>
-        <v>-0.22604620913634488</v>
+        <v>-0.21554472156152771</v>
       </c>
     </row>
     <row r="118" spans="28:29" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Taiwan Semiconductor.xlsx
+++ b/Technology/Hardware/Taiwan Semiconductor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B12769-62DC-684B-8EE9-EF6D9D84F50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497779F3-9970-3941-BC2A-84E68573267D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="169">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -355,9 +355,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -572,17 +569,40 @@
   </si>
   <si>
     <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -751,7 +771,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -857,62 +877,18 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -962,107 +938,103 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1115,9 +1087,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>TSM</a:t>
+              <a:t>Taiwan</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" baseline="0"/>
+              <a:t> Semiconductor</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1154,10 +1129,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.0855293670653911E-2"/>
-          <c:y val="0.11525455310452605"/>
-          <c:w val="0.8465823103226906"/>
-          <c:h val="0.74512652521488254"/>
+          <c:x val="0.1081597861831331"/>
+          <c:y val="0.15053931009225291"/>
+          <c:w val="0.82927781781021126"/>
+          <c:h val="0.67455726815222672"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1453,7 +1428,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1709,6 +1684,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36694422681357836"/>
+          <c:y val="0.90858539234319846"/>
+          <c:w val="0.28208492407667013"/>
+          <c:h val="6.5753019846055735E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2286,14 +2271,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>63499</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>1587499</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:colOff>1587500</xdr:colOff>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2366,7 +2351,7 @@
       <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.739E-2</v>
+            <v>3.8539999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2506,9 +2491,9 @@
     <v>Powered by Refinitiv</v>
     <v>594</v>
     <v>370</v>
-    <v>1.3668</v>
-    <v>-7</v>
-    <v>-1.2048000000000001E-2</v>
+    <v>1.369</v>
+    <v>3</v>
+    <v>5.2359999999999993E-3</v>
     <v>TWD</v>
     <v>Taiwan Semiconductor Manufacturing Co Ltd is a Taiwan-based company mainly engaged in the provision of integrated circuit manufacturing services. The integrated circuit manufacturing services include process technology, special process technology, design ecosystem support, mask technology, 3DFabricTM advanced packaging and silicon stacking technology services. The Company has completed the transfer and mass production of 5nm technology, and is engaged in the research and development of 3nm process technology and 2nm process technology. The product application range covers the entire electronic application industry, including personal computers and peripheral products, information application products, wired and wireless communication system products, servers and data centers.</v>
     <v>52045</v>
@@ -2516,24 +2501,24 @@
     <v>XTAI</v>
     <v>XTAI</v>
     <v>No.8, Li-Hsin 6th Road, Hsinchu Science Park, HSINCHU, HSINCHU, 300 TW</v>
-    <v>578</v>
+    <v>576</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45103.398888888885</v>
+    <v>45107.398993055554</v>
     <v>0</v>
-    <v>574</v>
-    <v>14885008180000</v>
+    <v>568</v>
+    <v>14936872320000</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
+    <v>570</v>
+    <v>14.63</v>
+    <v>573</v>
     <v>576</v>
-    <v>14.58</v>
-    <v>581</v>
-    <v>574</v>
     <v>25932070000</v>
     <v>2330</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd. (XTAI:2330)</v>
-    <v>29870090</v>
-    <v>28938200</v>
+    <v>33830922</v>
+    <v>24207490</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2543,13 +2528,13 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a24kjc&amp;q=XNYS%3aTSM&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="1">
-    <v>0</v>
+  <rv s="3">
+    <v>5</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd. (XNYS:TSM)</v>
     <v>2</v>
-    <v>5</v>
+    <v>6</v>
     <v>Finance</v>
-    <v>6</v>
+    <v>7</v>
     <v>en-US</v>
     <v>a24kjc</v>
     <v>268435456</v>
@@ -2557,9 +2542,11 @@
     <v>Powered by Refinitiv</v>
     <v>110.69</v>
     <v>59.43</v>
-    <v>1.0934999999999999</v>
-    <v>-1.22</v>
-    <v>-1.183E-2</v>
+    <v>1.0881000000000001</v>
+    <v>0.28000000000000003</v>
+    <v>2.7820000000000002E-3</v>
+    <v>0.13</v>
+    <v>1.2880000000000001E-3</v>
     <v>USD</v>
     <v>Taiwan Semiconductor Manufacturing Co Ltd is a Taiwan-based company mainly engaged in the provision of integrated circuit manufacturing services. The integrated circuit manufacturing services include process technology, special process technology, design ecosystem support, mask technology, 3DFabricTM advanced packaging and silicon stacking technology services. The Company has completed the transfer and mass production of 5nm technology, and is engaged in the research and development of 3nm process technology and 2nm process technology. The product application range covers the entire electronic application industry, including personal computers and peripheral products, information application products, wired and wireless communication system products, servers and data centers.</v>
     <v>52045</v>
@@ -2567,24 +2554,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>No.8, Li-Hsin 6th Road, Hsinchu Science Park, HSINCHU, HSINCHU, 300 TW</v>
-    <v>102.19</v>
+    <v>101.89</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45100.998575092184</v>
+    <v>45107.999958471875</v>
     <v>3</v>
-    <v>101.005</v>
-    <v>486959700000</v>
+    <v>100.405</v>
+    <v>480130900000</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
-    <v>101.52</v>
-    <v>15.8089</v>
-    <v>103.13</v>
-    <v>101.91</v>
+    <v>101.4</v>
+    <v>15.6119</v>
+    <v>100.64</v>
+    <v>100.92</v>
+    <v>101.05</v>
     <v>5186414000</v>
     <v>TSM</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd. (XNYS:TSM)</v>
-    <v>9935</v>
-    <v>15517243</v>
+    <v>11704648</v>
+    <v>15227087</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2594,7 +2582,7 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -2646,12 +2634,59 @@
   <s t="_linkedentity">
     <k n="%cvi" t="r"/>
   </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="1">
+  <spbArrays count="2">
     <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -2696,8 +2731,55 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
   </spbArrays>
-  <spbData count="7">
+  <spbData count="8">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -2743,7 +2825,12 @@
       <v>Source: TWSE</v>
       <v>GMT</v>
     </spb>
-    <spb s="3">
+    <spb s="0">
+      <v>1</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="5">
       <v>10</v>
       <v>2</v>
       <v>2</v>
@@ -2764,20 +2851,26 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>10</v>
+      <v>10</v>
+      <v>5</v>
     </spb>
-    <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+    <spb s="6">
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="7">
   <s>
     <k n="^Order" t="spba"/>
     <k n="TitleProperty" t="s"/>
@@ -2822,6 +2915,41 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3189,10 +3317,10 @@
   <dimension ref="A1:AJ118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC93" sqref="AC93"/>
+      <selection pane="bottomRight" activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3284,19 +3412,19 @@
       <c r="AA1" s="8">
         <v>2022</v>
       </c>
-      <c r="AB1" s="27">
+      <c r="AB1" s="23">
         <v>2023</v>
       </c>
-      <c r="AC1" s="27">
+      <c r="AC1" s="23">
         <v>2024</v>
       </c>
-      <c r="AD1" s="27">
+      <c r="AD1" s="23">
         <v>2025</v>
       </c>
-      <c r="AE1" s="27">
+      <c r="AE1" s="23">
         <v>2026</v>
       </c>
-      <c r="AF1" s="27">
+      <c r="AF1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3305,91 +3433,91 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
@@ -3476,37 +3604,42 @@
       <c r="AA3" s="1">
         <v>2263891292000</v>
       </c>
-      <c r="AB3" s="28">
-        <v>2178980000000</v>
-      </c>
-      <c r="AC3" s="28">
-        <v>2653248000000</v>
-      </c>
-      <c r="AD3" s="28">
-        <v>3057300000000</v>
-      </c>
-      <c r="AE3" s="28">
-        <v>3228981000000</v>
-      </c>
-      <c r="AF3" s="28">
-        <v>3556781000000</v>
+      <c r="AB3" s="24">
+        <f>69969000000/$AJ$100</f>
+        <v>2120272727272.7271</v>
+      </c>
+      <c r="AC3" s="24">
+        <f>85192000000/$AJ$100</f>
+        <v>2581575757575.7573</v>
+      </c>
+      <c r="AD3" s="24">
+        <f>98467000000/$AJ$100</f>
+        <v>2983848484848.4849</v>
+      </c>
+      <c r="AE3" s="24">
+        <f>104000000000/$AJ$100</f>
+        <v>3151515151515.1514</v>
+      </c>
+      <c r="AF3" s="24">
+        <f>114600000000/$AJ$100</f>
+        <v>3472727272727.2725</v>
       </c>
       <c r="AG3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AH3" s="19" t="s">
+      <c r="AI3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AI3" s="19" t="s">
+      <c r="AJ3" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="AJ3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3611,23 +3744,23 @@
       </c>
       <c r="AB4" s="16">
         <f t="shared" si="0"/>
-        <v>-3.7506788554757198E-2</v>
+        <v>-6.3438807876854963E-2</v>
       </c>
       <c r="AC4" s="16">
         <f t="shared" si="0"/>
-        <v>0.21765596747101856</v>
+        <v>0.21756778001686472</v>
       </c>
       <c r="AD4" s="16">
         <f t="shared" si="0"/>
-        <v>0.15228580215645127</v>
+        <v>0.15582449056249414</v>
       </c>
       <c r="AE4" s="16">
         <f t="shared" si="0"/>
-        <v>5.6154450004906264E-2</v>
+        <v>5.6191414382483318E-2</v>
       </c>
       <c r="AF4" s="16">
         <f t="shared" si="0"/>
-        <v>0.10151809502750253</v>
+        <v>0.10192307692307678</v>
       </c>
       <c r="AG4" s="17">
         <f>(AA4+Z4+Y4)/3</f>
@@ -3812,16 +3945,16 @@
         <v>1348354806000</v>
       </c>
       <c r="AG6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AH6" s="19" t="s">
+      <c r="AI6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AI6" s="19" t="s">
+      <c r="AJ6" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="AJ6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -4008,7 +4141,7 @@
     </row>
     <row r="9" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -4115,16 +4248,16 @@
         <v>7.2115745388007788E-2</v>
       </c>
       <c r="AG9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AH9" s="19" t="s">
+      <c r="AI9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AI9" s="19" t="s">
+      <c r="AJ9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AJ9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -4132,40 +4265,40 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N10" s="1">
         <v>11285500000</v>
@@ -4231,40 +4364,40 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1">
         <v>4487800000</v>
@@ -4392,21 +4525,21 @@
         <v>63445344000</v>
       </c>
       <c r="AG12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AH12" s="19" t="s">
+      <c r="AI12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AI12" s="19" t="s">
+      <c r="AJ12" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="AJ12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -4534,13 +4667,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1">
         <v>-33113</v>
@@ -4549,37 +4682,37 @@
         <v>276223816</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R14" s="1">
         <v>25100000</v>
@@ -4695,16 +4828,16 @@
         <v>227075955000</v>
       </c>
       <c r="AG15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AH15" s="19" t="s">
+      <c r="AI15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AI15" s="19" t="s">
+      <c r="AJ15" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="AJ15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -4789,62 +4922,62 @@
       <c r="AA16" s="1">
         <v>1142612441000</v>
       </c>
-      <c r="AG16" s="29">
+      <c r="AG16" s="25">
         <f>(AA35+Z35+Y35+X35+W35)/5</f>
         <v>0</v>
       </c>
-      <c r="AH16" s="30">
+      <c r="AH16" s="58">
         <f>AI101/AA3</f>
-        <v>6.5749659590987113</v>
-      </c>
-      <c r="AI16" s="30">
+        <v>6.5978752481548044</v>
+      </c>
+      <c r="AI16" s="58">
         <f>AI101/AA28</f>
-        <v>14.642956463561175</v>
-      </c>
-      <c r="AJ16" s="31">
+        <v>14.693977217789611</v>
+      </c>
+      <c r="AJ16" s="60">
         <f>AI101/AA107</f>
-        <v>28.5715686555357</v>
+        <v>28.671121159561956</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1">
         <v>391500000</v>
@@ -4889,7 +5022,7 @@
         <v>11749984000</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -4972,10 +5105,19 @@
         <v>437254273000</v>
       </c>
       <c r="AG18" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="AH18" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI18" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ18" s="19" t="s">
+        <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -5057,14 +5199,46 @@
       <c r="AA19" s="10">
         <v>1592824709000</v>
       </c>
-      <c r="AG19" s="32">
+      <c r="AB19" s="63">
+        <f>47166000000/$AJ$100</f>
+        <v>1429272727272.7273</v>
+      </c>
+      <c r="AC19" s="63">
+        <f>59726000000/$AJ$100</f>
+        <v>1809878787878.7878</v>
+      </c>
+      <c r="AD19" s="63">
+        <f>68706000000/$AJ$100</f>
+        <v>2082000000000</v>
+      </c>
+      <c r="AE19" s="63">
+        <f>72440000000/$AJ$100</f>
+        <v>2195151515151.5151</v>
+      </c>
+      <c r="AF19" s="63">
+        <f>79657000000/$AJ$100</f>
+        <v>2413848484848.4849</v>
+      </c>
+      <c r="AG19" s="26">
         <f>AA40-AA56-AA61</f>
         <v>698325653000</v>
       </c>
+      <c r="AH19" s="58">
+        <f>AI101/AB3</f>
+        <v>7.0447882142091505</v>
+      </c>
+      <c r="AI19" s="59">
+        <f>AI101/AB28</f>
+        <v>18.770631628332065</v>
+      </c>
+      <c r="AJ19" s="60">
+        <f>AI101/AB106</f>
+        <v>38.255825553788348</v>
+      </c>
     </row>
-    <row r="20" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -5167,8 +5341,31 @@
         <f t="shared" si="3"/>
         <v>0.4608732333342842</v>
       </c>
+      <c r="AB20" s="16">
+        <f t="shared" ref="AB20" si="4">(AB19/AA19)-1</f>
+        <v>-0.10268046496463079</v>
+      </c>
+      <c r="AC20" s="16">
+        <f t="shared" ref="AC20" si="5">(AC19/AB19)-1</f>
+        <v>0.26629351651613442</v>
+      </c>
+      <c r="AD20" s="16">
+        <f t="shared" ref="AD20" si="6">(AD19/AC19)-1</f>
+        <v>0.15035327997856873</v>
+      </c>
+      <c r="AE20" s="16">
+        <f t="shared" ref="AE20" si="7">(AE19/AD19)-1</f>
+        <v>5.4347509678921879E-2</v>
+      </c>
+      <c r="AF20" s="16">
+        <f t="shared" ref="AF20" si="8">(AF19/AE19)-1</f>
+        <v>9.9627277747101006E-2</v>
+      </c>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="15"/>
     </row>
-    <row r="21" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5250,8 +5447,34 @@
       <c r="AA21" s="2">
         <v>0.7036</v>
       </c>
+      <c r="AB21" s="64">
+        <f>AB19/AB3</f>
+        <v>0.67409852934871162</v>
+      </c>
+      <c r="AC21" s="64">
+        <f t="shared" ref="AC21:AF21" si="9">AC19/AC3</f>
+        <v>0.70107521833035968</v>
+      </c>
+      <c r="AD21" s="64">
+        <f t="shared" si="9"/>
+        <v>0.69775660881310486</v>
+      </c>
+      <c r="AE21" s="64">
+        <f t="shared" si="9"/>
+        <v>0.69653846153846155</v>
+      </c>
+      <c r="AF21" s="64">
+        <f t="shared" si="9"/>
+        <v>0.69508726003490406</v>
+      </c>
+      <c r="AI21" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ21" s="19" t="s">
+        <v>168</v>
+      </c>
     </row>
-    <row r="22" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -5333,8 +5556,16 @@
       <c r="AA22" s="10">
         <v>1121278851000</v>
       </c>
+      <c r="AI22" s="61">
+        <f>(-1*AA98)/AI101</f>
+        <v>1.909597798583847E-2</v>
+      </c>
+      <c r="AJ22" s="62">
+        <f>AA107/AI101</f>
+        <v>3.4878301215873285E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -5417,7 +5648,7 @@
         <v>0.49530000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -5500,7 +5731,7 @@
         <v>22911867000</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -5583,7 +5814,7 @@
         <v>1144190718000</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -5666,7 +5897,7 @@
         <v>0.50539999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -5749,7 +5980,7 @@
         <v>127290203000</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -5831,10 +6062,30 @@
       <c r="AA28" s="11">
         <v>1016530249000</v>
       </c>
+      <c r="AB28" s="65">
+        <f>26260000000/$AJ$100</f>
+        <v>795757575757.57568</v>
+      </c>
+      <c r="AC28" s="65">
+        <f>32419000000/$AJ$100</f>
+        <v>982393939393.93933</v>
+      </c>
+      <c r="AD28" s="65">
+        <f>37918000000/$AJ$100</f>
+        <v>1149030303030.303</v>
+      </c>
+      <c r="AE28" s="65">
+        <f>37099000000/$AJ$100</f>
+        <v>1124212121212.1211</v>
+      </c>
+      <c r="AF28" s="65">
+        <f>40936000000/$AJ$100</f>
+        <v>1240484848484.8484</v>
+      </c>
     </row>
-    <row r="29" spans="1:33" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -5850,95 +6101,115 @@
         <v>1.6505763482233671</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AA29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AA29" si="10">(F28/E28)-1</f>
         <v>-0.77754519710175629</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.49469181690230646</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.1787192865798253</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.96028885468626801</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.5127391499761611E-2</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.35304556457092628</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.14023707136660157</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-8.2197840516261222E-2</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.10966447969052595</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.81135378814541492</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.16957210482348939</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.23813107622653429</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.10723958044954585</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.3822410989163898</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.19091322344273376</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>9.5303662627385322E-2</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>4.0048391127650129E-2</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5.2331852069995799E-2</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-2.5078177355518871E-2</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.44299162588854868</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.15979668875209496</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.71607066962073018</v>
       </c>
+      <c r="AB29" s="16">
+        <f t="shared" ref="AB29" si="11">(AB28/AA28)-1</f>
+        <v>-0.21718259093579051</v>
+      </c>
+      <c r="AC29" s="16">
+        <f t="shared" ref="AC29" si="12">(AC28/AB28)-1</f>
+        <v>0.23453922315308451</v>
+      </c>
+      <c r="AD29" s="16">
+        <f t="shared" ref="AD29" si="13">(AD28/AC28)-1</f>
+        <v>0.16962275208982391</v>
+      </c>
+      <c r="AE29" s="16">
+        <f t="shared" ref="AE29" si="14">(AE28/AD28)-1</f>
+        <v>-2.1599240466269376E-2</v>
+      </c>
+      <c r="AF29" s="16">
+        <f t="shared" ref="AF29" si="15">(AF28/AE28)-1</f>
+        <v>0.10342596835494211</v>
+      </c>
     </row>
-    <row r="30" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -6020,8 +6291,28 @@
       <c r="AA30" s="2">
         <v>0.44900000000000001</v>
       </c>
+      <c r="AB30" s="66">
+        <f>AB28/AB3</f>
+        <v>0.37530906544326775</v>
+      </c>
+      <c r="AC30" s="66">
+        <f t="shared" ref="AC30:AF30" si="16">AC28/AC3</f>
+        <v>0.3805404263311109</v>
+      </c>
+      <c r="AD30" s="66">
+        <f t="shared" si="16"/>
+        <v>0.38508332740918277</v>
+      </c>
+      <c r="AE30" s="66">
+        <f t="shared" si="16"/>
+        <v>0.35672115384615383</v>
+      </c>
+      <c r="AF30" s="66">
+        <f t="shared" si="16"/>
+        <v>0.35720767888307153</v>
+      </c>
     </row>
-    <row r="31" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -6103,8 +6394,28 @@
       <c r="AA31" s="12">
         <v>196.01</v>
       </c>
+      <c r="AB31" s="67">
+        <f>AB28/$AA$33</f>
+        <v>153.44117127430752</v>
+      </c>
+      <c r="AC31" s="67">
+        <f t="shared" ref="AC31:AF31" si="17">AC28/$AA$33</f>
+        <v>189.42914438468301</v>
+      </c>
+      <c r="AD31" s="67">
+        <f t="shared" si="17"/>
+        <v>221.56063718123355</v>
+      </c>
+      <c r="AE31" s="67">
+        <f t="shared" si="17"/>
+        <v>216.77509570089623</v>
+      </c>
+      <c r="AF31" s="67">
+        <f t="shared" si="17"/>
+        <v>239.19526988899668</v>
+      </c>
     </row>
-    <row r="32" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -6355,7 +6666,7 @@
     </row>
     <row r="35" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -6363,99 +6674,99 @@
         <v>2.235835554819213E-2</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AA35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AA35" si="18">(D34-C34)/C34</f>
         <v>1.9190687958425219E-2</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.17444564279674479</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>9.3117177520547892E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-3.2012728384297459E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>8.2016106525435086E-3</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>7.4816761976436051E-3</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>1.1273384332513008E-2</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>1.5010829560124976E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>1.6421131627155354E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.4845807324330773E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.2333871918813036E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>2.5048620216957092E-4</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>1.7700553092129989E-4</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>1.2551745089872269E-4</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>6.4293586654950085E-5</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>1.932154533951021E-5</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>1.0643998959664797E-5</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -6464,82 +6775,82 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:27" ht="21" x14ac:dyDescent="0.25">
@@ -6547,82 +6858,82 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -7294,31 +7605,31 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1">
         <v>5982600492</v>
@@ -7377,19 +7688,19 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1">
         <v>10176452556</v>
@@ -7460,19 +7771,19 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1">
         <v>10176452556</v>
@@ -7543,40 +7854,40 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1">
         <v>40578600000</v>
@@ -7875,82 +8186,82 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:27" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -8130,7 +8441,7 @@
         <v>299618193</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1">
         <v>3884900336</v>
@@ -8207,40 +8518,40 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1">
         <v>8800300000</v>
@@ -8290,82 +8601,82 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -8622,49 +8933,49 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1">
         <v>789100000</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1">
         <v>203900000</v>
@@ -8694,10 +9005,10 @@
         <v>265600000</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -8705,55 +9016,55 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S63" s="1">
         <v>199700000</v>
@@ -8954,82 +9265,82 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -9334,34 +9645,34 @@
         <v>-2785800000</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X70" s="1">
         <v>321822000000</v>
       </c>
       <c r="Y70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z70" s="1">
         <v>370451000000</v>
       </c>
       <c r="AA70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -9444,7 +9755,7 @@
         <v>-368297900000</v>
       </c>
       <c r="AA71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -9618,82 +9929,82 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:27" ht="21" x14ac:dyDescent="0.25">
@@ -9701,82 +10012,82 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -9998,34 +10309,34 @@
         <v>573200000</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -10033,49 +10344,49 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q79" s="1">
         <v>6200000</v>
@@ -10084,19 +10395,19 @@
         <v>5300000</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X79" s="1">
         <v>2800000</v>
@@ -10113,110 +10424,110 @@
     </row>
     <row r="80" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AA80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:AA80" si="19">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="O80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="P80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>1.2247552267417007E-5</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>8.8776728704849702E-6</v>
       </c>
       <c r="S80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="T80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="U80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="V80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="W80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>2.6168498212317735E-6</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>4.9281737345513891E-6</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>4.9136489197846811E-6</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>1.3355234903213717E-4</v>
       </c>
     </row>
@@ -10308,40 +10619,40 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1">
         <v>-16873200000</v>
@@ -10380,10 +10691,10 @@
         <v>-8082700000</v>
       </c>
       <c r="Z82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:35" ht="21" x14ac:dyDescent="0.25">
@@ -10468,50 +10779,50 @@
       <c r="AA83" s="1">
         <v>-28046827000</v>
       </c>
-      <c r="AH83" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI83" s="69"/>
+      <c r="AH83" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI83" s="70"/>
     </row>
     <row r="84" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1">
         <v>4916900000</v>
@@ -10555,8 +10866,8 @@
       <c r="AA84" s="1">
         <v>7594105000</v>
       </c>
-      <c r="AH84" s="70" t="s">
-        <v>127</v>
+      <c r="AH84" s="71" t="s">
+        <v>126</v>
       </c>
       <c r="AI84" s="71"/>
     </row>
@@ -10565,31 +10876,31 @@
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K85" s="1">
         <v>-32584970</v>
@@ -10642,10 +10953,10 @@
       <c r="AA85" s="1">
         <v>21330626000</v>
       </c>
-      <c r="AH85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI85" s="24">
+      <c r="AH85" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI85" s="33">
         <f>AA17</f>
         <v>11749984000</v>
       </c>
@@ -10732,10 +11043,10 @@
       <c r="AA86" s="1">
         <v>-93656750000</v>
       </c>
-      <c r="AH86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI86" s="24">
+      <c r="AH86" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI86" s="33">
         <f>AA56</f>
         <v>19313889000</v>
       </c>
@@ -10822,10 +11133,10 @@
       <c r="AA87" s="10">
         <v>1610599188000</v>
       </c>
-      <c r="AH87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI87" s="24">
+      <c r="AH87" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI87" s="33">
         <f>AA61</f>
         <v>868860583000</v>
       </c>
@@ -10853,7 +11164,7 @@
         <v>-55331549901</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I88" s="1">
         <v>-81236130360</v>
@@ -10912,126 +11223,126 @@
       <c r="AA88" s="1">
         <v>-1082672130000</v>
       </c>
-      <c r="AH88" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI88" s="34">
+      <c r="AH88" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI88" s="35">
         <f>AI85/(AI86+AI87)</f>
         <v>1.3229364691760698E-2</v>
       </c>
     </row>
     <row r="89" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89:AA89" si="20">(-1*B88)/B3</f>
+        <v>0.63790091269326898</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="20"/>
+        <v>0.68723199999999995</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="20"/>
+        <v>0.40842458153645816</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="20"/>
+        <v>0.6243285739816512</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="20"/>
+        <v>0.52226263053996025</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="20"/>
+        <v>0.34032700258264198</v>
+      </c>
+      <c r="H89" s="15" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="20"/>
+        <v>0.31532972440944884</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="20"/>
+        <v>0.29965919808477887</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="20"/>
+        <v>0.24806456249871656</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="20"/>
+        <v>0.26036085842086748</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="20"/>
+        <v>0.17776510383889238</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="20"/>
+        <v>0.29682913023572555</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="20"/>
+        <v>0.44559549923856701</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="20"/>
+        <v>0.50098857218052051</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="20"/>
+        <v>0.48622268894614951</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="20"/>
+        <v>0.4817306705004813</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="20"/>
+        <v>0.37824693413385596</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="20"/>
+        <v>0.30529103006772279</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="20"/>
+        <v>0.34692204696399193</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="20"/>
+        <v>0.33905612462563017</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="20"/>
+        <v>0.30598563956896602</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="20"/>
+        <v>0.43030562562897856</v>
+      </c>
+      <c r="Y89" s="15">
+        <f t="shared" si="20"/>
+        <v>0.38225611046874775</v>
+      </c>
+      <c r="Z89" s="15">
+        <f t="shared" si="20"/>
+        <v>0.52941146455085786</v>
+      </c>
+      <c r="AA89" s="15">
+        <f t="shared" si="20"/>
+        <v>0.47823503444086751</v>
+      </c>
+      <c r="AH89" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15">
-        <f t="shared" ref="B89:AA89" si="7">(-1*B88)/B3</f>
-        <v>0.63790091269326898</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.68723199999999995</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.40842458153645816</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.6243285739816512</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.52226263053996025</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.34032700258264198</v>
-      </c>
-      <c r="H89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.31532972440944884</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.29965919808477887</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.24806456249871656</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.26036085842086748</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.17776510383889238</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.29682913023572555</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.44559549923856701</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.50098857218052051</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.48622268894614951</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.4817306705004813</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.37824693413385596</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.30529103006772279</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.34692204696399193</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.33905612462563017</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.30598563956896602</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.43030562562897856</v>
-      </c>
-      <c r="Y89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.38225611046874775</v>
-      </c>
-      <c r="Z89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.52941146455085786</v>
-      </c>
-      <c r="AA89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.47823503444086751</v>
-      </c>
-      <c r="AH89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI89" s="24">
+      <c r="AI89" s="33">
         <f>AA27</f>
         <v>127290203000</v>
       </c>
@@ -11041,87 +11352,87 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1">
         <v>-37792872180</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O90" s="1">
         <v>-6242400000</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R90" s="1">
         <v>-979900000</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T90" s="1">
         <v>549400000</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V90" s="1">
         <v>-4100000</v>
       </c>
       <c r="W90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH90" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH90" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="AI90" s="24">
+      <c r="AI90" s="33">
         <f>AA25</f>
         <v>1144190718000</v>
       </c>
@@ -11208,10 +11519,10 @@
       <c r="AA91" s="1">
         <v>-237818185000</v>
       </c>
-      <c r="AH91" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI91" s="34">
+      <c r="AH91" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI91" s="35">
         <f>AI89/AI90</f>
         <v>0.11124911345417854</v>
       </c>
@@ -11298,10 +11609,10 @@
       <c r="AA92" s="1">
         <v>108980409000</v>
       </c>
-      <c r="AH92" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI92" s="36">
+      <c r="AH92" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI92" s="35">
         <f>AI88*(1-AI91)</f>
         <v>1.1757609598240308E-2</v>
       </c>
@@ -11388,8 +11699,8 @@
       <c r="AA93" s="1">
         <v>20581671000</v>
       </c>
-      <c r="AH93" s="70" t="s">
-        <v>134</v>
+      <c r="AH93" s="71" t="s">
+        <v>133</v>
       </c>
       <c r="AI93" s="71"/>
     </row>
@@ -11475,12 +11786,12 @@
       <c r="AA94" s="10">
         <v>-1190928235000</v>
       </c>
-      <c r="AH94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI94" s="65">
+      <c r="AH94" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI94" s="36">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.739E-2</v>
+        <v>3.8539999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11488,40 +11799,40 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1">
         <v>-9142000000</v>
@@ -11565,12 +11876,12 @@
       <c r="AA95" s="1">
         <v>-118954936000</v>
       </c>
-      <c r="AH95" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI95" s="39" cm="1">
+      <c r="AH95" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI95" s="38" cm="1">
         <f t="array" ref="AI95">_FV(A1,"Beta")</f>
-        <v>1.3668</v>
+        <v>1.369</v>
       </c>
     </row>
     <row r="96" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11578,28 +11889,28 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1">
         <v>39204533131</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J96" s="1">
         <v>1173895845</v>
@@ -11614,51 +11925,51 @@
         <v>226660515</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI96" s="37">
+        <v>91</v>
+      </c>
+      <c r="AH96" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI96" s="39">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -11667,22 +11978,22 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1">
         <v>-12971138520</v>
@@ -11691,10 +12002,10 @@
         <v>-7068145560</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="1">
         <v>-45417394692</v>
@@ -11703,53 +12014,53 @@
         <v>-33572035700</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P97" s="1">
         <v>-71600000</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA97" s="1">
         <v>-871566000</v>
       </c>
-      <c r="AH97" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AI97" s="36">
+      <c r="AH97" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI97" s="35">
         <f>(AI94)+((AI95)*(AI96-AI94))</f>
-        <v>0.10109654800000001</v>
+        <v>0.10077474</v>
       </c>
     </row>
     <row r="98" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -11757,16 +12068,16 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1">
         <v>-41153852</v>
@@ -11834,8 +12145,8 @@
       <c r="AA98" s="1">
         <v>-285234185000</v>
       </c>
-      <c r="AH98" s="70" t="s">
-        <v>139</v>
+      <c r="AH98" s="71" t="s">
+        <v>138</v>
       </c>
       <c r="AI98" s="71"/>
       <c r="AJ98" t="e" vm="2">
@@ -11924,15 +12235,15 @@
       <c r="AA99" s="1">
         <v>204816655000</v>
       </c>
-      <c r="AH99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI99" s="24">
+      <c r="AH99" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI99" s="33">
         <f>AI86+AI87</f>
         <v>888174472000</v>
       </c>
-      <c r="AJ99" s="62" t="s">
-        <v>157</v>
+      <c r="AJ99" s="40" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="100" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12017,14 +12328,14 @@
       <c r="AA100" s="10">
         <v>-200244032000</v>
       </c>
-      <c r="AH100" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI100" s="34">
+      <c r="AH100" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI100" s="35">
         <f>AI99/AI103</f>
-        <v>5.6309147722154965E-2</v>
-      </c>
-      <c r="AJ100" s="60">
+        <v>5.6124603211220633E-2</v>
+      </c>
+      <c r="AJ100" s="41">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
@@ -12033,19 +12344,19 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1">
         <v>-657227004</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1">
         <v>118576149</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1">
         <v>262852184</v>
@@ -12110,15 +12421,15 @@
       <c r="AA101" s="1">
         <v>58396970000</v>
       </c>
-      <c r="AH101" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="AI101" s="40" cm="1">
+      <c r="AH101" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI101" s="42" cm="1">
         <f t="array" ref="AI101">_FV(A1,"Market cap",TRUE)</f>
-        <v>14885008180000</v>
-      </c>
-      <c r="AJ101" s="62" t="s">
-        <v>158</v>
+        <v>14936872320000</v>
+      </c>
+      <c r="AJ101" s="40" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="102" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12203,16 +12514,16 @@
       <c r="AA102" s="10">
         <v>277823891000</v>
       </c>
-      <c r="AH102" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="AI102" s="59">
+      <c r="AH102" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI102" s="35">
         <f>AI101/AI103</f>
-        <v>0.94369085227784499</v>
-      </c>
-      <c r="AJ102" s="61">
+        <v>0.94387539678877941</v>
+      </c>
+      <c r="AJ102" s="33">
         <f>AI101*AJ100</f>
-        <v>491205269940</v>
+        <v>492916786560</v>
       </c>
     </row>
     <row r="103" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12297,12 +12608,12 @@
       <c r="AA103" s="1">
         <v>1064990192000</v>
       </c>
-      <c r="AH103" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI103" s="41">
+      <c r="AH103" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI103" s="43">
         <f>AI99+AI101</f>
-        <v>15773182652000</v>
+        <v>15825046792000</v>
       </c>
     </row>
     <row r="104" spans="1:36" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12387,281 +12698,284 @@
       <c r="AA104" s="11">
         <v>1342814083000</v>
       </c>
-      <c r="AH104" s="70" t="s">
-        <v>145</v>
+      <c r="AH104" s="71" t="s">
+        <v>144</v>
       </c>
       <c r="AI104" s="71"/>
     </row>
     <row r="105" spans="1:36" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="B105" s="1">
-        <f t="shared" ref="B105:Z105" si="8">(B22*(1-$AI$91))+B77+B88+B81</f>
+        <f t="shared" ref="B105:Z105" si="21">(B22*(1-$AI$91))+B77+B88+B81</f>
         <v>-10594400990.662193</v>
       </c>
       <c r="C105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>-5083598385.9156761</v>
       </c>
       <c r="D105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>5170992493.5488586</v>
       </c>
       <c r="E105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>-22784906494.670135</v>
       </c>
       <c r="F105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>-7247944526.3330536</v>
       </c>
       <c r="G105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>41296755384.959106</v>
       </c>
       <c r="H105" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="I105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>60917509142.183899</v>
       </c>
       <c r="J105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>68341628778.374603</v>
       </c>
       <c r="K105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>113723898324.59692</v>
       </c>
       <c r="L105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>90975763762.5672</v>
       </c>
       <c r="M105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>150885242435.73981</v>
       </c>
       <c r="N105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>64132220153.438171</v>
       </c>
       <c r="O105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>28416088991.197083</v>
       </c>
       <c r="P105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>23454164747.12146</v>
       </c>
       <c r="Q105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>33074247015.50415</v>
       </c>
       <c r="R105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>48927121110.705505</v>
       </c>
       <c r="S105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>125016591427.57812</v>
       </c>
       <c r="T105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>272656565987.03973</v>
       </c>
       <c r="U105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>215828229826.9082</v>
       </c>
       <c r="V105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>281379480815.89771</v>
       </c>
       <c r="W105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>256245325724.81091</v>
       </c>
       <c r="X105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>168522533041.60278</v>
       </c>
       <c r="Y105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>295185515854.72095</v>
       </c>
       <c r="Z105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>292136601112.85095</v>
       </c>
       <c r="AA105" s="1">
         <f>(AA22*(1-$AI$91))+AA77+AA88+AA81</f>
         <v>473628314891.33008</v>
       </c>
-      <c r="AB105" s="42">
+      <c r="AB105" s="27">
         <f>AA105*(1+$AI$106)</f>
-        <v>520054075232.27551</v>
-      </c>
-      <c r="AC105" s="42">
-        <f t="shared" ref="AC105:AF105" si="9">AB105*(1+$AI$106)</f>
-        <v>571030558482.87097</v>
-      </c>
-      <c r="AD105" s="42">
-        <f t="shared" si="9"/>
-        <v>627003833352.56409</v>
-      </c>
-      <c r="AE105" s="42">
-        <f t="shared" si="9"/>
-        <v>688463692877.13464</v>
-      </c>
-      <c r="AF105" s="42">
-        <f t="shared" si="9"/>
-        <v>755947940342.97632</v>
-      </c>
-      <c r="AG105" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="AH105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI105" s="26">
+        <v>517966362153.62451</v>
+      </c>
+      <c r="AC105" s="27">
+        <f t="shared" ref="AC105:AF105" si="22">AB105*(1+$AI$106)</f>
+        <v>566455053229.27393</v>
+      </c>
+      <c r="AD105" s="27">
+        <f t="shared" si="22"/>
+        <v>619482944789.78503</v>
+      </c>
+      <c r="AE105" s="27">
+        <f t="shared" si="22"/>
+        <v>677474967691.91418</v>
+      </c>
+      <c r="AF105" s="27">
+        <f t="shared" si="22"/>
+        <v>740895832095.76099</v>
+      </c>
+      <c r="AG105" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH105" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI105" s="45">
         <f>(AI100*AI92)+(AI102*AI97)</f>
-        <v>9.6065948520194816E-2</v>
+        <v>9.5778688877199758E-2</v>
       </c>
     </row>
     <row r="106" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
-        <f t="shared" ref="C106:AA106" si="10">(C107/B107)-1</f>
+        <f t="shared" ref="C106:AA106" si="23">(C107/B107)-1</f>
         <v>-0.66023844690773537</v>
       </c>
       <c r="D106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-4.716021352464761</v>
       </c>
       <c r="E106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-2.0633066879522239</v>
       </c>
       <c r="F106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-1.3540175301892403</v>
       </c>
       <c r="G106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>10.830968261796651</v>
       </c>
       <c r="H106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>1.6720148824889343</v>
       </c>
       <c r="I106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-0.37688644544148509</v>
       </c>
       <c r="J106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>7.1969148897544022E-2</v>
       </c>
       <c r="K106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0.63174925618738054</v>
       </c>
       <c r="L106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-0.20966073965313869</v>
       </c>
       <c r="M106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0.63082925717436633</v>
       </c>
       <c r="N106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-0.55638676946104537</v>
       </c>
       <c r="O106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-0.41076868726751314</v>
       </c>
       <c r="P106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-0.20942311128666691</v>
       </c>
       <c r="Q106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0.27664054484081557</v>
       </c>
       <c r="R106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0.32874641246412462</v>
       </c>
       <c r="S106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>1.2638157168078292</v>
       </c>
       <c r="T106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>1.0761305781565347</v>
       </c>
       <c r="U106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-0.2288051978765937</v>
       </c>
       <c r="V106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0.20648454176217679</v>
       </c>
       <c r="W106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>7.3864499696707497E-3</v>
       </c>
       <c r="X106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-0.4213977596398486</v>
       </c>
       <c r="Y106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>1.0716606619867304</v>
       </c>
       <c r="Z106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-0.12771733085606274</v>
       </c>
       <c r="AA106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0.98296363145700649</v>
       </c>
-      <c r="AB106" s="63">
+      <c r="AB106" s="30">
         <v>390447000000</v>
       </c>
-      <c r="AC106" s="63">
+      <c r="AC106" s="30">
         <v>737351000000</v>
       </c>
-      <c r="AD106" s="63">
+      <c r="AD106" s="30">
         <v>930079000000</v>
       </c>
-      <c r="AE106" s="63">
+      <c r="AE106" s="30">
         <v>811055000000</v>
       </c>
-      <c r="AF106" s="63">
+      <c r="AF106" s="30">
         <v>987401000000</v>
       </c>
-      <c r="AG106" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH106" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI106" s="45">
+      <c r="AG106" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH106" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI106" s="47">
         <f>(SUM(AB4:AF4)/5)</f>
-        <v>9.8021505221024291E-2</v>
+        <v>9.36135908016128E-2</v>
       </c>
     </row>
     <row r="107" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>90</v>
+      <c r="A107" s="57" t="s">
+        <v>163</v>
       </c>
       <c r="B107" s="1">
         <v>-7709062103</v>
@@ -12741,139 +13055,139 @@
       <c r="AA107" s="1">
         <v>520972732000</v>
       </c>
-      <c r="AB107" s="43"/>
-      <c r="AC107" s="43"/>
-      <c r="AD107" s="43"/>
-      <c r="AE107" s="43"/>
-      <c r="AF107" s="64">
+      <c r="AB107" s="28"/>
+      <c r="AC107" s="28"/>
+      <c r="AD107" s="28"/>
+      <c r="AE107" s="28"/>
+      <c r="AF107" s="31">
         <f>AF106*(1+AI107)/(AI108-AI107)</f>
-        <v>14241504490894.049</v>
-      </c>
-      <c r="AG107" s="46" t="s">
+        <v>14299304508959.721</v>
+      </c>
+      <c r="AG107" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH107" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="AH107" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="AI107" s="48">
+      <c r="AI107" s="49">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="AB108" s="64">
-        <f t="shared" ref="AB108:AD108" si="11">AB107+AB106</f>
+      <c r="AB108" s="31">
+        <f t="shared" ref="AB108:AD108" si="24">AB107+AB106</f>
         <v>390447000000</v>
       </c>
-      <c r="AC108" s="64">
-        <f t="shared" si="11"/>
+      <c r="AC108" s="31">
+        <f t="shared" si="24"/>
         <v>737351000000</v>
       </c>
-      <c r="AD108" s="64">
-        <f t="shared" si="11"/>
+      <c r="AD108" s="31">
+        <f t="shared" si="24"/>
         <v>930079000000</v>
       </c>
-      <c r="AE108" s="64">
+      <c r="AE108" s="31">
         <f>AE107+AE106</f>
         <v>811055000000</v>
       </c>
-      <c r="AF108" s="64">
+      <c r="AF108" s="31">
         <f>AF107+AF106</f>
-        <v>15228905490894.049</v>
-      </c>
-      <c r="AG108" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH108" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI108" s="50">
+        <v>15286705508959.721</v>
+      </c>
+      <c r="AG108" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH108" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI108" s="47">
         <f>AI105</f>
-        <v>9.6065948520194816E-2</v>
+        <v>9.5778688877199758E-2</v>
       </c>
     </row>
     <row r="109" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="AB109" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC109" s="67"/>
+      <c r="AB109" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC109" s="68"/>
     </row>
     <row r="110" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="AB110" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC110" s="40">
+        <v>150</v>
+      </c>
+      <c r="AC110" s="42">
         <f>NPV(AI108,AB108,AC108,AD108,AE108,AF108)</f>
-        <v>11865153638549.742</v>
+        <v>11915925006180.635</v>
       </c>
     </row>
     <row r="111" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="AB111" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC111" s="40">
+        <v>151</v>
+      </c>
+      <c r="AC111" s="42">
         <f>AA40</f>
         <v>1586500125000</v>
       </c>
     </row>
     <row r="112" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="AB112" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC112" s="40">
+        <v>139</v>
+      </c>
+      <c r="AC112" s="42">
         <f>AI99</f>
         <v>888174472000</v>
       </c>
     </row>
     <row r="113" spans="28:29" ht="20" x14ac:dyDescent="0.25">
       <c r="AB113" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC113" s="40">
+        <v>152</v>
+      </c>
+      <c r="AC113" s="42">
         <f>AC110+AC111-AC112</f>
-        <v>12563479291549.742</v>
+        <v>12614250659180.635</v>
       </c>
     </row>
     <row r="114" spans="28:29" ht="20" x14ac:dyDescent="0.25">
       <c r="AB114" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC114" s="52">
+        <v>153</v>
+      </c>
+      <c r="AC114" s="51">
         <f>AA34*(1+(5*AG16))</f>
         <v>5186076000</v>
       </c>
     </row>
     <row r="115" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB115" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC115" s="54">
+      <c r="AB115" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC115" s="53">
         <f>AC113/AC114*AJ100</f>
-        <v>79.943837425664711</v>
+        <v>80.266905412292644</v>
       </c>
     </row>
     <row r="116" spans="28:29" ht="20" x14ac:dyDescent="0.25">
       <c r="AB116" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC116" s="55" cm="1">
+        <v>158</v>
+      </c>
+      <c r="AC116" s="54" cm="1">
         <f t="array" ref="AC116">_FV(AJ98,"Price")</f>
-        <v>101.91</v>
+        <v>100.92</v>
       </c>
     </row>
     <row r="117" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB117" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC117" s="57">
+      <c r="AB117" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC117" s="55">
         <f>AC115/AC116-1</f>
-        <v>-0.21554472156152771</v>
+        <v>-0.20464818259717954</v>
       </c>
     </row>
     <row r="118" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB118" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC118" s="58" t="str">
+      <c r="AB118" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC118" s="56" t="str">
         <f>IF(AC115&gt;AC116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Hardware/Taiwan Semiconductor.xlsx
+++ b/Technology/Hardware/Taiwan Semiconductor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497779F3-9970-3941-BC2A-84E68573267D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ADB1C4-67E6-9F44-94DD-1823A10DDB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2316,7 +2316,6 @@
     <sheetNames>
       <sheetName val="Factor Scoring"/>
       <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2330,40 +2329,43 @@
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
       <sheetName val="My Holdings"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Short List"/>
       <sheetName val="Stable Growth"/>
       <sheetName val="High Growth"/>
+      <sheetName val="Small Caps"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10">
         <row r="8">
           <cell r="C8">
-            <v>3.8539999999999998E-2</v>
+            <v>4.0410000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2491,9 +2493,9 @@
     <v>Powered by Refinitiv</v>
     <v>594</v>
     <v>370</v>
-    <v>1.369</v>
-    <v>3</v>
-    <v>5.2359999999999993E-3</v>
+    <v>1.3634999999999999</v>
+    <v>0</v>
+    <v>0</v>
     <v>TWD</v>
     <v>Taiwan Semiconductor Manufacturing Co Ltd is a Taiwan-based company mainly engaged in the provision of integrated circuit manufacturing services. The integrated circuit manufacturing services include process technology, special process technology, design ecosystem support, mask technology, 3DFabricTM advanced packaging and silicon stacking technology services. The Company has completed the transfer and mass production of 5nm technology, and is engaged in the research and development of 3nm process technology and 2nm process technology. The product application range covers the entire electronic application industry, including personal computers and peripheral products, information application products, wired and wireless communication system products, servers and data centers.</v>
     <v>52045</v>
@@ -2501,24 +2503,24 @@
     <v>XTAI</v>
     <v>XTAI</v>
     <v>No.8, Li-Hsin 6th Road, Hsinchu Science Park, HSINCHU, HSINCHU, 300 TW</v>
-    <v>576</v>
+    <v>572</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45107.398993055554</v>
+    <v>45114.399155092593</v>
     <v>0</v>
-    <v>568</v>
-    <v>14936872320000</v>
+    <v>563</v>
+    <v>14651619550000</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
-    <v>570</v>
-    <v>14.63</v>
-    <v>573</v>
-    <v>576</v>
+    <v>565</v>
+    <v>14.35</v>
+    <v>565</v>
+    <v>565</v>
     <v>25932070000</v>
     <v>2330</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd. (XTAI:2330)</v>
-    <v>33830922</v>
-    <v>24207490</v>
+    <v>19858943</v>
+    <v>22711660</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2542,11 +2544,11 @@
     <v>Powered by Refinitiv</v>
     <v>110.69</v>
     <v>59.43</v>
-    <v>1.0881000000000001</v>
-    <v>0.28000000000000003</v>
-    <v>2.7820000000000002E-3</v>
-    <v>0.13</v>
-    <v>1.2880000000000001E-3</v>
+    <v>1.0673999999999999</v>
+    <v>0.82</v>
+    <v>8.2489999999999994E-3</v>
+    <v>0.71</v>
+    <v>7.084E-3</v>
     <v>USD</v>
     <v>Taiwan Semiconductor Manufacturing Co Ltd is a Taiwan-based company mainly engaged in the provision of integrated circuit manufacturing services. The integrated circuit manufacturing services include process technology, special process technology, design ecosystem support, mask technology, 3DFabricTM advanced packaging and silicon stacking technology services. The Company has completed the transfer and mass production of 5nm technology, and is engaged in the research and development of 3nm process technology and 2nm process technology. The product application range covers the entire electronic application industry, including personal computers and peripheral products, information application products, wired and wireless communication system products, servers and data centers.</v>
     <v>52045</v>
@@ -2554,25 +2556,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>No.8, Li-Hsin 6th Road, Hsinchu Science Park, HSINCHU, HSINCHU, 300 TW</v>
-    <v>101.89</v>
+    <v>101.94</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45107.999958471875</v>
+    <v>45114.99928616875</v>
     <v>3</v>
-    <v>100.405</v>
-    <v>480130900000</v>
+    <v>99</v>
+    <v>468492000000</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
-    <v>101.4</v>
-    <v>15.6119</v>
-    <v>100.64</v>
-    <v>100.92</v>
-    <v>101.05</v>
+    <v>99.08</v>
+    <v>15.421099999999999</v>
+    <v>99.41</v>
+    <v>100.23</v>
+    <v>100.94</v>
     <v>5186414000</v>
     <v>TSM</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd. (XNYS:TSM)</v>
-    <v>11704648</v>
-    <v>15227087</v>
+    <v>8036622</v>
+    <v>11782308</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -3317,10 +3319,10 @@
   <dimension ref="A1:AJ118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Y82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE16" sqref="AE16"/>
+      <selection pane="bottomRight" activeCell="AE103" sqref="AE103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4928,15 +4930,15 @@
       </c>
       <c r="AH16" s="58">
         <f>AI101/AA3</f>
-        <v>6.5978752481548044</v>
+        <v>6.4718741583462922</v>
       </c>
       <c r="AI16" s="58">
         <f>AI101/AA28</f>
-        <v>14.693977217789611</v>
+        <v>14.413363069533212</v>
       </c>
       <c r="AJ16" s="60">
         <f>AI101/AA107</f>
-        <v>28.671121159561956</v>
+        <v>28.123582387417542</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -5225,15 +5227,15 @@
       </c>
       <c r="AH19" s="58">
         <f>AI101/AB3</f>
-        <v>7.0447882142091505</v>
+        <v>6.9102523281739066</v>
       </c>
       <c r="AI19" s="59">
         <f>AI101/AB28</f>
-        <v>18.770631628332065</v>
+        <v>18.412164704874336</v>
       </c>
       <c r="AJ19" s="60">
         <f>AI101/AB106</f>
-        <v>38.255825553788348</v>
+        <v>37.525245551893086</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5558,11 +5560,11 @@
       </c>
       <c r="AI22" s="61">
         <f>(-1*AA98)/AI101</f>
-        <v>1.909597798583847E-2</v>
+        <v>1.9467758088217626E-2</v>
       </c>
       <c r="AJ22" s="62">
         <f>AA107/AI101</f>
-        <v>3.4878301215873285E-2</v>
+        <v>3.5557347788217716E-2</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -11791,7 +11793,7 @@
       </c>
       <c r="AI94" s="36">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.8539999999999998E-2</v>
+        <v>4.0410000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11881,7 +11883,7 @@
       </c>
       <c r="AI95" s="38" cm="1">
         <f t="array" ref="AI95">_FV(A1,"Beta")</f>
-        <v>1.369</v>
+        <v>1.3634999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12060,7 +12062,7 @@
       </c>
       <c r="AI97" s="35">
         <f>(AI94)+((AI95)*(AI96-AI94))</f>
-        <v>0.10077474</v>
+        <v>9.9844965000000008E-2</v>
       </c>
     </row>
     <row r="98" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -12333,7 +12335,7 @@
       </c>
       <c r="AI100" s="35">
         <f>AI99/AI103</f>
-        <v>5.6124603211220633E-2</v>
+        <v>5.7154841997428887E-2</v>
       </c>
       <c r="AJ100" s="41">
         <v>3.3000000000000002E-2</v>
@@ -12426,7 +12428,7 @@
       </c>
       <c r="AI101" s="42" cm="1">
         <f t="array" ref="AI101">_FV(A1,"Market cap",TRUE)</f>
-        <v>14936872320000</v>
+        <v>14651619550000</v>
       </c>
       <c r="AJ101" s="40" t="s">
         <v>157</v>
@@ -12519,11 +12521,11 @@
       </c>
       <c r="AI102" s="35">
         <f>AI101/AI103</f>
-        <v>0.94387539678877941</v>
+        <v>0.94284515800257107</v>
       </c>
       <c r="AJ102" s="33">
         <f>AI101*AJ100</f>
-        <v>492916786560</v>
+        <v>483503445150</v>
       </c>
     </row>
     <row r="103" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12613,7 +12615,7 @@
       </c>
       <c r="AI103" s="43">
         <f>AI99+AI101</f>
-        <v>15825046792000</v>
+        <v>15539794022000</v>
       </c>
     </row>
     <row r="104" spans="1:36" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12839,7 +12841,7 @@
       </c>
       <c r="AI105" s="45">
         <f>(AI100*AI92)+(AI102*AI97)</f>
-        <v>9.5778688877199758E-2</v>
+        <v>9.4810346120041064E-2</v>
       </c>
     </row>
     <row r="106" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -13061,7 +13063,7 @@
       <c r="AE107" s="28"/>
       <c r="AF107" s="31">
         <f>AF106*(1+AI107)/(AI108-AI107)</f>
-        <v>14299304508959.721</v>
+        <v>14497650867676.355</v>
       </c>
       <c r="AG107" s="29" t="s">
         <v>146</v>
@@ -13092,7 +13094,7 @@
       </c>
       <c r="AF108" s="31">
         <f>AF107+AF106</f>
-        <v>15286705508959.721</v>
+        <v>15485051867676.355</v>
       </c>
       <c r="AG108" s="29" t="s">
         <v>143</v>
@@ -13102,7 +13104,7 @@
       </c>
       <c r="AI108" s="47">
         <f>AI105</f>
-        <v>9.5778688877199758E-2</v>
+        <v>9.4810346120041064E-2</v>
       </c>
     </row>
     <row r="109" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -13117,7 +13119,7 @@
       </c>
       <c r="AC110" s="42">
         <f>NPV(AI108,AB108,AC108,AD108,AE108,AF108)</f>
-        <v>11915925006180.635</v>
+        <v>12090168958103.68</v>
       </c>
     </row>
     <row r="111" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -13144,7 +13146,7 @@
       </c>
       <c r="AC113" s="42">
         <f>AC110+AC111-AC112</f>
-        <v>12614250659180.635</v>
+        <v>12788494611103.68</v>
       </c>
     </row>
     <row r="114" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -13162,7 +13164,7 @@
       </c>
       <c r="AC115" s="53">
         <f>AC113/AC114*AJ100</f>
-        <v>80.266905412292644</v>
+        <v>81.375653223443194</v>
       </c>
     </row>
     <row r="116" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -13171,7 +13173,7 @@
       </c>
       <c r="AC116" s="54" cm="1">
         <f t="array" ref="AC116">_FV(AJ98,"Price")</f>
-        <v>100.92</v>
+        <v>100.23</v>
       </c>
     </row>
     <row r="117" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -13180,7 +13182,7 @@
       </c>
       <c r="AC117" s="55">
         <f>AC115/AC116-1</f>
-        <v>-0.20464818259717954</v>
+        <v>-0.18811081289590748</v>
       </c>
     </row>
     <row r="118" spans="28:29" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Taiwan Semiconductor.xlsx
+++ b/Technology/Hardware/Taiwan Semiconductor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ADB1C4-67E6-9F44-94DD-1823A10DDB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6B2801-D2B1-2342-8AB3-E2E56BB688BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1096,6 +1096,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34696191547726069"/>
+          <c:y val="2.566158781074579E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1130,9 +1138,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.1081597861831331"/>
-          <c:y val="0.15053931009225291"/>
+          <c:y val="0.16978550095031225"/>
           <c:w val="0.82927781781021126"/>
-          <c:h val="0.67455726815222672"/>
+          <c:h val="0.64568798186513776"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2314,8 +2322,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2324,48 +2331,37 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
       <sheetName val="Short List"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Small Caps"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10">
+      <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0410000000000001E-2</v>
+            <v>4.0480000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2494,8 +2490,8 @@
     <v>594</v>
     <v>370</v>
     <v>1.3634999999999999</v>
-    <v>0</v>
-    <v>0</v>
+    <v>12</v>
+    <v>2.1238999999999997E-2</v>
     <v>TWD</v>
     <v>Taiwan Semiconductor Manufacturing Co Ltd is a Taiwan-based company mainly engaged in the provision of integrated circuit manufacturing services. The integrated circuit manufacturing services include process technology, special process technology, design ecosystem support, mask technology, 3DFabricTM advanced packaging and silicon stacking technology services. The Company has completed the transfer and mass production of 5nm technology, and is engaged in the research and development of 3nm process technology and 2nm process technology. The product application range covers the entire electronic application industry, including personal computers and peripheral products, information application products, wired and wireless communication system products, servers and data centers.</v>
     <v>52045</v>
@@ -2503,24 +2499,24 @@
     <v>XTAI</v>
     <v>XTAI</v>
     <v>No.8, Li-Hsin 6th Road, Hsinchu Science Park, HSINCHU, HSINCHU, 300 TW</v>
-    <v>572</v>
+    <v>577</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45114.399155092593</v>
+    <v>45118.298252314817</v>
     <v>0</v>
-    <v>563</v>
-    <v>14651619550000</v>
+    <v>570</v>
+    <v>14962804390000</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
+    <v>574</v>
+    <v>14.66</v>
     <v>565</v>
-    <v>14.35</v>
-    <v>565</v>
-    <v>565</v>
+    <v>577</v>
     <v>25932070000</v>
     <v>2330</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd. (XTAI:2330)</v>
-    <v>19858943</v>
-    <v>22711660</v>
+    <v>18301571</v>
+    <v>22325680</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2530,13 +2526,13 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a24kjc&amp;q=XNYS%3aTSM&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="3">
-    <v>5</v>
+  <rv s="1">
+    <v>0</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd. (XNYS:TSM)</v>
     <v>2</v>
+    <v>5</v>
+    <v>Finance</v>
     <v>6</v>
-    <v>Finance</v>
-    <v>7</v>
     <v>en-US</v>
     <v>a24kjc</v>
     <v>268435456</v>
@@ -2544,11 +2540,9 @@
     <v>Powered by Refinitiv</v>
     <v>110.69</v>
     <v>59.43</v>
-    <v>1.0673999999999999</v>
-    <v>0.82</v>
-    <v>8.2489999999999994E-3</v>
-    <v>0.71</v>
-    <v>7.084E-3</v>
+    <v>1.3634999999999999</v>
+    <v>-0.46</v>
+    <v>-4.5889999999999993E-3</v>
     <v>USD</v>
     <v>Taiwan Semiconductor Manufacturing Co Ltd is a Taiwan-based company mainly engaged in the provision of integrated circuit manufacturing services. The integrated circuit manufacturing services include process technology, special process technology, design ecosystem support, mask technology, 3DFabricTM advanced packaging and silicon stacking technology services. The Company has completed the transfer and mass production of 5nm technology, and is engaged in the research and development of 3nm process technology and 2nm process technology. The product application range covers the entire electronic application industry, including personal computers and peripheral products, information application products, wired and wireless communication system products, servers and data centers.</v>
     <v>52045</v>
@@ -2556,25 +2550,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>No.8, Li-Hsin 6th Road, Hsinchu Science Park, HSINCHU, HSINCHU, 300 TW</v>
-    <v>101.94</v>
+    <v>100.75</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45114.99928616875</v>
+    <v>45117.999712950783</v>
     <v>3</v>
-    <v>99</v>
-    <v>468492000000</v>
+    <v>99.4</v>
+    <v>14651620000000</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
-    <v>99.08</v>
-    <v>15.421099999999999</v>
-    <v>99.41</v>
+    <v>100.25</v>
+    <v>15.476900000000001</v>
     <v>100.23</v>
-    <v>100.94</v>
-    <v>5186414000</v>
+    <v>99.77</v>
+    <v>25932070000</v>
     <v>TSM</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd. (XNYS:TSM)</v>
-    <v>8036622</v>
-    <v>11782308</v>
+    <v>14672</v>
+    <v>11215506</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2584,7 +2577,7 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -2636,59 +2629,12 @@
   <s t="_linkedentity">
     <k n="%cvi" t="r"/>
   </s>
-  <s t="_linkedentitycore">
-    <k n="_Display" t="spb"/>
-    <k n="_DisplayString" t="s"/>
-    <k n="_Flags" t="spb"/>
-    <k n="_Format" t="spb"/>
-    <k n="_Icon" t="s"/>
-    <k n="_SubLabel" t="spb"/>
-    <k n="%EntityCulture" t="s"/>
-    <k n="%EntityId" t="s"/>
-    <k n="%EntityServiceId"/>
-    <k n="%IsRefreshable" t="b"/>
-    <k n="%ProviderInfo" t="s"/>
-    <k n="52 week high"/>
-    <k n="52 week low"/>
-    <k n="Beta"/>
-    <k n="Change"/>
-    <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
-    <k n="Currency" t="s"/>
-    <k n="Description" t="s"/>
-    <k n="Employees"/>
-    <k n="Exchange" t="s"/>
-    <k n="Exchange abbreviation" t="s"/>
-    <k n="ExchangeID" t="s"/>
-    <k n="Headquarters" t="s"/>
-    <k n="High"/>
-    <k n="Industry" t="s"/>
-    <k n="Instrument type" t="s"/>
-    <k n="Last trade time"/>
-    <k n="LearnMoreOnLink" t="r"/>
-    <k n="Low"/>
-    <k n="Market cap"/>
-    <k n="Name" t="s"/>
-    <k n="Official name" t="s"/>
-    <k n="Open"/>
-    <k n="P/E"/>
-    <k n="Previous close"/>
-    <k n="Price"/>
-    <k n="Price (Extended hours)"/>
-    <k n="Shares outstanding"/>
-    <k n="Ticker symbol" t="s"/>
-    <k n="UniqueName" t="s"/>
-    <k n="Volume"/>
-    <k n="Volume average"/>
-    <k n="Year incorporated"/>
-  </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="2">
+  <spbArrays count="1">
     <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -2733,55 +2679,8 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="45">
-      <v t="s">%EntityServiceId</v>
-      <v t="s">_Format</v>
-      <v t="s">%IsRefreshable</v>
-      <v t="s">%EntityCulture</v>
-      <v t="s">%EntityId</v>
-      <v t="s">_Icon</v>
-      <v t="s">_Display</v>
-      <v t="s">Name</v>
-      <v t="s">_SubLabel</v>
-      <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
-      <v t="s">Exchange</v>
-      <v t="s">Official name</v>
-      <v t="s">Last trade time</v>
-      <v t="s">Ticker symbol</v>
-      <v t="s">Exchange abbreviation</v>
-      <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
-      <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
-      <v t="s">Currency</v>
-      <v t="s">Previous close</v>
-      <v t="s">Open</v>
-      <v t="s">High</v>
-      <v t="s">Low</v>
-      <v t="s">52 week high</v>
-      <v t="s">52 week low</v>
-      <v t="s">Volume</v>
-      <v t="s">Volume average</v>
-      <v t="s">Market cap</v>
-      <v t="s">Beta</v>
-      <v t="s">P/E</v>
-      <v t="s">Shares outstanding</v>
-      <v t="s">Description</v>
-      <v t="s">Employees</v>
-      <v t="s">Headquarters</v>
-      <v t="s">Industry</v>
-      <v t="s">Instrument type</v>
-      <v t="s">Year incorporated</v>
-      <v t="s">_Flags</v>
-      <v t="s">UniqueName</v>
-      <v t="s">_DisplayString</v>
-      <v t="s">LearnMoreOnLink</v>
-      <v t="s">ExchangeID</v>
-      <v t="s">%ProviderInfo</v>
-    </a>
   </spbArrays>
-  <spbData count="8">
+  <spbData count="7">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -2827,12 +2726,7 @@
       <v>Source: TWSE</v>
       <v>GMT</v>
     </spb>
-    <spb s="0">
-      <v>1</v>
-      <v>Name</v>
-      <v>LearnMoreOnLink</v>
-    </spb>
-    <spb s="5">
+    <spb s="3">
       <v>10</v>
       <v>2</v>
       <v>2</v>
@@ -2844,7 +2738,7 @@
       <v>4</v>
       <v>4</v>
       <v>5</v>
-      <v>11</v>
+      <v>6</v>
       <v>10</v>
       <v>10</v>
       <v>10</v>
@@ -2853,26 +2747,20 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>10</v>
-      <v>10</v>
-      <v>5</v>
     </spb>
-    <spb s="6">
-      <v>at close</v>
+    <spb s="4">
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="7">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
   <s>
     <k n="^Order" t="spba"/>
     <k n="TitleProperty" t="s"/>
@@ -2917,41 +2805,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-  </s>
-  <s>
-    <k n="Low" t="i"/>
-    <k n="P/E" t="i"/>
-    <k n="Beta" t="i"/>
-    <k n="High" t="i"/>
-    <k n="Name" t="i"/>
-    <k n="Open" t="i"/>
-    <k n="Price" t="i"/>
-    <k n="Change" t="i"/>
-    <k n="Volume" t="i"/>
-    <k n="Employees" t="i"/>
-    <k n="Change (%)" t="i"/>
-    <k n="Market cap" t="i"/>
-    <k n="52 week low" t="i"/>
-    <k n="52 week high" t="i"/>
-    <k n="Previous close" t="i"/>
-    <k n="Volume average" t="i"/>
-    <k n="Last trade time" t="i"/>
-    <k n="Year incorporated" t="i"/>
-    <k n="`%EntityServiceId" t="i"/>
-    <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
-  </s>
-  <s>
-    <k n="Price" t="s"/>
-    <k n="Change" t="s"/>
-    <k n="Change (%)" t="s"/>
-    <k n="ExchangeID" t="s"/>
-    <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3011,9 +2864,6 @@
     </rSty>
     <rSty dxfid="1">
       <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
-    </rSty>
-    <rSty dxfid="1">
-      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
     </rSty>
   </richStyles>
 </richStyleSheet>
@@ -3319,10 +3169,10 @@
   <dimension ref="A1:AJ118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Y91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE103" sqref="AE103"/>
+      <selection pane="bottomRight" activeCell="AK112" sqref="AK112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3607,24 +3457,24 @@
         <v>2263891292000</v>
       </c>
       <c r="AB3" s="24">
-        <f>69969000000/$AJ$100</f>
-        <v>2120272727272.7271</v>
+        <f>69137000000/$AJ$100</f>
+        <v>2095060606060.606</v>
       </c>
       <c r="AC3" s="24">
-        <f>85192000000/$AJ$100</f>
-        <v>2581575757575.7573</v>
+        <f>84171000000/$AJ$100</f>
+        <v>2550636363636.3633</v>
       </c>
       <c r="AD3" s="24">
-        <f>98467000000/$AJ$100</f>
-        <v>2983848484848.4849</v>
+        <f>97481000000/$AJ$100</f>
+        <v>2953969696969.6968</v>
       </c>
       <c r="AE3" s="24">
-        <f>104000000000/$AJ$100</f>
-        <v>3151515151515.1514</v>
+        <f>103000000000/$AJ$100</f>
+        <v>3121212121212.1211</v>
       </c>
       <c r="AF3" s="24">
-        <f>114600000000/$AJ$100</f>
-        <v>3472727272727.2725</v>
+        <f>113400000000/$AJ$100</f>
+        <v>3436363636363.6362</v>
       </c>
       <c r="AG3" s="18" t="s">
         <v>108</v>
@@ -3746,23 +3596,23 @@
       </c>
       <c r="AB4" s="16">
         <f t="shared" si="0"/>
-        <v>-6.3438807876854963E-2</v>
+        <v>-7.4575438553961315E-2</v>
       </c>
       <c r="AC4" s="16">
         <f t="shared" si="0"/>
-        <v>0.21756778001686472</v>
+        <v>0.21745230484400535</v>
       </c>
       <c r="AD4" s="16">
         <f t="shared" si="0"/>
-        <v>0.15582449056249414</v>
+        <v>0.15813047249052525</v>
       </c>
       <c r="AE4" s="16">
         <f t="shared" si="0"/>
-        <v>5.6191414382483318E-2</v>
+        <v>5.6616161098060225E-2</v>
       </c>
       <c r="AF4" s="16">
         <f t="shared" si="0"/>
-        <v>0.10192307692307678</v>
+        <v>0.10097087378640768</v>
       </c>
       <c r="AG4" s="17">
         <f>(AA4+Z4+Y4)/3</f>
@@ -4930,15 +4780,15 @@
       </c>
       <c r="AH16" s="58">
         <f>AI101/AA3</f>
-        <v>6.4718741583462922</v>
+        <v>6.609329892682851</v>
       </c>
       <c r="AI16" s="58">
         <f>AI101/AA28</f>
-        <v>14.413363069533212</v>
+        <v>14.719487594903828</v>
       </c>
       <c r="AJ16" s="60">
         <f>AI101/AA107</f>
-        <v>28.123582387417542</v>
+        <v>28.720897411575084</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -5202,24 +5052,24 @@
         <v>1592824709000</v>
       </c>
       <c r="AB19" s="63">
-        <f>47166000000/$AJ$100</f>
-        <v>1429272727272.7273</v>
+        <f>46627000000/$AJ$100</f>
+        <v>1412939393939.3938</v>
       </c>
       <c r="AC19" s="63">
-        <f>59726000000/$AJ$100</f>
-        <v>1809878787878.7878</v>
+        <f>58458000000/$AJ$100</f>
+        <v>1771454545454.5454</v>
       </c>
       <c r="AD19" s="63">
-        <f>68706000000/$AJ$100</f>
-        <v>2082000000000</v>
+        <f>68190000000/$AJ$100</f>
+        <v>2066363636363.6362</v>
       </c>
       <c r="AE19" s="63">
-        <f>72440000000/$AJ$100</f>
-        <v>2195151515151.5151</v>
+        <f>71728000000/$AJ$100</f>
+        <v>2173575757575.7576</v>
       </c>
       <c r="AF19" s="63">
-        <f>79657000000/$AJ$100</f>
-        <v>2413848484848.4849</v>
+        <f>78874000000/$AJ$100</f>
+        <v>2390121212121.2119</v>
       </c>
       <c r="AG19" s="26">
         <f>AA40-AA56-AA61</f>
@@ -5227,15 +5077,15 @@
       </c>
       <c r="AH19" s="58">
         <f>AI101/AB3</f>
-        <v>6.9102523281739066</v>
+        <v>7.1419434582061703</v>
       </c>
       <c r="AI19" s="59">
         <f>AI101/AB28</f>
-        <v>18.412164704874336</v>
+        <v>19.2473900705543</v>
       </c>
       <c r="AJ19" s="60">
         <f>AI101/AB106</f>
-        <v>37.525245551893086</v>
+        <v>41.361412704808174</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5345,23 +5195,23 @@
       </c>
       <c r="AB20" s="16">
         <f t="shared" ref="AB20" si="4">(AB19/AA19)-1</f>
-        <v>-0.10268046496463079</v>
+        <v>-0.11293478437658155</v>
       </c>
       <c r="AC20" s="16">
         <f t="shared" ref="AC20" si="5">(AC19/AB19)-1</f>
-        <v>0.26629351651613442</v>
+        <v>0.25373710511077285</v>
       </c>
       <c r="AD20" s="16">
         <f t="shared" ref="AD20" si="6">(AD19/AC19)-1</f>
-        <v>0.15035327997856873</v>
+        <v>0.16647849738273623</v>
       </c>
       <c r="AE20" s="16">
         <f t="shared" ref="AE20" si="7">(AE19/AD19)-1</f>
-        <v>5.4347509678921879E-2</v>
+        <v>5.1884440533802589E-2</v>
       </c>
       <c r="AF20" s="16">
         <f t="shared" ref="AF20" si="8">(AF19/AE19)-1</f>
-        <v>9.9627277747101006E-2</v>
+        <v>9.9626366272585143E-2</v>
       </c>
       <c r="AH20" s="15"/>
       <c r="AI20" s="15"/>
@@ -5451,23 +5301,23 @@
       </c>
       <c r="AB21" s="64">
         <f>AB19/AB3</f>
-        <v>0.67409852934871162</v>
+        <v>0.6744145681762298</v>
       </c>
       <c r="AC21" s="64">
         <f t="shared" ref="AC21:AF21" si="9">AC19/AC3</f>
-        <v>0.70107521833035968</v>
+        <v>0.69451473785508078</v>
       </c>
       <c r="AD21" s="64">
         <f t="shared" si="9"/>
-        <v>0.69775660881310486</v>
+        <v>0.69952093228424006</v>
       </c>
       <c r="AE21" s="64">
         <f t="shared" si="9"/>
-        <v>0.69653846153846155</v>
+        <v>0.69638834951456308</v>
       </c>
       <c r="AF21" s="64">
         <f t="shared" si="9"/>
-        <v>0.69508726003490406</v>
+        <v>0.69553791887125216</v>
       </c>
       <c r="AI21" s="18" t="s">
         <v>167</v>
@@ -5560,11 +5410,11 @@
       </c>
       <c r="AI22" s="61">
         <f>(-1*AA98)/AI101</f>
-        <v>1.9467758088217626E-2</v>
+        <v>1.9062882703367347E-2</v>
       </c>
       <c r="AJ22" s="62">
         <f>AA107/AI101</f>
-        <v>3.5557347788217716E-2</v>
+        <v>3.4817853553454091E-2</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -6065,24 +5915,24 @@
         <v>1016530249000</v>
       </c>
       <c r="AB28" s="65">
-        <f>26260000000/$AJ$100</f>
-        <v>795757575757.57568</v>
+        <f>25654000000/$AJ$100</f>
+        <v>777393939393.93933</v>
       </c>
       <c r="AC28" s="65">
-        <f>32419000000/$AJ$100</f>
-        <v>982393939393.93933</v>
+        <f>31695000000/$AJ$100</f>
+        <v>960454545454.54541</v>
       </c>
       <c r="AD28" s="65">
-        <f>37918000000/$AJ$100</f>
-        <v>1149030303030.303</v>
+        <f>37545000000/$AJ$100</f>
+        <v>1137727272727.2727</v>
       </c>
       <c r="AE28" s="65">
-        <f>37099000000/$AJ$100</f>
-        <v>1124212121212.1211</v>
+        <f>36734000000/$AJ$100</f>
+        <v>1113151515151.5151</v>
       </c>
       <c r="AF28" s="65">
-        <f>40936000000/$AJ$100</f>
-        <v>1240484848484.8484</v>
+        <f>40534000000/$AJ$100</f>
+        <v>1228303030303.0303</v>
       </c>
     </row>
     <row r="29" spans="1:36" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -6192,23 +6042,23 @@
       </c>
       <c r="AB29" s="16">
         <f t="shared" ref="AB29" si="11">(AB28/AA28)-1</f>
-        <v>-0.21718259093579051</v>
+        <v>-0.23524760806804157</v>
       </c>
       <c r="AC29" s="16">
         <f t="shared" ref="AC29" si="12">(AC28/AB28)-1</f>
-        <v>0.23453922315308451</v>
+        <v>0.23547984719731829</v>
       </c>
       <c r="AD29" s="16">
         <f t="shared" ref="AD29" si="13">(AD28/AC28)-1</f>
-        <v>0.16962275208982391</v>
+        <v>0.18457169900615233</v>
       </c>
       <c r="AE29" s="16">
         <f t="shared" ref="AE29" si="14">(AE28/AD28)-1</f>
-        <v>-2.1599240466269376E-2</v>
+        <v>-2.1600745771740537E-2</v>
       </c>
       <c r="AF29" s="16">
         <f t="shared" ref="AF29" si="15">(AF28/AE28)-1</f>
-        <v>0.10342596835494211</v>
+        <v>0.10344639843197045</v>
       </c>
     </row>
     <row r="30" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -6295,23 +6145,23 @@
       </c>
       <c r="AB30" s="66">
         <f>AB28/AB3</f>
-        <v>0.37530906544326775</v>
+        <v>0.37106035841879165</v>
       </c>
       <c r="AC30" s="66">
         <f t="shared" ref="AC30:AF30" si="16">AC28/AC3</f>
-        <v>0.3805404263311109</v>
+        <v>0.37655487044231389</v>
       </c>
       <c r="AD30" s="66">
         <f t="shared" si="16"/>
-        <v>0.38508332740918277</v>
+        <v>0.38515197833423953</v>
       </c>
       <c r="AE30" s="66">
         <f t="shared" si="16"/>
-        <v>0.35672115384615383</v>
+        <v>0.35664077669902916</v>
       </c>
       <c r="AF30" s="66">
         <f t="shared" si="16"/>
-        <v>0.35720767888307153</v>
+        <v>0.3574426807760141</v>
       </c>
     </row>
     <row r="31" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -6398,23 +6248,23 @@
       </c>
       <c r="AB31" s="67">
         <f>AB28/$AA$33</f>
-        <v>153.44117127430752</v>
+        <v>149.90022116797735</v>
       </c>
       <c r="AC31" s="67">
         <f t="shared" ref="AC31:AF31" si="17">AC28/$AA$33</f>
-        <v>189.42914438468301</v>
+        <v>185.19870234345686</v>
       </c>
       <c r="AD31" s="67">
         <f t="shared" si="17"/>
-        <v>221.56063718123355</v>
+        <v>219.38114148872342</v>
       </c>
       <c r="AE31" s="67">
         <f t="shared" si="17"/>
-        <v>216.77509570089623</v>
+        <v>214.64234522431124</v>
       </c>
       <c r="AF31" s="67">
         <f t="shared" si="17"/>
-        <v>239.19526988899668</v>
+        <v>236.84632278875787</v>
       </c>
     </row>
     <row r="32" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -11793,7 +11643,7 @@
       </c>
       <c r="AI94" s="36">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0410000000000001E-2</v>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12062,7 +11912,7 @@
       </c>
       <c r="AI97" s="35">
         <f>(AI94)+((AI95)*(AI96-AI94))</f>
-        <v>9.9844965000000008E-2</v>
+        <v>9.9819519999999995E-2</v>
       </c>
     </row>
     <row r="98" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -12335,7 +12185,7 @@
       </c>
       <c r="AI100" s="35">
         <f>AI99/AI103</f>
-        <v>5.7154841997428887E-2</v>
+        <v>5.6032783825688257E-2</v>
       </c>
       <c r="AJ100" s="41">
         <v>3.3000000000000002E-2</v>
@@ -12428,7 +12278,7 @@
       </c>
       <c r="AI101" s="42" cm="1">
         <f t="array" ref="AI101">_FV(A1,"Market cap",TRUE)</f>
-        <v>14651619550000</v>
+        <v>14962804390000</v>
       </c>
       <c r="AJ101" s="40" t="s">
         <v>157</v>
@@ -12521,11 +12371,11 @@
       </c>
       <c r="AI102" s="35">
         <f>AI101/AI103</f>
-        <v>0.94284515800257107</v>
+        <v>0.94396721617431179</v>
       </c>
       <c r="AJ102" s="33">
         <f>AI101*AJ100</f>
-        <v>483503445150</v>
+        <v>493772544870</v>
       </c>
     </row>
     <row r="103" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12615,7 +12465,7 @@
       </c>
       <c r="AI103" s="43">
         <f>AI99+AI101</f>
-        <v>15539794022000</v>
+        <v>15850978862000</v>
       </c>
     </row>
     <row r="104" spans="1:36" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12815,23 +12665,23 @@
       </c>
       <c r="AB105" s="27">
         <f>AA105*(1+$AI$106)</f>
-        <v>517966362153.62451</v>
+        <v>517068970974.85345</v>
       </c>
       <c r="AC105" s="27">
         <f t="shared" ref="AC105:AF105" si="22">AB105*(1+$AI$106)</f>
-        <v>566455053229.27393</v>
+        <v>564493955152.02112</v>
       </c>
       <c r="AD105" s="27">
         <f t="shared" si="22"/>
-        <v>619482944789.78503</v>
+        <v>616268705512.14929</v>
       </c>
       <c r="AE105" s="27">
         <f t="shared" si="22"/>
-        <v>677474967691.91418</v>
+        <v>672792177714.89087</v>
       </c>
       <c r="AF105" s="27">
         <f t="shared" si="22"/>
-        <v>740895832095.76099</v>
+        <v>734499919184.07031</v>
       </c>
       <c r="AG105" s="28" t="s">
         <v>160</v>
@@ -12841,7 +12691,7 @@
       </c>
       <c r="AI105" s="45">
         <f>(AI100*AI92)+(AI102*AI97)</f>
-        <v>9.4810346120041064E-2</v>
+        <v>9.4885166011181063E-2</v>
       </c>
     </row>
     <row r="106" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -12950,19 +12800,24 @@
         <v>0.98296363145700649</v>
       </c>
       <c r="AB106" s="30">
-        <v>390447000000</v>
+        <f>11938000000/$AJ$100</f>
+        <v>361757575757.57574</v>
       </c>
       <c r="AC106" s="30">
-        <v>737351000000</v>
+        <f>24545000000/$AJ$100</f>
+        <v>743787878787.87878</v>
       </c>
       <c r="AD106" s="30">
-        <v>930079000000</v>
+        <f>30919000000/$AJ$100</f>
+        <v>936939393939.39392</v>
       </c>
       <c r="AE106" s="30">
-        <v>811055000000</v>
+        <f>25938000000/$AJ$100</f>
+        <v>786000000000</v>
       </c>
       <c r="AF106" s="30">
-        <v>987401000000</v>
+        <f>31576000000/$AJ$100</f>
+        <v>956848484848.48486</v>
       </c>
       <c r="AG106" s="28" t="s">
         <v>161</v>
@@ -12972,7 +12827,7 @@
       </c>
       <c r="AI106" s="47">
         <f>(SUM(AB4:AF4)/5)</f>
-        <v>9.36135908016128E-2</v>
+        <v>9.1718874733007438E-2</v>
       </c>
     </row>
     <row r="107" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -13063,7 +12918,7 @@
       <c r="AE107" s="28"/>
       <c r="AF107" s="31">
         <f>AF106*(1+AI107)/(AI108-AI107)</f>
-        <v>14497650867676.355</v>
+        <v>14034018275248.596</v>
       </c>
       <c r="AG107" s="29" t="s">
         <v>146</v>
@@ -13078,23 +12933,23 @@
     <row r="108" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="AB108" s="31">
         <f t="shared" ref="AB108:AD108" si="24">AB107+AB106</f>
-        <v>390447000000</v>
+        <v>361757575757.57574</v>
       </c>
       <c r="AC108" s="31">
         <f t="shared" si="24"/>
-        <v>737351000000</v>
+        <v>743787878787.87878</v>
       </c>
       <c r="AD108" s="31">
         <f t="shared" si="24"/>
-        <v>930079000000</v>
+        <v>936939393939.39392</v>
       </c>
       <c r="AE108" s="31">
         <f>AE107+AE106</f>
-        <v>811055000000</v>
+        <v>786000000000</v>
       </c>
       <c r="AF108" s="31">
         <f>AF107+AF106</f>
-        <v>15485051867676.355</v>
+        <v>14990866760097.08</v>
       </c>
       <c r="AG108" s="29" t="s">
         <v>143</v>
@@ -13104,7 +12959,7 @@
       </c>
       <c r="AI108" s="47">
         <f>AI105</f>
-        <v>9.4810346120041064E-2</v>
+        <v>9.4885166011181063E-2</v>
       </c>
     </row>
     <row r="109" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -13119,7 +12974,7 @@
       </c>
       <c r="AC110" s="42">
         <f>NPV(AI108,AB108,AC108,AD108,AE108,AF108)</f>
-        <v>12090168958103.68</v>
+        <v>11739271204378.445</v>
       </c>
     </row>
     <row r="111" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -13146,7 +13001,7 @@
       </c>
       <c r="AC113" s="42">
         <f>AC110+AC111-AC112</f>
-        <v>12788494611103.68</v>
+        <v>12437596857378.445</v>
       </c>
     </row>
     <row r="114" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -13164,7 +13019,7 @@
       </c>
       <c r="AC115" s="53">
         <f>AC113/AC114*AJ100</f>
-        <v>81.375653223443194</v>
+        <v>79.142823262422056</v>
       </c>
     </row>
     <row r="116" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -13173,7 +13028,7 @@
       </c>
       <c r="AC116" s="54" cm="1">
         <f t="array" ref="AC116">_FV(AJ98,"Price")</f>
-        <v>100.23</v>
+        <v>99.77</v>
       </c>
     </row>
     <row r="117" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -13182,7 +13037,7 @@
       </c>
       <c r="AC117" s="55">
         <f>AC115/AC116-1</f>
-        <v>-0.18811081289590748</v>
+        <v>-0.20674728613388738</v>
       </c>
     </row>
     <row r="118" spans="28:29" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Taiwan Semiconductor.xlsx
+++ b/Technology/Hardware/Taiwan Semiconductor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6B2801-D2B1-2342-8AB3-E2E56BB688BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F99F20-EBE9-0F47-AC59-35B06865A2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -896,7 +896,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1025,6 +1025,8 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2332,6 +2334,7 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
@@ -2343,7 +2346,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>3.9120000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2362,6 +2365,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2489,9 +2493,9 @@
     <v>Powered by Refinitiv</v>
     <v>594</v>
     <v>370</v>
-    <v>1.3634999999999999</v>
-    <v>12</v>
-    <v>2.1238999999999997E-2</v>
+    <v>1.3632</v>
+    <v>-3</v>
+    <v>-5.2719999999999998E-3</v>
     <v>TWD</v>
     <v>Taiwan Semiconductor Manufacturing Co Ltd is a Taiwan-based company mainly engaged in the provision of integrated circuit manufacturing services. The integrated circuit manufacturing services include process technology, special process technology, design ecosystem support, mask technology, 3DFabricTM advanced packaging and silicon stacking technology services. The Company has completed the transfer and mass production of 5nm technology, and is engaged in the research and development of 3nm process technology and 2nm process technology. The product application range covers the entire electronic application industry, including personal computers and peripheral products, information application products, wired and wireless communication system products, servers and data centers.</v>
     <v>52045</v>
@@ -2499,24 +2503,24 @@
     <v>XTAI</v>
     <v>XTAI</v>
     <v>No.8, Li-Hsin 6th Road, Hsinchu Science Park, HSINCHU, HSINCHU, 300 TW</v>
-    <v>577</v>
+    <v>571</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45118.298252314817</v>
+    <v>45133.200138888889</v>
     <v>0</v>
-    <v>570</v>
-    <v>14962804390000</v>
+    <v>565</v>
+    <v>14470100000000</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
-    <v>574</v>
-    <v>14.66</v>
-    <v>565</v>
-    <v>577</v>
+    <v>569</v>
+    <v>15.2</v>
+    <v>569</v>
+    <v>566</v>
     <v>25932070000</v>
     <v>2330</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd. (XTAI:2330)</v>
-    <v>18301571</v>
-    <v>22325680</v>
+    <v>7938000</v>
+    <v>24289860</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2526,13 +2530,13 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a24kjc&amp;q=XNYS%3aTSM&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="1">
-    <v>0</v>
+  <rv s="3">
+    <v>5</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd. (XNYS:TSM)</v>
     <v>2</v>
-    <v>5</v>
+    <v>6</v>
     <v>Finance</v>
-    <v>6</v>
+    <v>7</v>
     <v>en-US</v>
     <v>a24kjc</v>
     <v>268435456</v>
@@ -2540,9 +2544,11 @@
     <v>Powered by Refinitiv</v>
     <v>110.69</v>
     <v>59.43</v>
-    <v>1.3634999999999999</v>
-    <v>-0.46</v>
-    <v>-4.5889999999999993E-3</v>
+    <v>1.0634999999999999</v>
+    <v>2.0699999999999998</v>
+    <v>2.1069000000000001E-2</v>
+    <v>-7.0000000000000007E-2</v>
+    <v>-6.9779999999999994E-4</v>
     <v>USD</v>
     <v>Taiwan Semiconductor Manufacturing Co Ltd is a Taiwan-based company mainly engaged in the provision of integrated circuit manufacturing services. The integrated circuit manufacturing services include process technology, special process technology, design ecosystem support, mask technology, 3DFabricTM advanced packaging and silicon stacking technology services. The Company has completed the transfer and mass production of 5nm technology, and is engaged in the research and development of 3nm process technology and 2nm process technology. The product application range covers the entire electronic application industry, including personal computers and peripheral products, information application products, wired and wireless communication system products, servers and data centers.</v>
     <v>52045</v>
@@ -2550,24 +2556,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>No.8, Li-Hsin 6th Road, Hsinchu Science Park, HSINCHU, HSINCHU, 300 TW</v>
-    <v>100.75</v>
+    <v>100.89</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45117.999712950783</v>
+    <v>45132.999875173438</v>
     <v>3</v>
-    <v>99.4</v>
-    <v>14651620000000</v>
+    <v>99.11</v>
+    <v>461978700000</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
+    <v>99.515000000000001</v>
+    <v>16.426300000000001</v>
+    <v>98.25</v>
+    <v>100.32</v>
     <v>100.25</v>
-    <v>15.476900000000001</v>
-    <v>100.23</v>
-    <v>99.77</v>
-    <v>25932070000</v>
+    <v>5186414000</v>
     <v>TSM</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd. (XNYS:TSM)</v>
-    <v>14672</v>
-    <v>11215506</v>
+    <v>9202222</v>
+    <v>9967901</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2577,7 +2584,7 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -2629,12 +2636,59 @@
   <s t="_linkedentity">
     <k n="%cvi" t="r"/>
   </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="1">
+  <spbArrays count="2">
     <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -2679,8 +2733,55 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
   </spbArrays>
-  <spbData count="7">
+  <spbData count="8">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -2726,7 +2827,12 @@
       <v>Source: TWSE</v>
       <v>GMT</v>
     </spb>
-    <spb s="3">
+    <spb s="0">
+      <v>1</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="5">
       <v>10</v>
       <v>2</v>
       <v>2</v>
@@ -2738,7 +2844,7 @@
       <v>4</v>
       <v>4</v>
       <v>5</v>
-      <v>6</v>
+      <v>11</v>
       <v>10</v>
       <v>10</v>
       <v>10</v>
@@ -2747,20 +2853,26 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>10</v>
+      <v>10</v>
+      <v>5</v>
     </spb>
-    <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+    <spb s="6">
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="7">
   <s>
     <k n="^Order" t="spba"/>
     <k n="TitleProperty" t="s"/>
@@ -2805,6 +2917,41 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2864,6 +3011,9 @@
     </rSty>
     <rSty dxfid="1">
       <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
     </rSty>
   </richStyles>
 </richStyleSheet>
@@ -3169,10 +3319,10 @@
   <dimension ref="A1:AJ118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Y83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AK112" sqref="AK112"/>
+      <selection pane="bottomRight" activeCell="AA116" sqref="AA116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3493,104 +3643,104 @@
       <c r="A4" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="B4" s="68"/>
+      <c r="C4" s="69">
         <f>(C3/B3)-1</f>
         <v>0.14269167753701462</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="69">
         <f>(D3/C3)-1</f>
         <v>0.4516735458392942</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="69">
         <f>(E3/D3)-1</f>
         <v>1.2743145641259042</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="69">
         <f t="shared" ref="F4:AF4" si="0">(F3/E3)-1</f>
         <v>-0.21655069111953185</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="69">
         <f t="shared" si="0"/>
         <v>0.24865014498486815</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="69">
         <f t="shared" si="0"/>
         <v>0.24642778619370009</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="69">
         <f t="shared" si="0"/>
         <v>0.27127869200966415</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="69">
         <f t="shared" si="0"/>
         <v>3.7807205884977435E-2</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="69">
         <f t="shared" si="0"/>
         <v>0.18699401684619166</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="69">
         <f t="shared" si="0"/>
         <v>1.6665747011531451E-2</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="69">
         <f t="shared" si="0"/>
         <v>3.5387533504990243E-2</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="69">
         <f t="shared" si="0"/>
         <v>-0.11471593392458146</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="69">
         <f t="shared" si="0"/>
         <v>0.41859328834369935</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="69">
         <f t="shared" si="0"/>
         <v>1.7978590253705296E-2</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="69">
         <f t="shared" si="0"/>
         <v>0.18531162501879028</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="69">
         <f t="shared" si="0"/>
         <v>0.17932727751136057</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="69">
         <f t="shared" si="0"/>
         <v>0.2777735064446043</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="69">
         <f t="shared" si="0"/>
         <v>0.10576009228732297</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="69">
         <f t="shared" si="0"/>
         <v>0.12376425956936021</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="69">
         <f t="shared" si="0"/>
         <v>3.1156359701963066E-2</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="69">
         <f t="shared" si="0"/>
         <v>5.5163546176522305E-2</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="69">
         <f t="shared" si="0"/>
         <v>3.745242455169473E-2</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="69">
         <f t="shared" si="0"/>
         <v>0.25163786761132445</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="69">
         <f t="shared" si="0"/>
         <v>0.18531165285346862</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AA4" s="69">
         <f t="shared" si="0"/>
         <v>0.42614961556996755</v>
       </c>
@@ -4780,15 +4930,15 @@
       </c>
       <c r="AH16" s="58">
         <f>AI101/AA3</f>
-        <v>6.609329892682851</v>
+        <v>6.3916938287335396</v>
       </c>
       <c r="AI16" s="58">
         <f>AI101/AA28</f>
-        <v>14.719487594903828</v>
+        <v>14.234795289402156</v>
       </c>
       <c r="AJ16" s="60">
         <f>AI101/AA107</f>
-        <v>28.720897411575084</v>
+        <v>27.77515810558776</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -5077,15 +5227,15 @@
       </c>
       <c r="AH19" s="58">
         <f>AI101/AB3</f>
-        <v>7.1419434582061703</v>
+        <v>6.9067691684626178</v>
       </c>
       <c r="AI19" s="59">
         <f>AI101/AB28</f>
-        <v>19.2473900705543</v>
+        <v>18.613600218289548</v>
       </c>
       <c r="AJ19" s="60">
         <f>AI101/AB106</f>
-        <v>41.361412704808174</v>
+        <v>39.999438766962641</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5410,11 +5560,11 @@
       </c>
       <c r="AI22" s="61">
         <f>(-1*AA98)/AI101</f>
-        <v>1.9062882703367347E-2</v>
+        <v>1.9711970546160702E-2</v>
       </c>
       <c r="AJ22" s="62">
         <f>AA107/AI101</f>
-        <v>3.4817853553454091E-2</v>
+        <v>3.6003395415373771E-2</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -10631,10 +10781,10 @@
       <c r="AA83" s="1">
         <v>-28046827000</v>
       </c>
-      <c r="AH83" s="69" t="s">
+      <c r="AH83" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="AI83" s="70"/>
+      <c r="AI83" s="72"/>
     </row>
     <row r="84" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -10718,10 +10868,10 @@
       <c r="AA84" s="1">
         <v>7594105000</v>
       </c>
-      <c r="AH84" s="71" t="s">
+      <c r="AH84" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="AI84" s="71"/>
+      <c r="AI84" s="73"/>
     </row>
     <row r="85" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -11551,10 +11701,10 @@
       <c r="AA93" s="1">
         <v>20581671000</v>
       </c>
-      <c r="AH93" s="71" t="s">
+      <c r="AH93" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="AI93" s="71"/>
+      <c r="AI93" s="73"/>
     </row>
     <row r="94" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -11643,7 +11793,7 @@
       </c>
       <c r="AI94" s="36">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11733,7 +11883,7 @@
       </c>
       <c r="AI95" s="38" cm="1">
         <f t="array" ref="AI95">_FV(A1,"Beta")</f>
-        <v>1.3634999999999999</v>
+        <v>1.3632</v>
       </c>
     </row>
     <row r="96" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11912,7 +12062,7 @@
       </c>
       <c r="AI97" s="35">
         <f>(AI94)+((AI95)*(AI96-AI94))</f>
-        <v>9.9819519999999995E-2</v>
+        <v>0.100300416</v>
       </c>
     </row>
     <row r="98" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -11997,10 +12147,10 @@
       <c r="AA98" s="1">
         <v>-285234185000</v>
       </c>
-      <c r="AH98" s="71" t="s">
+      <c r="AH98" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="AI98" s="71"/>
+      <c r="AI98" s="73"/>
       <c r="AJ98" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
@@ -12185,7 +12335,7 @@
       </c>
       <c r="AI100" s="35">
         <f>AI99/AI103</f>
-        <v>5.6032783825688257E-2</v>
+        <v>5.7830355462083316E-2</v>
       </c>
       <c r="AJ100" s="41">
         <v>3.3000000000000002E-2</v>
@@ -12278,7 +12428,7 @@
       </c>
       <c r="AI101" s="42" cm="1">
         <f t="array" ref="AI101">_FV(A1,"Market cap",TRUE)</f>
-        <v>14962804390000</v>
+        <v>14470100000000</v>
       </c>
       <c r="AJ101" s="40" t="s">
         <v>157</v>
@@ -12371,11 +12521,11 @@
       </c>
       <c r="AI102" s="35">
         <f>AI101/AI103</f>
-        <v>0.94396721617431179</v>
+        <v>0.94216964453791663</v>
       </c>
       <c r="AJ102" s="33">
         <f>AI101*AJ100</f>
-        <v>493772544870</v>
+        <v>477513300000</v>
       </c>
     </row>
     <row r="103" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12465,7 +12615,7 @@
       </c>
       <c r="AI103" s="43">
         <f>AI99+AI101</f>
-        <v>15850978862000</v>
+        <v>15358274472000</v>
       </c>
     </row>
     <row r="104" spans="1:36" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12550,10 +12700,10 @@
       <c r="AA104" s="11">
         <v>1342814083000</v>
       </c>
-      <c r="AH104" s="71" t="s">
+      <c r="AH104" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="AI104" s="71"/>
+      <c r="AI104" s="73"/>
     </row>
     <row r="105" spans="1:36" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -12691,7 +12841,7 @@
       </c>
       <c r="AI105" s="45">
         <f>(AI100*AI92)+(AI102*AI97)</f>
-        <v>9.4885166011181063E-2</v>
+        <v>9.5179954032175815E-2</v>
       </c>
     </row>
     <row r="106" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -12918,7 +13068,7 @@
       <c r="AE107" s="28"/>
       <c r="AF107" s="31">
         <f>AF106*(1+AI107)/(AI108-AI107)</f>
-        <v>14034018275248.596</v>
+        <v>13975068956586.061</v>
       </c>
       <c r="AG107" s="29" t="s">
         <v>146</v>
@@ -12949,7 +13099,7 @@
       </c>
       <c r="AF108" s="31">
         <f>AF107+AF106</f>
-        <v>14990866760097.08</v>
+        <v>14931917441434.545</v>
       </c>
       <c r="AG108" s="29" t="s">
         <v>143</v>
@@ -12959,14 +13109,14 @@
       </c>
       <c r="AI108" s="47">
         <f>AI105</f>
-        <v>9.4885166011181063E-2</v>
+        <v>9.5179954032175815E-2</v>
       </c>
     </row>
     <row r="109" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="AB109" s="68" t="s">
+      <c r="AB109" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="AC109" s="68"/>
+      <c r="AC109" s="70"/>
     </row>
     <row r="110" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="AB110" s="51" t="s">
@@ -12974,7 +13124,7 @@
       </c>
       <c r="AC110" s="42">
         <f>NPV(AI108,AB108,AC108,AD108,AE108,AF108)</f>
-        <v>11739271204378.445</v>
+        <v>11687452122074.994</v>
       </c>
     </row>
     <row r="111" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -13001,7 +13151,7 @@
       </c>
       <c r="AC113" s="42">
         <f>AC110+AC111-AC112</f>
-        <v>12437596857378.445</v>
+        <v>12385777775074.994</v>
       </c>
     </row>
     <row r="114" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -13019,7 +13169,7 @@
       </c>
       <c r="AC115" s="53">
         <f>AC113/AC114*AJ100</f>
-        <v>79.142823262422056</v>
+        <v>78.81308846562888</v>
       </c>
     </row>
     <row r="116" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -13028,7 +13178,7 @@
       </c>
       <c r="AC116" s="54" cm="1">
         <f t="array" ref="AC116">_FV(AJ98,"Price")</f>
-        <v>99.77</v>
+        <v>100.32</v>
       </c>
     </row>
     <row r="117" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -13037,7 +13187,7 @@
       </c>
       <c r="AC117" s="55">
         <f>AC115/AC116-1</f>
-        <v>-0.20674728613388738</v>
+        <v>-0.21438308945744733</v>
       </c>
     </row>
     <row r="118" spans="28:29" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Taiwan Semiconductor.xlsx
+++ b/Technology/Hardware/Taiwan Semiconductor.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F99F20-EBE9-0F47-AC59-35B06865A2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070D1FA2-D8A9-2143-8AF2-B3505CD5EB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -83,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="171">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -565,9 +562,6 @@
     <t>Intrinsic Value (USD)</t>
   </si>
   <si>
-    <t>Unlevered FCF Proj</t>
-  </si>
-  <si>
     <t>Unlevered FCF Forecast</t>
   </si>
   <si>
@@ -589,7 +583,16 @@
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>5Y Fwd Income CAGR</t>
+  </si>
+  <si>
+    <t>Taiwan Treasury 10Y</t>
   </si>
 </sst>
 </file>
@@ -604,7 +607,7 @@
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -716,6 +719,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -896,7 +906,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -946,13 +956,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -960,47 +963,18 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
@@ -1014,9 +988,6 @@
     <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1027,17 +998,114 @@
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1089,23 +1157,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>Taiwan</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="2400" baseline="0"/>
-              <a:t> Semiconductor</a:t>
+              <a:t>Taiwan Semiconductor</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.34696191547726069"/>
-          <c:y val="2.566158781074579E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1139,15 +1195,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1081597861831331"/>
-          <c:y val="0.16978550095031225"/>
-          <c:w val="0.82927781781021126"/>
-          <c:h val="0.64568798186513776"/>
+          <c:x val="0.1157954315116551"/>
+          <c:y val="0.13337662066702535"/>
+          <c:w val="0.82347849588108413"/>
+          <c:h val="0.63250170651988591"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1196,12 +1252,114 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AF$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$AA$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$AF$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44053071458</c:v>
                 </c:pt>
@@ -1279,13 +1437,28 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2263891292000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2095060606060.606</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2550636363636.3633</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2953969696969.6968</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3121212121212.1211</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3436363636363.6362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A12C-3E4B-856F-5798D1D2983B}"/>
+              <c16:uniqueId val="{00000000-D626-2A47-A5E6-A54FDE2E435C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1294,11 +1467,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1336,96 +1509,213 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AF$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$AA$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$AF$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>25236529748</c:v>
+                  <c:v>18011756513</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28924431578</c:v>
+                  <c:v>15315966554</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42219969222</c:v>
+                  <c:v>24563030085</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>105384428234</c:v>
+                  <c:v>65106186584</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59017945562</c:v>
+                  <c:v>14483183904</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>92408142596</c:v>
+                  <c:v>21647896464</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>120101876820</c:v>
+                  <c:v>47164689540</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>162060216360</c:v>
+                  <c:v>92456415240</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>170484554525</c:v>
+                  <c:v>93855039630</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>208468862569</c:v>
+                  <c:v>126990145084</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>200784840430</c:v>
+                  <c:v>109181419045</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>192920947615</c:v>
+                  <c:v>100206942175</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>176420400000</c:v>
+                  <c:v>89217800000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>257829000000</c:v>
+                  <c:v>161605000000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>253203900000</c:v>
+                  <c:v>134201300000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>314118800000</c:v>
+                  <c:v>166158800000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>374918000000</c:v>
+                  <c:v>183977600000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>505679100000</c:v>
+                  <c:v>254301400000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>576191500000</c:v>
+                  <c:v>302850900000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>612972600000</c:v>
+                  <c:v>331713700000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>659594200000</c:v>
+                  <c:v>344998300000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>693087000000</c:v>
+                  <c:v>363052700000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>679918200000</c:v>
+                  <c:v>353948000000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>918288400000</c:v>
+                  <c:v>510744000000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1090323700000</c:v>
+                  <c:v>592359200000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1592824709000</c:v>
+                  <c:v>1016530249000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>777393939393.93933</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>960454545454.54541</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1137727272727.2727</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1113151515151.5151</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1228303030303.0303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A12C-3E4B-856F-5798D1D2983B}"/>
+              <c16:uniqueId val="{00000001-D626-2A47-A5E6-A54FDE2E435C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1476,12 +1766,114 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AF$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$AA$107</c:f>
+              <c:f>'Sheet 1'!$B$107:$AF$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>-7709062103</c:v>
                 </c:pt>
@@ -1559,13 +1951,28 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>520972732000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>361757575757.57574</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>743787878787.87878</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>936939393939.39392</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>786000000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>956848484848.48486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A12C-3E4B-856F-5798D1D2983B}"/>
+              <c16:uniqueId val="{00000002-D626-2A47-A5E6-A54FDE2E435C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1577,13 +1984,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="1104215568"/>
-        <c:axId val="1104217296"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1629822640"/>
+        <c:axId val="1629705008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1104215568"/>
+        <c:axId val="1629822640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1611,7 +2018,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1623,7 +2030,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1104217296"/>
+        <c:crossAx val="1629705008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1631,7 +2038,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1104217296"/>
+        <c:axId val="1629705008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1680,7 +2087,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1104215568"/>
+        <c:crossAx val="1629822640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1698,10 +2105,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36694422681357836"/>
-          <c:y val="0.90858539234319846"/>
-          <c:w val="0.28208492407667013"/>
-          <c:h val="6.5753019846055735E-2"/>
+          <c:x val="0.34468885943712474"/>
+          <c:y val="0.89695949683848619"/>
+          <c:w val="0.31499520294736266"/>
+          <c:h val="5.5881738013474416E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1808,7 +2215,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2046,7 +2453,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2281,22 +2687,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>41275</xdr:rowOff>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>17462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>1587500</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>174624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6021955-9D7A-B6BF-10AB-F39C3DE4919C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D54E5A5-787F-66FB-B492-CD382852135F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2315,60 +2721,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Treasuries"/>
-      <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
-      <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
-      <sheetName val="Healthcare"/>
-      <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.9120000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2493,9 +2845,9 @@
     <v>Powered by Refinitiv</v>
     <v>594</v>
     <v>370</v>
-    <v>1.3632</v>
-    <v>-3</v>
-    <v>-5.2719999999999998E-3</v>
+    <v>1.3952</v>
+    <v>6</v>
+    <v>1.0989000000000001E-2</v>
     <v>TWD</v>
     <v>Taiwan Semiconductor Manufacturing Co Ltd is a Taiwan-based company mainly engaged in the provision of integrated circuit manufacturing services. The integrated circuit manufacturing services include process technology, special process technology, design ecosystem support, mask technology, 3DFabricTM advanced packaging and silicon stacking technology services. The Company has completed the transfer and mass production of 5nm technology, and is engaged in the research and development of 3nm process technology and 2nm process technology. The product application range covers the entire electronic application industry, including personal computers and peripheral products, information application products, wired and wireless communication system products, servers and data centers.</v>
     <v>52045</v>
@@ -2503,24 +2855,24 @@
     <v>XTAI</v>
     <v>XTAI</v>
     <v>No.8, Li-Hsin 6th Road, Hsinchu Science Park, HSINCHU, HSINCHU, 300 TW</v>
-    <v>571</v>
+    <v>553</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45133.200138888889</v>
+    <v>45219.171180555553</v>
     <v>0</v>
-    <v>565</v>
-    <v>14470100000000</v>
+    <v>546</v>
+    <v>14003320000000</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
-    <v>569</v>
-    <v>15.2</v>
-    <v>569</v>
-    <v>566</v>
+    <v>549</v>
+    <v>15.98</v>
+    <v>546</v>
+    <v>552</v>
     <v>25932070000</v>
     <v>2330</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd. (XTAI:2330)</v>
-    <v>7938000</v>
-    <v>24289860</v>
+    <v>28050000</v>
+    <v>29222310</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2544,11 +2896,11 @@
     <v>Powered by Refinitiv</v>
     <v>110.69</v>
     <v>59.43</v>
-    <v>1.0634999999999999</v>
-    <v>2.0699999999999998</v>
-    <v>2.1069000000000001E-2</v>
-    <v>-7.0000000000000007E-2</v>
-    <v>-6.9779999999999994E-4</v>
+    <v>1.0405</v>
+    <v>3.31</v>
+    <v>3.6942000000000003E-2</v>
+    <v>-0.46</v>
+    <v>-4.9509999999999997E-3</v>
     <v>USD</v>
     <v>Taiwan Semiconductor Manufacturing Co Ltd is a Taiwan-based company mainly engaged in the provision of integrated circuit manufacturing services. The integrated circuit manufacturing services include process technology, special process technology, design ecosystem support, mask technology, 3DFabricTM advanced packaging and silicon stacking technology services. The Company has completed the transfer and mass production of 5nm technology, and is engaged in the research and development of 3nm process technology and 2nm process technology. The product application range covers the entire electronic application industry, including personal computers and peripheral products, information application products, wired and wireless communication system products, servers and data centers.</v>
     <v>52045</v>
@@ -2556,25 +2908,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>No.8, Li-Hsin 6th Road, Hsinchu Science Park, HSINCHU, HSINCHU, 300 TW</v>
-    <v>100.89</v>
+    <v>94.76</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45132.999875173438</v>
+    <v>45218.99913384219</v>
     <v>3</v>
-    <v>99.11</v>
-    <v>461978700000</v>
+    <v>92.36</v>
+    <v>432321300000</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
-    <v>99.515000000000001</v>
-    <v>16.426300000000001</v>
-    <v>98.25</v>
-    <v>100.32</v>
-    <v>100.25</v>
+    <v>93.09</v>
+    <v>16.719799999999999</v>
+    <v>89.6</v>
+    <v>92.91</v>
+    <v>92.45</v>
     <v>5186414000</v>
     <v>TSM</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd. (XNYS:TSM)</v>
-    <v>9202222</v>
-    <v>9967901</v>
+    <v>22751595</v>
+    <v>8303442</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -3316,13 +3668,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ118"/>
+  <dimension ref="A1:AK119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Y94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA116" sqref="AA116"/>
+      <selection pane="bottomRight" activeCell="AD90" sqref="AD90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3607,23 +3959,23 @@
         <v>2263891292000</v>
       </c>
       <c r="AB3" s="24">
-        <f>69137000000/$AJ$100</f>
+        <f>69137000000/$AJ$101</f>
         <v>2095060606060.606</v>
       </c>
       <c r="AC3" s="24">
-        <f>84171000000/$AJ$100</f>
+        <f>84171000000/$AJ$101</f>
         <v>2550636363636.3633</v>
       </c>
       <c r="AD3" s="24">
-        <f>97481000000/$AJ$100</f>
+        <f>97481000000/$AJ$101</f>
         <v>2953969696969.6968</v>
       </c>
       <c r="AE3" s="24">
-        <f>103000000000/$AJ$100</f>
+        <f>103000000000/$AJ$101</f>
         <v>3121212121212.1211</v>
       </c>
       <c r="AF3" s="24">
-        <f>113400000000/$AJ$100</f>
+        <f>113400000000/$AJ$101</f>
         <v>3436363636363.6362</v>
       </c>
       <c r="AG3" s="18" t="s">
@@ -3643,104 +3995,104 @@
       <c r="A4" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69">
+      <c r="B4" s="45"/>
+      <c r="C4" s="46">
         <f>(C3/B3)-1</f>
         <v>0.14269167753701462</v>
       </c>
-      <c r="D4" s="69">
+      <c r="D4" s="46">
         <f>(D3/C3)-1</f>
         <v>0.4516735458392942</v>
       </c>
-      <c r="E4" s="69">
+      <c r="E4" s="46">
         <f>(E3/D3)-1</f>
         <v>1.2743145641259042</v>
       </c>
-      <c r="F4" s="69">
+      <c r="F4" s="46">
         <f t="shared" ref="F4:AF4" si="0">(F3/E3)-1</f>
         <v>-0.21655069111953185</v>
       </c>
-      <c r="G4" s="69">
+      <c r="G4" s="46">
         <f t="shared" si="0"/>
         <v>0.24865014498486815</v>
       </c>
-      <c r="H4" s="69">
+      <c r="H4" s="46">
         <f t="shared" si="0"/>
         <v>0.24642778619370009</v>
       </c>
-      <c r="I4" s="69">
+      <c r="I4" s="46">
         <f t="shared" si="0"/>
         <v>0.27127869200966415</v>
       </c>
-      <c r="J4" s="69">
+      <c r="J4" s="46">
         <f t="shared" si="0"/>
         <v>3.7807205884977435E-2</v>
       </c>
-      <c r="K4" s="69">
+      <c r="K4" s="46">
         <f t="shared" si="0"/>
         <v>0.18699401684619166</v>
       </c>
-      <c r="L4" s="69">
+      <c r="L4" s="46">
         <f t="shared" si="0"/>
         <v>1.6665747011531451E-2</v>
       </c>
-      <c r="M4" s="69">
+      <c r="M4" s="46">
         <f t="shared" si="0"/>
         <v>3.5387533504990243E-2</v>
       </c>
-      <c r="N4" s="69">
+      <c r="N4" s="46">
         <f t="shared" si="0"/>
         <v>-0.11471593392458146</v>
       </c>
-      <c r="O4" s="69">
+      <c r="O4" s="46">
         <f t="shared" si="0"/>
         <v>0.41859328834369935</v>
       </c>
-      <c r="P4" s="69">
+      <c r="P4" s="46">
         <f t="shared" si="0"/>
         <v>1.7978590253705296E-2</v>
       </c>
-      <c r="Q4" s="69">
+      <c r="Q4" s="46">
         <f t="shared" si="0"/>
         <v>0.18531162501879028</v>
       </c>
-      <c r="R4" s="69">
+      <c r="R4" s="46">
         <f t="shared" si="0"/>
         <v>0.17932727751136057</v>
       </c>
-      <c r="S4" s="69">
+      <c r="S4" s="46">
         <f t="shared" si="0"/>
         <v>0.2777735064446043</v>
       </c>
-      <c r="T4" s="69">
+      <c r="T4" s="46">
         <f t="shared" si="0"/>
         <v>0.10576009228732297</v>
       </c>
-      <c r="U4" s="69">
+      <c r="U4" s="46">
         <f t="shared" si="0"/>
         <v>0.12376425956936021</v>
       </c>
-      <c r="V4" s="69">
+      <c r="V4" s="46">
         <f t="shared" si="0"/>
         <v>3.1156359701963066E-2</v>
       </c>
-      <c r="W4" s="69">
+      <c r="W4" s="46">
         <f t="shared" si="0"/>
         <v>5.5163546176522305E-2</v>
       </c>
-      <c r="X4" s="69">
+      <c r="X4" s="46">
         <f t="shared" si="0"/>
         <v>3.745242455169473E-2</v>
       </c>
-      <c r="Y4" s="69">
+      <c r="Y4" s="46">
         <f t="shared" si="0"/>
         <v>0.25163786761132445</v>
       </c>
-      <c r="Z4" s="69">
+      <c r="Z4" s="46">
         <f t="shared" si="0"/>
         <v>0.18531165285346862</v>
       </c>
-      <c r="AA4" s="69">
+      <c r="AA4" s="46">
         <f t="shared" si="0"/>
         <v>0.42614961556996755</v>
       </c>
@@ -3949,13 +4301,13 @@
       <c r="AG6" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="AH6" s="19" t="s">
+      <c r="AH6" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="AI6" s="19" t="s">
+      <c r="AI6" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="AJ6" s="19" t="s">
+      <c r="AJ6" s="74" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4046,16 +4398,16 @@
         <v>0.59560000000000002</v>
       </c>
       <c r="AH7" s="20">
-        <f>AA21</f>
-        <v>0.7036</v>
+        <f>AB21</f>
+        <v>0.6744145681762298</v>
       </c>
       <c r="AI7" s="20">
-        <f>AA30</f>
-        <v>0.44900000000000001</v>
+        <f>AB30</f>
+        <v>0.37106035841879165</v>
       </c>
       <c r="AJ7" s="20">
-        <f>AA107/AA3</f>
-        <v>0.23012268028989794</v>
+        <f>AB107/AB3</f>
+        <v>0.17267165193745751</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -4928,17 +5280,17 @@
         <f>(AA35+Z35+Y35+X35+W35)/5</f>
         <v>0</v>
       </c>
-      <c r="AH16" s="58">
-        <f>AI101/AA3</f>
-        <v>6.3916938287335396</v>
-      </c>
-      <c r="AI16" s="58">
-        <f>AI101/AA28</f>
-        <v>14.234795289402156</v>
-      </c>
-      <c r="AJ16" s="60">
-        <f>AI101/AA107</f>
-        <v>27.77515810558776</v>
+      <c r="AH16" s="36">
+        <f>AI102/AA3</f>
+        <v>6.1855090169232385</v>
+      </c>
+      <c r="AI16" s="36">
+        <f>AI102/AA28</f>
+        <v>13.775605805902584</v>
+      </c>
+      <c r="AJ16" s="38">
+        <f>AI102/AA107</f>
+        <v>26.8791803099591</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -5110,13 +5462,13 @@
         <v>124</v>
       </c>
       <c r="AH18" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI18" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="AI18" s="19" t="s">
+      <c r="AJ18" s="19" t="s">
         <v>165</v>
-      </c>
-      <c r="AJ18" s="19" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -5201,41 +5553,41 @@
       <c r="AA19" s="10">
         <v>1592824709000</v>
       </c>
-      <c r="AB19" s="63">
-        <f>46627000000/$AJ$100</f>
+      <c r="AB19" s="40">
+        <f>46627000000/$AJ$101</f>
         <v>1412939393939.3938</v>
       </c>
-      <c r="AC19" s="63">
-        <f>58458000000/$AJ$100</f>
+      <c r="AC19" s="40">
+        <f>58458000000/$AJ$101</f>
         <v>1771454545454.5454</v>
       </c>
-      <c r="AD19" s="63">
-        <f>68190000000/$AJ$100</f>
+      <c r="AD19" s="40">
+        <f>68190000000/$AJ$101</f>
         <v>2066363636363.6362</v>
       </c>
-      <c r="AE19" s="63">
-        <f>71728000000/$AJ$100</f>
+      <c r="AE19" s="40">
+        <f>71728000000/$AJ$101</f>
         <v>2173575757575.7576</v>
       </c>
-      <c r="AF19" s="63">
-        <f>78874000000/$AJ$100</f>
+      <c r="AF19" s="40">
+        <f>78874000000/$AJ$101</f>
         <v>2390121212121.2119</v>
       </c>
       <c r="AG19" s="26">
         <f>AA40-AA56-AA61</f>
         <v>698325653000</v>
       </c>
-      <c r="AH19" s="58">
-        <f>AI101/AB3</f>
-        <v>6.9067691684626178</v>
-      </c>
-      <c r="AI19" s="59">
-        <f>AI101/AB28</f>
-        <v>18.613600218289548</v>
-      </c>
-      <c r="AJ19" s="60">
-        <f>AI101/AB106</f>
-        <v>39.999438766962641</v>
+      <c r="AH19" s="36">
+        <f>AI102/AB3</f>
+        <v>6.6839689312524415</v>
+      </c>
+      <c r="AI19" s="37">
+        <f>AI102/AB28</f>
+        <v>18.01315818195993</v>
+      </c>
+      <c r="AJ19" s="38">
+        <f>AI102/AB107</f>
+        <v>38.709127156977722</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5449,28 +5801,31 @@
       <c r="AA21" s="2">
         <v>0.7036</v>
       </c>
-      <c r="AB21" s="64">
+      <c r="AB21" s="41">
         <f>AB19/AB3</f>
         <v>0.6744145681762298</v>
       </c>
-      <c r="AC21" s="64">
+      <c r="AC21" s="41">
         <f t="shared" ref="AC21:AF21" si="9">AC19/AC3</f>
         <v>0.69451473785508078</v>
       </c>
-      <c r="AD21" s="64">
+      <c r="AD21" s="41">
         <f t="shared" si="9"/>
         <v>0.69952093228424006</v>
       </c>
-      <c r="AE21" s="64">
+      <c r="AE21" s="41">
         <f t="shared" si="9"/>
         <v>0.69638834951456308</v>
       </c>
-      <c r="AF21" s="64">
+      <c r="AF21" s="41">
         <f t="shared" si="9"/>
         <v>0.69553791887125216</v>
       </c>
+      <c r="AH21" s="49" t="s">
+        <v>169</v>
+      </c>
       <c r="AI21" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AJ21" s="19" t="s">
         <v>168</v>
@@ -5558,13 +5913,17 @@
       <c r="AA22" s="10">
         <v>1121278851000</v>
       </c>
-      <c r="AI22" s="61">
-        <f>(-1*AA98)/AI101</f>
-        <v>1.9711970546160702E-2</v>
-      </c>
-      <c r="AJ22" s="62">
-        <f>AA107/AI101</f>
-        <v>3.6003395415373771E-2</v>
+      <c r="AH22" s="17">
+        <f>SUM(AB29:AF29)/5</f>
+        <v>5.3329918159131795E-2</v>
+      </c>
+      <c r="AI22" s="50">
+        <f>(-1*AA98)/AI102</f>
+        <v>2.0369039984803605E-2</v>
+      </c>
+      <c r="AJ22" s="39">
+        <f>AB107/AI102</f>
+        <v>2.583370056226493E-2</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -6064,24 +6423,24 @@
       <c r="AA28" s="11">
         <v>1016530249000</v>
       </c>
-      <c r="AB28" s="65">
-        <f>25654000000/$AJ$100</f>
+      <c r="AB28" s="42">
+        <f>25654000000/$AJ$101</f>
         <v>777393939393.93933</v>
       </c>
-      <c r="AC28" s="65">
-        <f>31695000000/$AJ$100</f>
+      <c r="AC28" s="42">
+        <f>31695000000/$AJ$101</f>
         <v>960454545454.54541</v>
       </c>
-      <c r="AD28" s="65">
-        <f>37545000000/$AJ$100</f>
+      <c r="AD28" s="42">
+        <f>37545000000/$AJ$101</f>
         <v>1137727272727.2727</v>
       </c>
-      <c r="AE28" s="65">
-        <f>36734000000/$AJ$100</f>
+      <c r="AE28" s="42">
+        <f>36734000000/$AJ$101</f>
         <v>1113151515151.5151</v>
       </c>
-      <c r="AF28" s="65">
-        <f>40534000000/$AJ$100</f>
+      <c r="AF28" s="42">
+        <f>40534000000/$AJ$101</f>
         <v>1228303030303.0303</v>
       </c>
     </row>
@@ -6293,23 +6652,23 @@
       <c r="AA30" s="2">
         <v>0.44900000000000001</v>
       </c>
-      <c r="AB30" s="66">
+      <c r="AB30" s="43">
         <f>AB28/AB3</f>
         <v>0.37106035841879165</v>
       </c>
-      <c r="AC30" s="66">
+      <c r="AC30" s="43">
         <f t="shared" ref="AC30:AF30" si="16">AC28/AC3</f>
         <v>0.37655487044231389</v>
       </c>
-      <c r="AD30" s="66">
+      <c r="AD30" s="43">
         <f t="shared" si="16"/>
         <v>0.38515197833423953</v>
       </c>
-      <c r="AE30" s="66">
+      <c r="AE30" s="43">
         <f t="shared" si="16"/>
         <v>0.35664077669902916</v>
       </c>
-      <c r="AF30" s="66">
+      <c r="AF30" s="43">
         <f t="shared" si="16"/>
         <v>0.3574426807760141</v>
       </c>
@@ -6396,23 +6755,23 @@
       <c r="AA31" s="12">
         <v>196.01</v>
       </c>
-      <c r="AB31" s="67">
+      <c r="AB31" s="44">
         <f>AB28/$AA$33</f>
         <v>149.90022116797735</v>
       </c>
-      <c r="AC31" s="67">
+      <c r="AC31" s="44">
         <f t="shared" ref="AC31:AF31" si="17">AC28/$AA$33</f>
         <v>185.19870234345686</v>
       </c>
-      <c r="AD31" s="67">
+      <c r="AD31" s="44">
         <f t="shared" si="17"/>
         <v>219.38114148872342</v>
       </c>
-      <c r="AE31" s="67">
+      <c r="AE31" s="44">
         <f t="shared" si="17"/>
         <v>214.64234522431124</v>
       </c>
-      <c r="AF31" s="67">
+      <c r="AF31" s="44">
         <f t="shared" si="17"/>
         <v>236.84632278875787</v>
       </c>
@@ -6500,7 +6859,7 @@
         <v>196.01</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
@@ -6582,8 +6941,12 @@
       <c r="AA33" s="1">
         <v>5186076000</v>
       </c>
+      <c r="AB33" s="1" cm="1">
+        <f t="array" ref="AB33">_FV(AJ99,"Shares outstanding",TRUE)</f>
+        <v>5186414000</v>
+      </c>
     </row>
-    <row r="34" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
@@ -6665,8 +7028,12 @@
       <c r="AA34" s="1">
         <v>5186076000</v>
       </c>
+      <c r="AB34" s="1" cm="1">
+        <f t="array" ref="AB34">_FV(AJ99,"Shares outstanding",TRUE)</f>
+        <v>5186414000</v>
+      </c>
     </row>
-    <row r="35" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>102</v>
       </c>
@@ -6676,7 +7043,7 @@
         <v>2.235835554819213E-2</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AA35" si="18">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AB35" si="18">(D34-C34)/C34</f>
         <v>1.9190687958425219E-2</v>
       </c>
       <c r="E35" s="22">
@@ -6771,8 +7138,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="AB35" s="22">
+        <f t="shared" si="18"/>
+        <v>6.5174517303641515E-5</v>
+      </c>
     </row>
-    <row r="36" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
@@ -6855,7 +7226,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -6938,7 +7309,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
@@ -7021,7 +7392,7 @@
         <v>1342814083000</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
@@ -7104,7 +7475,7 @@
         <v>243686042000</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
@@ -7187,7 +7558,7 @@
         <v>1586500125000</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
@@ -7270,7 +7641,7 @@
         <v>231408820000</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
@@ -7353,7 +7724,7 @@
         <v>221149148000</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>35</v>
       </c>
@@ -7436,7 +7807,7 @@
         <v>13838651000</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
@@ -7519,7 +7890,7 @@
         <v>2052896744000</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
@@ -7602,7 +7973,7 @@
         <v>2735751106000</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
@@ -7685,7 +8056,7 @@
         <v>5791821000</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
@@ -7768,7 +8139,7 @@
         <v>20207334000</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
@@ -10699,7 +11070,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:35" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -10781,12 +11152,8 @@
       <c r="AA83" s="1">
         <v>-28046827000</v>
       </c>
-      <c r="AH83" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI83" s="72"/>
     </row>
-    <row r="84" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -10868,12 +11235,18 @@
       <c r="AA84" s="1">
         <v>7594105000</v>
       </c>
-      <c r="AH84" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI84" s="73"/>
+      <c r="AB84" s="51"/>
+      <c r="AC84" s="51"/>
+      <c r="AD84" s="51"/>
+      <c r="AE84" s="51"/>
+      <c r="AF84" s="51"/>
+      <c r="AG84" s="51"/>
+      <c r="AH84" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI84" s="80"/>
     </row>
-    <row r="85" spans="1:35" ht="20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -10955,13 +11328,16 @@
       <c r="AA85" s="1">
         <v>21330626000</v>
       </c>
-      <c r="AH85" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI85" s="33">
-        <f>AA17</f>
-        <v>11749984000</v>
-      </c>
+      <c r="AB85" s="51"/>
+      <c r="AC85" s="51"/>
+      <c r="AD85" s="51"/>
+      <c r="AE85" s="51"/>
+      <c r="AF85" s="51"/>
+      <c r="AG85" s="51"/>
+      <c r="AH85" s="81" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI85" s="81"/>
     </row>
     <row r="86" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -11045,12 +11421,18 @@
       <c r="AA86" s="1">
         <v>-93656750000</v>
       </c>
-      <c r="AH86" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI86" s="33">
-        <f>AA56</f>
-        <v>19313889000</v>
+      <c r="AB86" s="51"/>
+      <c r="AC86" s="51"/>
+      <c r="AD86" s="51"/>
+      <c r="AE86" s="51"/>
+      <c r="AF86" s="51"/>
+      <c r="AG86" s="51"/>
+      <c r="AH86" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI86" s="52">
+        <f>AA17</f>
+        <v>11749984000</v>
       </c>
     </row>
     <row r="87" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11135,12 +11517,18 @@
       <c r="AA87" s="10">
         <v>1610599188000</v>
       </c>
-      <c r="AH87" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI87" s="33">
-        <f>AA61</f>
-        <v>868860583000</v>
+      <c r="AB87" s="51"/>
+      <c r="AC87" s="51"/>
+      <c r="AD87" s="51"/>
+      <c r="AE87" s="51"/>
+      <c r="AF87" s="51"/>
+      <c r="AG87" s="51"/>
+      <c r="AH87" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI87" s="52">
+        <f>AA56</f>
+        <v>19313889000</v>
       </c>
     </row>
     <row r="88" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11225,12 +11613,18 @@
       <c r="AA88" s="1">
         <v>-1082672130000</v>
       </c>
-      <c r="AH88" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI88" s="35">
-        <f>AI85/(AI86+AI87)</f>
-        <v>1.3229364691760698E-2</v>
+      <c r="AB88" s="51"/>
+      <c r="AC88" s="51"/>
+      <c r="AD88" s="51"/>
+      <c r="AE88" s="51"/>
+      <c r="AF88" s="51"/>
+      <c r="AG88" s="51"/>
+      <c r="AH88" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI88" s="52">
+        <f>AA61</f>
+        <v>868860583000</v>
       </c>
     </row>
     <row r="89" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -11341,12 +11735,18 @@
         <f t="shared" si="20"/>
         <v>0.47823503444086751</v>
       </c>
-      <c r="AH89" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI89" s="33">
-        <f>AA27</f>
-        <v>127290203000</v>
+      <c r="AB89" s="51"/>
+      <c r="AC89" s="51"/>
+      <c r="AD89" s="51"/>
+      <c r="AE89" s="51"/>
+      <c r="AF89" s="51"/>
+      <c r="AG89" s="51"/>
+      <c r="AH89" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI89" s="53">
+        <f>AI86/(AI87+AI88)</f>
+        <v>1.3229364691760698E-2</v>
       </c>
     </row>
     <row r="90" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11431,12 +11831,18 @@
       <c r="AA90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AH90" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI90" s="33">
-        <f>AA25</f>
-        <v>1144190718000</v>
+      <c r="AB90" s="51"/>
+      <c r="AC90" s="51"/>
+      <c r="AD90" s="51"/>
+      <c r="AE90" s="51"/>
+      <c r="AF90" s="51"/>
+      <c r="AG90" s="51"/>
+      <c r="AH90" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI90" s="52">
+        <f>AA27</f>
+        <v>127290203000</v>
       </c>
     </row>
     <row r="91" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11521,12 +11927,18 @@
       <c r="AA91" s="1">
         <v>-237818185000</v>
       </c>
-      <c r="AH91" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI91" s="35">
-        <f>AI89/AI90</f>
-        <v>0.11124911345417854</v>
+      <c r="AB91" s="51"/>
+      <c r="AC91" s="51"/>
+      <c r="AD91" s="51"/>
+      <c r="AE91" s="51"/>
+      <c r="AF91" s="51"/>
+      <c r="AG91" s="51"/>
+      <c r="AH91" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI91" s="52">
+        <f>AA25</f>
+        <v>1144190718000</v>
       </c>
     </row>
     <row r="92" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11611,15 +12023,21 @@
       <c r="AA92" s="1">
         <v>108980409000</v>
       </c>
-      <c r="AH92" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI92" s="35">
-        <f>AI88*(1-AI91)</f>
-        <v>1.1757609598240308E-2</v>
+      <c r="AB92" s="51"/>
+      <c r="AC92" s="51"/>
+      <c r="AD92" s="51"/>
+      <c r="AE92" s="51"/>
+      <c r="AF92" s="51"/>
+      <c r="AG92" s="51"/>
+      <c r="AH92" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI92" s="53">
+        <f>AI90/AI91</f>
+        <v>0.11124911345417854</v>
       </c>
     </row>
-    <row r="93" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:35" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -11701,12 +12119,21 @@
       <c r="AA93" s="1">
         <v>20581671000</v>
       </c>
-      <c r="AH93" s="73" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI93" s="73"/>
+      <c r="AB93" s="51"/>
+      <c r="AC93" s="51"/>
+      <c r="AD93" s="51"/>
+      <c r="AE93" s="51"/>
+      <c r="AF93" s="51"/>
+      <c r="AG93" s="51"/>
+      <c r="AH93" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI93" s="53">
+        <f>AI89*(1-AI92)</f>
+        <v>1.1757609598240308E-2</v>
+      </c>
     </row>
-    <row r="94" spans="1:35" ht="20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -11788,13 +12215,16 @@
       <c r="AA94" s="10">
         <v>-1190928235000</v>
       </c>
-      <c r="AH94" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI94" s="36">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
-      </c>
+      <c r="AB94" s="51"/>
+      <c r="AC94" s="51"/>
+      <c r="AD94" s="51"/>
+      <c r="AE94" s="51"/>
+      <c r="AF94" s="51"/>
+      <c r="AG94" s="51"/>
+      <c r="AH94" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI94" s="81"/>
     </row>
     <row r="95" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -11878,12 +12308,17 @@
       <c r="AA95" s="1">
         <v>-118954936000</v>
       </c>
-      <c r="AH95" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI95" s="38" cm="1">
-        <f t="array" ref="AI95">_FV(A1,"Beta")</f>
-        <v>1.3632</v>
+      <c r="AB95" s="51"/>
+      <c r="AC95" s="51"/>
+      <c r="AD95" s="51"/>
+      <c r="AE95" s="51"/>
+      <c r="AF95" s="51"/>
+      <c r="AG95" s="51"/>
+      <c r="AH95" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI95" s="75">
+        <v>1.3050000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11968,14 +12403,21 @@
       <c r="AA96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AH96" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI96" s="39">
-        <v>8.4000000000000005E-2</v>
+      <c r="AB96" s="51"/>
+      <c r="AC96" s="51"/>
+      <c r="AD96" s="51"/>
+      <c r="AE96" s="51"/>
+      <c r="AF96" s="51"/>
+      <c r="AG96" s="51"/>
+      <c r="AH96" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI96" s="54" cm="1">
+        <f t="array" ref="AI96">_FV(A1,"Beta")</f>
+        <v>1.3952</v>
       </c>
     </row>
-    <row r="97" spans="1:36" ht="20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:37" ht="20" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>82</v>
       </c>
@@ -12057,15 +12499,20 @@
       <c r="AA97" s="1">
         <v>-871566000</v>
       </c>
-      <c r="AH97" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI97" s="35">
-        <f>(AI94)+((AI95)*(AI96-AI94))</f>
-        <v>0.100300416</v>
+      <c r="AB97" s="51"/>
+      <c r="AC97" s="51"/>
+      <c r="AD97" s="51"/>
+      <c r="AE97" s="51"/>
+      <c r="AF97" s="51"/>
+      <c r="AG97" s="51"/>
+      <c r="AH97" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI97" s="55">
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:36" ht="19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:37" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -12147,15 +12594,24 @@
       <c r="AA98" s="1">
         <v>-285234185000</v>
       </c>
-      <c r="AH98" s="73" t="s">
-        <v>138</v>
-      </c>
-      <c r="AI98" s="73"/>
-      <c r="AJ98" t="e" vm="2">
-        <v>#VALUE!</v>
+      <c r="AB98" s="51"/>
+      <c r="AC98" s="51"/>
+      <c r="AD98" s="51"/>
+      <c r="AE98" s="51"/>
+      <c r="AF98" s="51"/>
+      <c r="AG98" s="51"/>
+      <c r="AH98" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI98" s="53">
+        <f>(AI95)+((AI96)*(AI97-AI95))</f>
+        <v>0.11203944</v>
+      </c>
+      <c r="AJ98" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="99" spans="1:36" ht="20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -12237,18 +12693,22 @@
       <c r="AA99" s="1">
         <v>204816655000</v>
       </c>
-      <c r="AH99" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI99" s="33">
-        <f>AI86+AI87</f>
-        <v>888174472000</v>
-      </c>
-      <c r="AJ99" s="40" t="s">
-        <v>156</v>
-      </c>
+      <c r="AB99" s="51"/>
+      <c r="AC99" s="51"/>
+      <c r="AD99" s="51"/>
+      <c r="AE99" s="51"/>
+      <c r="AF99" s="51"/>
+      <c r="AG99" s="51"/>
+      <c r="AH99" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI99" s="81"/>
+      <c r="AJ99" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK99" s="48"/>
     </row>
-    <row r="100" spans="1:36" ht="20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:37" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>85</v>
       </c>
@@ -12330,18 +12790,24 @@
       <c r="AA100" s="10">
         <v>-200244032000</v>
       </c>
-      <c r="AH100" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI100" s="35">
-        <f>AI99/AI103</f>
-        <v>5.7830355462083316E-2</v>
-      </c>
-      <c r="AJ100" s="41">
-        <v>3.3000000000000002E-2</v>
+      <c r="AB100" s="51"/>
+      <c r="AC100" s="51"/>
+      <c r="AD100" s="51"/>
+      <c r="AE100" s="51"/>
+      <c r="AF100" s="51"/>
+      <c r="AG100" s="51"/>
+      <c r="AH100" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI100" s="52">
+        <f>AI87+AI88</f>
+        <v>888174472000</v>
+      </c>
+      <c r="AJ100" s="47" t="s">
+        <v>156</v>
       </c>
     </row>
-    <row r="101" spans="1:36" ht="20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:37" ht="20" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>86</v>
       </c>
@@ -12423,18 +12889,24 @@
       <c r="AA101" s="1">
         <v>58396970000</v>
       </c>
-      <c r="AH101" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI101" s="42" cm="1">
-        <f t="array" ref="AI101">_FV(A1,"Market cap",TRUE)</f>
-        <v>14470100000000</v>
-      </c>
-      <c r="AJ101" s="40" t="s">
-        <v>157</v>
+      <c r="AB101" s="51"/>
+      <c r="AC101" s="51"/>
+      <c r="AD101" s="51"/>
+      <c r="AE101" s="51"/>
+      <c r="AF101" s="51"/>
+      <c r="AG101" s="51"/>
+      <c r="AH101" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI101" s="53">
+        <f>AI100/AI104</f>
+        <v>5.9643071665507183E-2</v>
+      </c>
+      <c r="AJ101" s="31">
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:36" ht="20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:37" ht="20" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>87</v>
       </c>
@@ -12516,19 +12988,24 @@
       <c r="AA102" s="10">
         <v>277823891000</v>
       </c>
-      <c r="AH102" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="AI102" s="35">
-        <f>AI101/AI103</f>
-        <v>0.94216964453791663</v>
-      </c>
-      <c r="AJ102" s="33">
-        <f>AI101*AJ100</f>
-        <v>477513300000</v>
+      <c r="AB102" s="51"/>
+      <c r="AC102" s="51"/>
+      <c r="AD102" s="51"/>
+      <c r="AE102" s="51"/>
+      <c r="AF102" s="51"/>
+      <c r="AG102" s="51"/>
+      <c r="AH102" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI102" s="56" cm="1">
+        <f t="array" ref="AI102">_FV(A1,"Market cap",TRUE)</f>
+        <v>14003320000000</v>
+      </c>
+      <c r="AJ102" s="47" t="s">
+        <v>157</v>
       </c>
     </row>
-    <row r="103" spans="1:36" ht="20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:37" ht="20" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>88</v>
       </c>
@@ -12610,15 +13087,25 @@
       <c r="AA103" s="1">
         <v>1064990192000</v>
       </c>
-      <c r="AH103" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="AI103" s="43">
-        <f>AI99+AI101</f>
-        <v>15358274472000</v>
+      <c r="AB103" s="51"/>
+      <c r="AC103" s="51"/>
+      <c r="AD103" s="51"/>
+      <c r="AE103" s="51"/>
+      <c r="AF103" s="51"/>
+      <c r="AG103" s="51"/>
+      <c r="AH103" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI103" s="53">
+        <f>AI102/AI104</f>
+        <v>0.9403569283344928</v>
+      </c>
+      <c r="AJ103" s="28">
+        <f>AI102*AJ101</f>
+        <v>462109560000</v>
       </c>
     </row>
-    <row r="104" spans="1:36" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:37" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -12700,17 +13187,28 @@
       <c r="AA104" s="11">
         <v>1342814083000</v>
       </c>
-      <c r="AH104" s="73" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI104" s="73"/>
+      <c r="AB104" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC104" s="83"/>
+      <c r="AD104" s="83"/>
+      <c r="AE104" s="83"/>
+      <c r="AF104" s="83"/>
+      <c r="AG104" s="51"/>
+      <c r="AH104" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI104" s="58">
+        <f>AI100+AI102</f>
+        <v>14891494472000</v>
+      </c>
     </row>
-    <row r="105" spans="1:36" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:37" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B105" s="1">
-        <f t="shared" ref="B105:Z105" si="21">(B22*(1-$AI$91))+B77+B88+B81</f>
+        <f t="shared" ref="B105:AA105" si="21">(B22*(1-$AI$92))+B77+B88+B81</f>
         <v>-10594400990.662193</v>
       </c>
       <c r="C105" s="1">
@@ -12810,403 +13308,494 @@
         <v>292136601112.85095</v>
       </c>
       <c r="AA105" s="1">
-        <f>(AA22*(1-$AI$91))+AA77+AA88+AA81</f>
+        <f t="shared" si="21"/>
         <v>473628314891.33008</v>
       </c>
-      <c r="AB105" s="27">
-        <f>AA105*(1+$AI$106)</f>
-        <v>517068970974.85345</v>
-      </c>
-      <c r="AC105" s="27">
-        <f t="shared" ref="AC105:AF105" si="22">AB105*(1+$AI$106)</f>
-        <v>564493955152.02112</v>
-      </c>
-      <c r="AD105" s="27">
-        <f t="shared" si="22"/>
-        <v>616268705512.14929</v>
-      </c>
-      <c r="AE105" s="27">
-        <f t="shared" si="22"/>
-        <v>672792177714.89087</v>
-      </c>
-      <c r="AF105" s="27">
-        <f t="shared" si="22"/>
-        <v>734499919184.07031</v>
-      </c>
-      <c r="AG105" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="AH105" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI105" s="45">
-        <f>(AI100*AI92)+(AI102*AI97)</f>
-        <v>9.5179954032175815E-2</v>
-      </c>
+      <c r="AB105" s="76">
+        <f>AB107/AB3</f>
+        <v>0.17267165193745751</v>
+      </c>
+      <c r="AC105" s="76">
+        <f>AC107/AC3</f>
+        <v>0.29160874885649457</v>
+      </c>
+      <c r="AD105" s="76">
+        <f>AD107/AD3</f>
+        <v>0.31717975810670801</v>
+      </c>
+      <c r="AE105" s="76">
+        <f>AE107/AE3</f>
+        <v>0.25182524271844658</v>
+      </c>
+      <c r="AF105" s="76">
+        <f>AF107/AF3</f>
+        <v>0.27844797178130515</v>
+      </c>
+      <c r="AG105" s="77" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH105" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI105" s="81"/>
     </row>
-    <row r="106" spans="1:36" ht="19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:37" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>106</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
-        <f t="shared" ref="C106:AA106" si="23">(C107/B107)-1</f>
+        <f t="shared" ref="C106:AA106" si="22">(C107/B107)-1</f>
         <v>-0.66023844690773537</v>
       </c>
       <c r="D106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-4.716021352464761</v>
       </c>
       <c r="E106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-2.0633066879522239</v>
       </c>
       <c r="F106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-1.3540175301892403</v>
       </c>
       <c r="G106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>10.830968261796651</v>
       </c>
       <c r="H106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1.6720148824889343</v>
       </c>
       <c r="I106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-0.37688644544148509</v>
       </c>
       <c r="J106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>7.1969148897544022E-2</v>
       </c>
       <c r="K106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.63174925618738054</v>
       </c>
       <c r="L106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-0.20966073965313869</v>
       </c>
       <c r="M106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.63082925717436633</v>
       </c>
       <c r="N106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-0.55638676946104537</v>
       </c>
       <c r="O106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-0.41076868726751314</v>
       </c>
       <c r="P106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-0.20942311128666691</v>
       </c>
       <c r="Q106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.27664054484081557</v>
       </c>
       <c r="R106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.32874641246412462</v>
       </c>
       <c r="S106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1.2638157168078292</v>
       </c>
       <c r="T106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1.0761305781565347</v>
       </c>
       <c r="U106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-0.2288051978765937</v>
       </c>
       <c r="V106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.20648454176217679</v>
       </c>
       <c r="W106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>7.3864499696707497E-3</v>
       </c>
       <c r="X106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-0.4213977596398486</v>
       </c>
       <c r="Y106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1.0716606619867304</v>
       </c>
       <c r="Z106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-0.12771733085606274</v>
       </c>
       <c r="AA106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.98296363145700649</v>
       </c>
-      <c r="AB106" s="30">
-        <f>11938000000/$AJ$100</f>
+      <c r="AB106" s="59">
+        <f>(AB107/AA107)-1</f>
+        <v>-0.30561130451338914</v>
+      </c>
+      <c r="AC106" s="59">
+        <f>(AC107/AB107)-1</f>
+        <v>1.0560395376109901</v>
+      </c>
+      <c r="AD106" s="59">
+        <f>(AD107/AC107)-1</f>
+        <v>0.25968629048686087</v>
+      </c>
+      <c r="AE106" s="59">
+        <f>(AE107/AD107)-1</f>
+        <v>-0.16109835376305826</v>
+      </c>
+      <c r="AF106" s="59">
+        <f>(AF107/AE107)-1</f>
+        <v>0.21736448454005708</v>
+      </c>
+      <c r="AG106" s="73">
+        <f>SUM(AB106:AF106)/5</f>
+        <v>0.21327613087229214</v>
+      </c>
+      <c r="AH106" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI106" s="60">
+        <f>(AI101*AI93)+(AI103*AI98)</f>
+        <v>0.10605832360259961</v>
+      </c>
+    </row>
+    <row r="107" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="B107" s="1">
+        <v>-7709062103</v>
+      </c>
+      <c r="C107" s="1">
+        <v>-2619242913</v>
+      </c>
+      <c r="D107" s="1">
+        <v>9733162592</v>
+      </c>
+      <c r="E107" s="1">
+        <v>-10349336879</v>
+      </c>
+      <c r="F107" s="1">
+        <v>3663846681</v>
+      </c>
+      <c r="G107" s="1">
+        <v>43346853799</v>
+      </c>
+      <c r="H107" s="1">
+        <v>115823438460</v>
+      </c>
+      <c r="I107" s="1">
+        <v>72171154440</v>
+      </c>
+      <c r="J107" s="1">
+        <v>77365251000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>126240690774</v>
+      </c>
+      <c r="L107" s="1">
+        <v>99772974172</v>
+      </c>
+      <c r="M107" s="1">
+        <v>162712685355</v>
+      </c>
+      <c r="N107" s="1">
+        <v>72181500000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>42531600000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>33624500000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>42926400000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>57038300000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>129124200000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>268078700000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>206740900000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>249429700000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>251272100000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>145386600000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>301191700000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>262724300000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>520972732000</v>
+      </c>
+      <c r="AB107" s="61">
+        <f>11938000000/$AJ$101</f>
         <v>361757575757.57574</v>
       </c>
-      <c r="AC106" s="30">
-        <f>24545000000/$AJ$100</f>
+      <c r="AC107" s="61">
+        <f>24545000000/$AJ$101</f>
         <v>743787878787.87878</v>
       </c>
-      <c r="AD106" s="30">
-        <f>30919000000/$AJ$100</f>
+      <c r="AD107" s="61">
+        <f>30919000000/$AJ$101</f>
         <v>936939393939.39392</v>
       </c>
-      <c r="AE106" s="30">
-        <f>25938000000/$AJ$100</f>
+      <c r="AE107" s="61">
+        <f>25938000000/$AJ$101</f>
         <v>786000000000</v>
       </c>
-      <c r="AF106" s="30">
-        <f>31576000000/$AJ$100</f>
+      <c r="AF107" s="61">
+        <f>31576000000/$AJ$101</f>
         <v>956848484848.48486</v>
       </c>
-      <c r="AG106" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="AH106" s="46" t="s">
+      <c r="AG107" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH107" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="AI106" s="47">
+      <c r="AI107" s="33">
         <f>(SUM(AB4:AF4)/5)</f>
         <v>9.1718874733007438E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="B107" s="1">
-        <v>-7709062103</v>
-      </c>
-      <c r="C107" s="1">
-        <v>-2619242913</v>
-      </c>
-      <c r="D107" s="1">
-        <v>9733162592</v>
-      </c>
-      <c r="E107" s="1">
-        <v>-10349336879</v>
-      </c>
-      <c r="F107" s="1">
-        <v>3663846681</v>
-      </c>
-      <c r="G107" s="1">
-        <v>43346853799</v>
-      </c>
-      <c r="H107" s="1">
-        <v>115823438460</v>
-      </c>
-      <c r="I107" s="1">
-        <v>72171154440</v>
-      </c>
-      <c r="J107" s="1">
-        <v>77365251000</v>
-      </c>
-      <c r="K107" s="1">
-        <v>126240690774</v>
-      </c>
-      <c r="L107" s="1">
-        <v>99772974172</v>
-      </c>
-      <c r="M107" s="1">
-        <v>162712685355</v>
-      </c>
-      <c r="N107" s="1">
-        <v>72181500000</v>
-      </c>
-      <c r="O107" s="1">
-        <v>42531600000</v>
-      </c>
-      <c r="P107" s="1">
-        <v>33624500000</v>
-      </c>
-      <c r="Q107" s="1">
-        <v>42926400000</v>
-      </c>
-      <c r="R107" s="1">
-        <v>57038300000</v>
-      </c>
-      <c r="S107" s="1">
-        <v>129124200000</v>
-      </c>
-      <c r="T107" s="1">
-        <v>268078700000</v>
-      </c>
-      <c r="U107" s="1">
-        <v>206740900000</v>
-      </c>
-      <c r="V107" s="1">
-        <v>249429700000</v>
-      </c>
-      <c r="W107" s="1">
-        <v>251272100000</v>
-      </c>
-      <c r="X107" s="1">
-        <v>145386600000</v>
-      </c>
-      <c r="Y107" s="1">
-        <v>301191700000</v>
-      </c>
-      <c r="Z107" s="1">
-        <v>262724300000</v>
-      </c>
-      <c r="AA107" s="1">
-        <v>520972732000</v>
-      </c>
-      <c r="AB107" s="28"/>
-      <c r="AC107" s="28"/>
-      <c r="AD107" s="28"/>
-      <c r="AE107" s="28"/>
-      <c r="AF107" s="31">
-        <f>AF106*(1+AI107)/(AI108-AI107)</f>
-        <v>13975068956586.061</v>
-      </c>
-      <c r="AG107" s="29" t="s">
+    <row r="108" spans="1:37" ht="19" x14ac:dyDescent="0.2">
+      <c r="AB108" s="78"/>
+      <c r="AC108" s="78"/>
+      <c r="AD108" s="78"/>
+      <c r="AE108" s="78"/>
+      <c r="AF108" s="63">
+        <f>AF107*(1+AI108)/(AI109-AI108)</f>
+        <v>12099555645612.229</v>
+      </c>
+      <c r="AG108" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="AH107" s="48" t="s">
+      <c r="AH108" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="AI107" s="49">
+      <c r="AI108" s="34">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="AB108" s="31">
-        <f t="shared" ref="AB108:AD108" si="24">AB107+AB106</f>
+    <row r="109" spans="1:37" ht="19" x14ac:dyDescent="0.2">
+      <c r="AB109" s="63">
+        <f t="shared" ref="AB109:AD109" si="23">AB108+AB107</f>
         <v>361757575757.57574</v>
       </c>
-      <c r="AC108" s="31">
-        <f t="shared" si="24"/>
+      <c r="AC109" s="63">
+        <f t="shared" si="23"/>
         <v>743787878787.87878</v>
       </c>
-      <c r="AD108" s="31">
-        <f t="shared" si="24"/>
+      <c r="AD109" s="63">
+        <f t="shared" si="23"/>
         <v>936939393939.39392</v>
       </c>
-      <c r="AE108" s="31">
-        <f>AE107+AE106</f>
+      <c r="AE109" s="63">
+        <f>AE108+AE107</f>
         <v>786000000000</v>
       </c>
-      <c r="AF108" s="31">
-        <f>AF107+AF106</f>
-        <v>14931917441434.545</v>
-      </c>
-      <c r="AG108" s="29" t="s">
+      <c r="AF109" s="63">
+        <f>AF108+AF107</f>
+        <v>13056404130460.713</v>
+      </c>
+      <c r="AG109" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="AH108" s="50" t="s">
+      <c r="AH109" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="AI108" s="47">
-        <f>AI105</f>
-        <v>9.5179954032175815E-2</v>
+      <c r="AI109" s="33">
+        <f>AI106</f>
+        <v>0.10605832360259961</v>
       </c>
     </row>
-    <row r="109" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="AB109" s="70" t="s">
+    <row r="110" spans="1:37" ht="19" x14ac:dyDescent="0.2">
+      <c r="AB110" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="AC109" s="70"/>
+      <c r="AC110" s="82"/>
+      <c r="AD110" s="51"/>
+      <c r="AE110" s="51"/>
+      <c r="AF110" s="51"/>
+      <c r="AG110" s="51"/>
+      <c r="AH110" s="51"/>
+      <c r="AI110" s="51"/>
     </row>
-    <row r="110" spans="1:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB110" s="51" t="s">
+    <row r="111" spans="1:37" ht="20" x14ac:dyDescent="0.2">
+      <c r="AB111" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="AC110" s="42">
-        <f>NPV(AI108,AB108,AC108,AD108,AE108,AF108)</f>
-        <v>11687452122074.994</v>
-      </c>
+      <c r="AC111" s="56">
+        <f>NPV(AI109,AB109,AC109,AD109,AE109,AF109)</f>
+        <v>10040061895418.969</v>
+      </c>
+      <c r="AD111" s="51"/>
+      <c r="AE111" s="51"/>
+      <c r="AF111" s="51"/>
+      <c r="AG111" s="51"/>
+      <c r="AH111" s="51"/>
+      <c r="AI111" s="51"/>
     </row>
-    <row r="111" spans="1:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB111" s="51" t="s">
+    <row r="112" spans="1:37" ht="20" x14ac:dyDescent="0.2">
+      <c r="AB112" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="AC111" s="42">
+      <c r="AC112" s="56">
         <f>AA40</f>
         <v>1586500125000</v>
       </c>
+      <c r="AD112" s="51"/>
+      <c r="AE112" s="51"/>
+      <c r="AF112" s="51"/>
+      <c r="AG112" s="51"/>
+      <c r="AH112" s="51"/>
+      <c r="AI112" s="51"/>
     </row>
-    <row r="112" spans="1:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB112" s="51" t="s">
+    <row r="113" spans="28:35" ht="20" x14ac:dyDescent="0.2">
+      <c r="AB113" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="AC112" s="42">
-        <f>AI99</f>
+      <c r="AC113" s="56">
+        <f>AI100</f>
         <v>888174472000</v>
       </c>
+      <c r="AD113" s="51"/>
+      <c r="AE113" s="51"/>
+      <c r="AF113" s="51"/>
+      <c r="AG113" s="51"/>
+      <c r="AH113" s="51"/>
+      <c r="AI113" s="51"/>
     </row>
-    <row r="113" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB113" s="51" t="s">
+    <row r="114" spans="28:35" ht="20" x14ac:dyDescent="0.2">
+      <c r="AB114" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="AC113" s="42">
-        <f>AC110+AC111-AC112</f>
-        <v>12385777775074.994</v>
-      </c>
+      <c r="AC114" s="56">
+        <f>AC111+AC112-AC113</f>
+        <v>10738387548418.969</v>
+      </c>
+      <c r="AD114" s="51"/>
+      <c r="AE114" s="51"/>
+      <c r="AF114" s="51"/>
+      <c r="AG114" s="51"/>
+      <c r="AH114" s="51"/>
+      <c r="AI114" s="51"/>
     </row>
-    <row r="114" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB114" s="51" t="s">
+    <row r="115" spans="28:35" ht="20" x14ac:dyDescent="0.2">
+      <c r="AB115" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="AC114" s="51">
+      <c r="AC115" s="67">
         <f>AA34*(1+(5*AG16))</f>
         <v>5186076000</v>
       </c>
+      <c r="AD115" s="51"/>
+      <c r="AE115" s="51"/>
+      <c r="AF115" s="51"/>
+      <c r="AG115" s="51"/>
+      <c r="AH115" s="51"/>
+      <c r="AI115" s="51"/>
     </row>
-    <row r="115" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB115" s="52" t="s">
+    <row r="116" spans="28:35" ht="20" x14ac:dyDescent="0.2">
+      <c r="AB116" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="AC115" s="53">
-        <f>AC113/AC114*AJ100</f>
-        <v>78.81308846562888</v>
-      </c>
+      <c r="AC116" s="69">
+        <f>AC114/AC115*AJ101</f>
+        <v>68.330427301456055</v>
+      </c>
+      <c r="AD116" s="51"/>
+      <c r="AE116" s="51"/>
+      <c r="AF116" s="51"/>
+      <c r="AG116" s="51"/>
+      <c r="AH116" s="51"/>
+      <c r="AI116" s="51"/>
     </row>
-    <row r="116" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB116" s="51" t="s">
+    <row r="117" spans="28:35" ht="20" x14ac:dyDescent="0.2">
+      <c r="AB117" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="AC116" s="54" cm="1">
-        <f t="array" ref="AC116">_FV(AJ98,"Price")</f>
-        <v>100.32</v>
-      </c>
+      <c r="AC117" s="70" cm="1">
+        <f t="array" ref="AC117">_FV(AJ99,"Price")</f>
+        <v>92.91</v>
+      </c>
+      <c r="AD117" s="51"/>
+      <c r="AE117" s="51"/>
+      <c r="AF117" s="51"/>
+      <c r="AG117" s="51"/>
+      <c r="AH117" s="51"/>
+      <c r="AI117" s="51"/>
     </row>
-    <row r="117" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB117" s="52" t="s">
+    <row r="118" spans="28:35" ht="20" x14ac:dyDescent="0.2">
+      <c r="AB118" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="AC117" s="55">
-        <f>AC115/AC116-1</f>
-        <v>-0.21438308945744733</v>
-      </c>
+      <c r="AC118" s="71">
+        <f>AC116/AC117-1</f>
+        <v>-0.26455249917709545</v>
+      </c>
+      <c r="AD118" s="51"/>
+      <c r="AE118" s="51"/>
+      <c r="AF118" s="51"/>
+      <c r="AG118" s="51"/>
+      <c r="AH118" s="51"/>
+      <c r="AI118" s="51"/>
     </row>
-    <row r="118" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB118" s="52" t="s">
+    <row r="119" spans="28:35" ht="20" x14ac:dyDescent="0.2">
+      <c r="AB119" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="AC118" s="56" t="str">
-        <f>IF(AC115&gt;AC116,"BUY","SELL")</f>
+      <c r="AC119" s="72" t="str">
+        <f>IF(AC116&gt;AC117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
+      <c r="AD119" s="51"/>
+      <c r="AE119" s="51"/>
+      <c r="AF119" s="51"/>
+      <c r="AG119" s="51"/>
+      <c r="AH119" s="51"/>
+      <c r="AI119" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="AB109:AC109"/>
-    <mergeCell ref="AH83:AI83"/>
+  <mergeCells count="7">
     <mergeCell ref="AH84:AI84"/>
-    <mergeCell ref="AH93:AI93"/>
-    <mergeCell ref="AH98:AI98"/>
-    <mergeCell ref="AH104:AI104"/>
+    <mergeCell ref="AH85:AI85"/>
+    <mergeCell ref="AB110:AC110"/>
+    <mergeCell ref="AB104:AF104"/>
+    <mergeCell ref="AH105:AI105"/>
+    <mergeCell ref="AH99:AI99"/>
+    <mergeCell ref="AH94:AI94"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/TSM" display="ROIC.AI | TSM" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -13263,7 +13852,7 @@
     <hyperlink ref="AA36" r:id="rId52" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
     <hyperlink ref="AA74" r:id="rId53" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
     <hyperlink ref="AB1" r:id="rId54" display="https://finbox.com/NYSE:TSM/explorer/revenue_proj" xr:uid="{BD4BDCDA-3FE0-8448-B821-18ACC774C463}"/>
-    <hyperlink ref="AG106" r:id="rId55" xr:uid="{FFA92C07-BB9C-F94C-BBBB-FF7DE1364AC8}"/>
+    <hyperlink ref="AG107" r:id="rId55" xr:uid="{FFA92C07-BB9C-F94C-BBBB-FF7DE1364AC8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId56"/>

--- a/Technology/Hardware/Taiwan Semiconductor.xlsx
+++ b/Technology/Hardware/Taiwan Semiconductor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070D1FA2-D8A9-2143-8AF2-B3505CD5EB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE8A0BB-4D6F-DD44-BC72-21596B73AAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2845,9 +2845,9 @@
     <v>Powered by Refinitiv</v>
     <v>594</v>
     <v>370</v>
-    <v>1.3952</v>
-    <v>6</v>
-    <v>1.0989000000000001E-2</v>
+    <v>1.3908</v>
+    <v>-1</v>
+    <v>-1.8759999999999998E-3</v>
     <v>TWD</v>
     <v>Taiwan Semiconductor Manufacturing Co Ltd is a Taiwan-based company mainly engaged in the provision of integrated circuit manufacturing services. The integrated circuit manufacturing services include process technology, special process technology, design ecosystem support, mask technology, 3DFabricTM advanced packaging and silicon stacking technology services. The Company has completed the transfer and mass production of 5nm technology, and is engaged in the research and development of 3nm process technology and 2nm process technology. The product application range covers the entire electronic application industry, including personal computers and peripheral products, information application products, wired and wireless communication system products, servers and data centers.</v>
     <v>52045</v>
@@ -2855,24 +2855,24 @@
     <v>XTAI</v>
     <v>XTAI</v>
     <v>No.8, Li-Hsin 6th Road, Hsinchu Science Park, HSINCHU, HSINCHU, 300 TW</v>
-    <v>553</v>
+    <v>534</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45219.171180555553</v>
+    <v>45229.287407407406</v>
     <v>0</v>
-    <v>546</v>
-    <v>14003320000000</v>
+    <v>528</v>
+    <v>13795861240000</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
-    <v>549</v>
-    <v>15.98</v>
-    <v>546</v>
-    <v>552</v>
+    <v>531</v>
+    <v>15.4</v>
+    <v>533</v>
+    <v>532</v>
     <v>25932070000</v>
     <v>2330</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd. (XTAI:2330)</v>
-    <v>28050000</v>
-    <v>29222310</v>
+    <v>21852422</v>
+    <v>25212600</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2896,11 +2896,11 @@
     <v>Powered by Refinitiv</v>
     <v>110.69</v>
     <v>59.43</v>
-    <v>1.0405</v>
-    <v>3.31</v>
-    <v>3.6942000000000003E-2</v>
-    <v>-0.46</v>
-    <v>-4.9509999999999997E-3</v>
+    <v>1.0347999999999999</v>
+    <v>-1.46</v>
+    <v>-1.6695000000000002E-2</v>
+    <v>0.03</v>
+    <v>3.4889999999999997E-4</v>
     <v>USD</v>
     <v>Taiwan Semiconductor Manufacturing Co Ltd is a Taiwan-based company mainly engaged in the provision of integrated circuit manufacturing services. The integrated circuit manufacturing services include process technology, special process technology, design ecosystem support, mask technology, 3DFabricTM advanced packaging and silicon stacking technology services. The Company has completed the transfer and mass production of 5nm technology, and is engaged in the research and development of 3nm process technology and 2nm process technology. The product application range covers the entire electronic application industry, including personal computers and peripheral products, information application products, wired and wireless communication system products, servers and data centers.</v>
     <v>52045</v>
@@ -2908,25 +2908,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>No.8, Li-Hsin 6th Road, Hsinchu Science Park, HSINCHU, HSINCHU, 300 TW</v>
-    <v>94.76</v>
+    <v>87.78</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45218.99913384219</v>
+    <v>45226.99973193281</v>
     <v>3</v>
-    <v>92.36</v>
-    <v>432321300000</v>
+    <v>85.89</v>
+    <v>426545900000</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
-    <v>93.09</v>
-    <v>16.719799999999999</v>
-    <v>89.6</v>
-    <v>92.91</v>
-    <v>92.45</v>
+    <v>87.54</v>
+    <v>16.046199999999999</v>
+    <v>87.45</v>
+    <v>85.99</v>
+    <v>86.02</v>
     <v>5186414000</v>
     <v>TSM</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd. (XNYS:TSM)</v>
-    <v>22751595</v>
-    <v>8303442</v>
+    <v>12480729</v>
+    <v>8906889</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -3213,9 +3213,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3671,10 +3671,10 @@
   <dimension ref="A1:AK119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD90" sqref="AD90"/>
+      <selection pane="bottomRight" activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5282,15 +5282,15 @@
       </c>
       <c r="AH16" s="36">
         <f>AI102/AA3</f>
-        <v>6.1855090169232385</v>
+        <v>6.0938708889207565</v>
       </c>
       <c r="AI16" s="36">
         <f>AI102/AA28</f>
-        <v>13.775605805902584</v>
+        <v>13.571520624764016</v>
       </c>
       <c r="AJ16" s="38">
         <f>AI102/AA107</f>
-        <v>26.8791803099591</v>
+        <v>26.480966070984305</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -5579,15 +5579,15 @@
       </c>
       <c r="AH19" s="36">
         <f>AI102/AB3</f>
-        <v>6.6839689312524415</v>
+        <v>6.5849461347758798</v>
       </c>
       <c r="AI19" s="37">
         <f>AI102/AB28</f>
-        <v>18.01315818195993</v>
+        <v>17.746293791221643</v>
       </c>
       <c r="AJ19" s="38">
         <f>AI102/AB107</f>
-        <v>38.709127156977722</v>
+        <v>38.135652615178422</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5919,11 +5919,11 @@
       </c>
       <c r="AI22" s="50">
         <f>(-1*AA98)/AI102</f>
-        <v>2.0369039984803605E-2</v>
+        <v>2.0675344586170975E-2</v>
       </c>
       <c r="AJ22" s="39">
         <f>AB107/AI102</f>
-        <v>2.583370056226493E-2</v>
+        <v>2.6222181382100921E-2</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -12414,7 +12414,7 @@
       </c>
       <c r="AI96" s="54" cm="1">
         <f t="array" ref="AI96">_FV(A1,"Beta")</f>
-        <v>1.3952</v>
+        <v>1.3908</v>
       </c>
     </row>
     <row r="97" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12605,7 +12605,7 @@
       </c>
       <c r="AI98" s="53">
         <f>(AI95)+((AI96)*(AI97-AI95))</f>
-        <v>0.11203944</v>
+        <v>0.11172726000000001</v>
       </c>
       <c r="AJ98" t="s">
         <v>170</v>
@@ -12900,7 +12900,7 @@
       </c>
       <c r="AI101" s="53">
         <f>AI100/AI104</f>
-        <v>5.9643071665507183E-2</v>
+        <v>6.0485719962814537E-2</v>
       </c>
       <c r="AJ101" s="31">
         <v>3.3000000000000002E-2</v>
@@ -12999,7 +12999,7 @@
       </c>
       <c r="AI102" s="56" cm="1">
         <f t="array" ref="AI102">_FV(A1,"Market cap",TRUE)</f>
-        <v>14003320000000</v>
+        <v>13795861240000</v>
       </c>
       <c r="AJ102" s="47" t="s">
         <v>157</v>
@@ -13098,11 +13098,11 @@
       </c>
       <c r="AI103" s="53">
         <f>AI102/AI104</f>
-        <v>0.9403569283344928</v>
+        <v>0.93951428003718551</v>
       </c>
       <c r="AJ103" s="28">
         <f>AI102*AJ101</f>
-        <v>462109560000</v>
+        <v>455263420920</v>
       </c>
     </row>
     <row r="104" spans="1:37" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13200,7 +13200,7 @@
       </c>
       <c r="AI104" s="58">
         <f>AI100+AI102</f>
-        <v>14891494472000</v>
+        <v>14684035712000</v>
       </c>
     </row>
     <row r="105" spans="1:37" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -13473,7 +13473,7 @@
       </c>
       <c r="AI106" s="60">
         <f>(AI101*AI93)+(AI103*AI98)</f>
-        <v>0.10605832360259961</v>
+        <v>0.10568052372101872</v>
       </c>
     </row>
     <row r="107" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -13596,7 +13596,7 @@
       <c r="AE108" s="78"/>
       <c r="AF108" s="63">
         <f>AF107*(1+AI108)/(AI109-AI108)</f>
-        <v>12099555645612.229</v>
+        <v>12156213813894.578</v>
       </c>
       <c r="AG108" s="64" t="s">
         <v>146</v>
@@ -13627,7 +13627,7 @@
       </c>
       <c r="AF109" s="63">
         <f>AF108+AF107</f>
-        <v>13056404130460.713</v>
+        <v>13113062298743.062</v>
       </c>
       <c r="AG109" s="64" t="s">
         <v>143</v>
@@ -13637,7 +13637,7 @@
       </c>
       <c r="AI109" s="33">
         <f>AI106</f>
-        <v>0.10605832360259961</v>
+        <v>0.10568052372101872</v>
       </c>
     </row>
     <row r="110" spans="1:37" ht="19" x14ac:dyDescent="0.2">
@@ -13658,7 +13658,7 @@
       </c>
       <c r="AC111" s="56">
         <f>NPV(AI109,AB109,AC109,AD109,AE109,AF109)</f>
-        <v>10040061895418.969</v>
+        <v>10089787627502.201</v>
       </c>
       <c r="AD111" s="51"/>
       <c r="AE111" s="51"/>
@@ -13703,7 +13703,7 @@
       </c>
       <c r="AC114" s="56">
         <f>AC111+AC112-AC113</f>
-        <v>10738387548418.969</v>
+        <v>10788113280502.201</v>
       </c>
       <c r="AD114" s="51"/>
       <c r="AE114" s="51"/>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="AC116" s="69">
         <f>AC114/AC115*AJ101</f>
-        <v>68.330427301456055</v>
+        <v>68.646841707790756</v>
       </c>
       <c r="AD116" s="51"/>
       <c r="AE116" s="51"/>
@@ -13748,7 +13748,7 @@
       </c>
       <c r="AC117" s="70" cm="1">
         <f t="array" ref="AC117">_FV(AJ99,"Price")</f>
-        <v>92.91</v>
+        <v>85.99</v>
       </c>
       <c r="AD117" s="51"/>
       <c r="AE117" s="51"/>
@@ -13763,7 +13763,7 @@
       </c>
       <c r="AC118" s="71">
         <f>AC116/AC117-1</f>
-        <v>-0.26455249917709545</v>
+        <v>-0.20168808340748046</v>
       </c>
       <c r="AD118" s="51"/>
       <c r="AE118" s="51"/>

--- a/Technology/Hardware/Taiwan Semiconductor.xlsx
+++ b/Technology/Hardware/Taiwan Semiconductor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE8A0BB-4D6F-DD44-BC72-21596B73AAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AEF857-AC92-CF40-AC7A-8E5BE7F9760F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2844,10 +2844,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>594</v>
-    <v>370</v>
-    <v>1.3908</v>
-    <v>-1</v>
-    <v>-1.8759999999999998E-3</v>
+    <v>378.5</v>
+    <v>1.3885000000000001</v>
+    <v>2</v>
+    <v>3.656E-3</v>
     <v>TWD</v>
     <v>Taiwan Semiconductor Manufacturing Co Ltd is a Taiwan-based company mainly engaged in the provision of integrated circuit manufacturing services. The integrated circuit manufacturing services include process technology, special process technology, design ecosystem support, mask technology, 3DFabricTM advanced packaging and silicon stacking technology services. The Company has completed the transfer and mass production of 5nm technology, and is engaged in the research and development of 3nm process technology and 2nm process technology. The product application range covers the entire electronic application industry, including personal computers and peripheral products, information application products, wired and wireless communication system products, servers and data centers.</v>
     <v>52045</v>
@@ -2855,24 +2855,24 @@
     <v>XTAI</v>
     <v>XTAI</v>
     <v>No.8, Li-Hsin 6th Road, Hsinchu Science Park, HSINCHU, HSINCHU, 300 TW</v>
-    <v>534</v>
+    <v>549</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45229.287407407406</v>
+    <v>45233.280393518522</v>
     <v>0</v>
-    <v>528</v>
-    <v>13795861240000</v>
+    <v>545</v>
+    <v>13692130000000</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
-    <v>531</v>
-    <v>15.4</v>
-    <v>533</v>
-    <v>532</v>
+    <v>547</v>
+    <v>15.89</v>
+    <v>547</v>
+    <v>549</v>
     <v>25932070000</v>
     <v>2330</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd. (XTAI:2330)</v>
-    <v>21852422</v>
-    <v>25212600</v>
+    <v>15914456</v>
+    <v>24734990</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2896,11 +2896,11 @@
     <v>Powered by Refinitiv</v>
     <v>110.69</v>
     <v>59.43</v>
-    <v>1.0347999999999999</v>
-    <v>-1.46</v>
-    <v>-1.6695000000000002E-2</v>
-    <v>0.03</v>
-    <v>3.4889999999999997E-4</v>
+    <v>1.3885000000000001</v>
+    <v>2.68</v>
+    <v>3.0523999999999999E-2</v>
+    <v>-0.09</v>
+    <v>-9.9470000000000005E-4</v>
     <v>USD</v>
     <v>Taiwan Semiconductor Manufacturing Co Ltd is a Taiwan-based company mainly engaged in the provision of integrated circuit manufacturing services. The integrated circuit manufacturing services include process technology, special process technology, design ecosystem support, mask technology, 3DFabricTM advanced packaging and silicon stacking technology services. The Company has completed the transfer and mass production of 5nm technology, and is engaged in the research and development of 3nm process technology and 2nm process technology. The product application range covers the entire electronic application industry, including personal computers and peripheral products, information application products, wired and wireless communication system products, servers and data centers.</v>
     <v>52045</v>
@@ -2908,25 +2908,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>No.8, Li-Hsin 6th Road, Hsinchu Science Park, HSINCHU, HSINCHU, 300 TW</v>
-    <v>87.78</v>
+    <v>91.05</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45226.99973193281</v>
+    <v>45232.999875474219</v>
     <v>3</v>
-    <v>85.89</v>
-    <v>426545900000</v>
+    <v>89.465000000000003</v>
+    <v>13692130000000</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
-    <v>87.54</v>
-    <v>16.046199999999999</v>
-    <v>87.45</v>
-    <v>85.99</v>
-    <v>86.02</v>
-    <v>5186414000</v>
+    <v>90.4</v>
+    <v>16.884</v>
+    <v>87.8</v>
+    <v>90.48</v>
+    <v>90.39</v>
+    <v>25932070000</v>
     <v>TSM</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd. (XNYS:TSM)</v>
-    <v>12480729</v>
-    <v>8906889</v>
+    <v>11032583</v>
+    <v>9199505</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -3196,7 +3196,7 @@
       <v>4</v>
       <v>4</v>
       <v>5</v>
-      <v>11</v>
+      <v>6</v>
       <v>10</v>
       <v>10</v>
       <v>10</v>
@@ -3363,9 +3363,6 @@
     </rSty>
     <rSty dxfid="1">
       <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
-    </rSty>
-    <rSty dxfid="1">
-      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
     </rSty>
   </richStyles>
 </richStyleSheet>
@@ -3671,10 +3668,10 @@
   <dimension ref="A1:AK119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Y93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD10" sqref="AD10"/>
+      <selection pane="bottomRight" activeCell="AB128" sqref="AB128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5282,15 +5279,15 @@
       </c>
       <c r="AH16" s="36">
         <f>AI102/AA3</f>
-        <v>6.0938708889207565</v>
+        <v>6.0480510033252957</v>
       </c>
       <c r="AI16" s="36">
         <f>AI102/AA28</f>
-        <v>13.571520624764016</v>
+        <v>13.469476204441015</v>
       </c>
       <c r="AJ16" s="38">
         <f>AI102/AA107</f>
-        <v>26.480966070984305</v>
+        <v>26.28185538125247</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -5579,15 +5576,15 @@
       </c>
       <c r="AH19" s="36">
         <f>AI102/AB3</f>
-        <v>6.5849461347758798</v>
+        <v>6.5354338487351207</v>
       </c>
       <c r="AI19" s="37">
         <f>AI102/AB28</f>
-        <v>17.746293791221643</v>
+        <v>17.612859203243161</v>
       </c>
       <c r="AJ19" s="38">
         <f>AI102/AB107</f>
-        <v>38.135652615178422</v>
+        <v>37.848910202714023</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5919,11 +5916,11 @@
       </c>
       <c r="AI22" s="50">
         <f>(-1*AA98)/AI102</f>
-        <v>2.0675344586170975E-2</v>
+        <v>2.083198048806139E-2</v>
       </c>
       <c r="AJ22" s="39">
         <f>AB107/AI102</f>
-        <v>2.6222181382100921E-2</v>
+        <v>2.6420839983083401E-2</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -6943,7 +6940,7 @@
       </c>
       <c r="AB33" s="1" cm="1">
         <f t="array" ref="AB33">_FV(AJ99,"Shares outstanding",TRUE)</f>
-        <v>5186414000</v>
+        <v>25932070000</v>
       </c>
     </row>
     <row r="34" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -7030,7 +7027,7 @@
       </c>
       <c r="AB34" s="1" cm="1">
         <f t="array" ref="AB34">_FV(AJ99,"Shares outstanding",TRUE)</f>
-        <v>5186414000</v>
+        <v>25932070000</v>
       </c>
     </row>
     <row r="35" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -7140,7 +7137,7 @@
       </c>
       <c r="AB35" s="22">
         <f t="shared" si="18"/>
-        <v>6.5174517303641515E-5</v>
+        <v>4.0003258725865178</v>
       </c>
     </row>
     <row r="36" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -12414,7 +12411,7 @@
       </c>
       <c r="AI96" s="54" cm="1">
         <f t="array" ref="AI96">_FV(A1,"Beta")</f>
-        <v>1.3908</v>
+        <v>1.3885000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12605,7 +12602,7 @@
       </c>
       <c r="AI98" s="53">
         <f>(AI95)+((AI96)*(AI97-AI95))</f>
-        <v>0.11172726000000001</v>
+        <v>0.11156407500000001</v>
       </c>
       <c r="AJ98" t="s">
         <v>170</v>
@@ -12900,7 +12897,7 @@
       </c>
       <c r="AI101" s="53">
         <f>AI100/AI104</f>
-        <v>6.0485719962814537E-2</v>
+        <v>6.0916044222920671E-2</v>
       </c>
       <c r="AJ101" s="31">
         <v>3.3000000000000002E-2</v>
@@ -12999,7 +12996,7 @@
       </c>
       <c r="AI102" s="56" cm="1">
         <f t="array" ref="AI102">_FV(A1,"Market cap",TRUE)</f>
-        <v>13795861240000</v>
+        <v>13692130000000</v>
       </c>
       <c r="AJ102" s="47" t="s">
         <v>157</v>
@@ -13098,11 +13095,11 @@
       </c>
       <c r="AI103" s="53">
         <f>AI102/AI104</f>
-        <v>0.93951428003718551</v>
+        <v>0.93908395577707937</v>
       </c>
       <c r="AJ103" s="28">
         <f>AI102*AJ101</f>
-        <v>455263420920</v>
+        <v>451840290000</v>
       </c>
     </row>
     <row r="104" spans="1:37" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13200,7 +13197,7 @@
       </c>
       <c r="AI104" s="58">
         <f>AI100+AI102</f>
-        <v>14684035712000</v>
+        <v>14580304472000</v>
       </c>
     </row>
     <row r="105" spans="1:37" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -13473,7 +13470,7 @@
       </c>
       <c r="AI106" s="60">
         <f>(AI101*AI93)+(AI103*AI98)</f>
-        <v>0.10568052372101872</v>
+        <v>0.10548425993985303</v>
       </c>
     </row>
     <row r="107" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -13596,7 +13593,7 @@
       <c r="AE108" s="78"/>
       <c r="AF108" s="63">
         <f>AF107*(1+AI108)/(AI109-AI108)</f>
-        <v>12156213813894.578</v>
+        <v>12185857181300.285</v>
       </c>
       <c r="AG108" s="64" t="s">
         <v>146</v>
@@ -13627,7 +13624,7 @@
       </c>
       <c r="AF109" s="63">
         <f>AF108+AF107</f>
-        <v>13113062298743.062</v>
+        <v>13142705666148.77</v>
       </c>
       <c r="AG109" s="64" t="s">
         <v>143</v>
@@ -13637,7 +13634,7 @@
       </c>
       <c r="AI109" s="33">
         <f>AI106</f>
-        <v>0.10568052372101872</v>
+        <v>0.10548425993985303</v>
       </c>
     </row>
     <row r="110" spans="1:37" ht="19" x14ac:dyDescent="0.2">
@@ -13658,7 +13655,7 @@
       </c>
       <c r="AC111" s="56">
         <f>NPV(AI109,AB109,AC109,AD109,AE109,AF109)</f>
-        <v>10089787627502.201</v>
+        <v>10115805115698.859</v>
       </c>
       <c r="AD111" s="51"/>
       <c r="AE111" s="51"/>
@@ -13703,7 +13700,7 @@
       </c>
       <c r="AC114" s="56">
         <f>AC111+AC112-AC113</f>
-        <v>10788113280502.201</v>
+        <v>10814130768698.859</v>
       </c>
       <c r="AD114" s="51"/>
       <c r="AE114" s="51"/>
@@ -13733,7 +13730,7 @@
       </c>
       <c r="AC116" s="69">
         <f>AC114/AC115*AJ101</f>
-        <v>68.646841707790756</v>
+        <v>68.812395994015972</v>
       </c>
       <c r="AD116" s="51"/>
       <c r="AE116" s="51"/>
@@ -13748,7 +13745,7 @@
       </c>
       <c r="AC117" s="70" cm="1">
         <f t="array" ref="AC117">_FV(AJ99,"Price")</f>
-        <v>85.99</v>
+        <v>90.48</v>
       </c>
       <c r="AD117" s="51"/>
       <c r="AE117" s="51"/>
@@ -13763,7 +13760,7 @@
       </c>
       <c r="AC118" s="71">
         <f>AC116/AC117-1</f>
-        <v>-0.20168808340748046</v>
+        <v>-0.23947396116251141</v>
       </c>
       <c r="AD118" s="51"/>
       <c r="AE118" s="51"/>

--- a/Technology/Hardware/Taiwan Semiconductor.xlsx
+++ b/Technology/Hardware/Taiwan Semiconductor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AEF857-AC92-CF40-AC7A-8E5BE7F9760F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFF65E8-ECDC-CA41-BDC8-8BB2937433C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2844,10 +2844,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>594</v>
-    <v>378.5</v>
-    <v>1.3885000000000001</v>
-    <v>2</v>
-    <v>3.656E-3</v>
+    <v>387</v>
+    <v>1.3841000000000001</v>
+    <v>1</v>
+    <v>1.799E-3</v>
     <v>TWD</v>
     <v>Taiwan Semiconductor Manufacturing Co Ltd is a Taiwan-based company mainly engaged in the provision of integrated circuit manufacturing services. The integrated circuit manufacturing services include process technology, special process technology, design ecosystem support, mask technology, 3DFabricTM advanced packaging and silicon stacking technology services. The Company has completed the transfer and mass production of 5nm technology, and is engaged in the research and development of 3nm process technology and 2nm process technology. The product application range covers the entire electronic application industry, including personal computers and peripheral products, information application products, wired and wireless communication system products, servers and data centers.</v>
     <v>52045</v>
@@ -2855,24 +2855,24 @@
     <v>XTAI</v>
     <v>XTAI</v>
     <v>No.8, Li-Hsin 6th Road, Hsinchu Science Park, HSINCHU, HSINCHU, 300 TW</v>
-    <v>549</v>
+    <v>557</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45233.280393518522</v>
+    <v>45239.402743055558</v>
     <v>0</v>
-    <v>545</v>
-    <v>13692130000000</v>
+    <v>551</v>
+    <v>14444162990000</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
-    <v>547</v>
-    <v>15.89</v>
-    <v>547</v>
-    <v>549</v>
+    <v>551</v>
+    <v>16.12</v>
+    <v>556</v>
+    <v>557</v>
     <v>25932070000</v>
     <v>2330</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd. (XTAI:2330)</v>
-    <v>15914456</v>
-    <v>24734990</v>
+    <v>13649525</v>
+    <v>22695230</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2895,12 +2895,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>110.69</v>
-    <v>59.43</v>
-    <v>1.3885000000000001</v>
-    <v>2.68</v>
-    <v>3.0523999999999999E-2</v>
-    <v>-0.09</v>
-    <v>-9.9470000000000005E-4</v>
+    <v>64.95</v>
+    <v>1.0436000000000001</v>
+    <v>-0.39</v>
+    <v>-4.2389999999999997E-3</v>
+    <v>0.05</v>
+    <v>5.4569999999999998E-4</v>
     <v>USD</v>
     <v>Taiwan Semiconductor Manufacturing Co Ltd is a Taiwan-based company mainly engaged in the provision of integrated circuit manufacturing services. The integrated circuit manufacturing services include process technology, special process technology, design ecosystem support, mask technology, 3DFabricTM advanced packaging and silicon stacking technology services. The Company has completed the transfer and mass production of 5nm technology, and is engaged in the research and development of 3nm process technology and 2nm process technology. The product application range covers the entire electronic application industry, including personal computers and peripheral products, information application products, wired and wireless communication system products, servers and data centers.</v>
     <v>52045</v>
@@ -2908,25 +2908,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>No.8, Li-Hsin 6th Road, Hsinchu Science Park, HSINCHU, HSINCHU, 300 TW</v>
-    <v>91.05</v>
+    <v>93.37</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45232.999875474219</v>
+    <v>45239.964535693747</v>
     <v>3</v>
-    <v>89.465000000000003</v>
-    <v>13692130000000</v>
+    <v>91.6</v>
+    <v>448063400000</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
-    <v>90.4</v>
-    <v>16.884</v>
-    <v>87.8</v>
-    <v>90.48</v>
-    <v>90.39</v>
-    <v>25932070000</v>
+    <v>92.63</v>
+    <v>17.1677</v>
+    <v>92</v>
+    <v>91.61</v>
+    <v>91.67</v>
+    <v>5186414000</v>
     <v>TSM</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd. (XNYS:TSM)</v>
-    <v>11032583</v>
-    <v>9199505</v>
+    <v>8161707</v>
+    <v>9411094</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -3196,7 +3196,7 @@
       <v>4</v>
       <v>4</v>
       <v>5</v>
-      <v>6</v>
+      <v>11</v>
       <v>10</v>
       <v>10</v>
       <v>10</v>
@@ -3363,6 +3363,9 @@
     </rSty>
     <rSty dxfid="1">
       <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
     </rSty>
   </richStyles>
 </richStyleSheet>
@@ -3668,10 +3671,10 @@
   <dimension ref="A1:AK119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB128" sqref="AB128"/>
+      <selection pane="bottomRight" activeCell="AC128" sqref="AC128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5279,15 +5282,15 @@
       </c>
       <c r="AH16" s="36">
         <f>AI102/AA3</f>
-        <v>6.0480510033252957</v>
+        <v>6.3802370021219197</v>
       </c>
       <c r="AI16" s="36">
         <f>AI102/AA28</f>
-        <v>13.469476204441015</v>
+        <v>14.209280052619468</v>
       </c>
       <c r="AJ16" s="38">
         <f>AI102/AA107</f>
-        <v>26.28185538125247</v>
+        <v>27.725372371312517</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -5576,15 +5579,15 @@
       </c>
       <c r="AH19" s="36">
         <f>AI102/AB3</f>
-        <v>6.5354338487351207</v>
+        <v>6.8943890922371525</v>
       </c>
       <c r="AI19" s="37">
         <f>AI102/AB28</f>
-        <v>17.612859203243161</v>
+        <v>18.580236168628677</v>
       </c>
       <c r="AJ19" s="38">
         <f>AI102/AB107</f>
-        <v>37.848910202714023</v>
+        <v>39.927741553861622</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5916,11 +5919,11 @@
       </c>
       <c r="AI22" s="50">
         <f>(-1*AA98)/AI102</f>
-        <v>2.083198048806139E-2</v>
+        <v>1.9747366821980177E-2</v>
       </c>
       <c r="AJ22" s="39">
         <f>AB107/AI102</f>
-        <v>2.6420839983083401E-2</v>
+        <v>2.5045243259026375E-2</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -6940,7 +6943,7 @@
       </c>
       <c r="AB33" s="1" cm="1">
         <f t="array" ref="AB33">_FV(AJ99,"Shares outstanding",TRUE)</f>
-        <v>25932070000</v>
+        <v>5186414000</v>
       </c>
     </row>
     <row r="34" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -7027,7 +7030,7 @@
       </c>
       <c r="AB34" s="1" cm="1">
         <f t="array" ref="AB34">_FV(AJ99,"Shares outstanding",TRUE)</f>
-        <v>25932070000</v>
+        <v>5186414000</v>
       </c>
     </row>
     <row r="35" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -7137,7 +7140,7 @@
       </c>
       <c r="AB35" s="22">
         <f t="shared" si="18"/>
-        <v>4.0003258725865178</v>
+        <v>6.5174517303641515E-5</v>
       </c>
     </row>
     <row r="36" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -12411,7 +12414,7 @@
       </c>
       <c r="AI96" s="54" cm="1">
         <f t="array" ref="AI96">_FV(A1,"Beta")</f>
-        <v>1.3885000000000001</v>
+        <v>1.3841000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12602,7 +12605,7 @@
       </c>
       <c r="AI98" s="53">
         <f>(AI95)+((AI96)*(AI97-AI95))</f>
-        <v>0.11156407500000001</v>
+        <v>0.11125189500000002</v>
       </c>
       <c r="AJ98" t="s">
         <v>170</v>
@@ -12897,7 +12900,7 @@
       </c>
       <c r="AI101" s="53">
         <f>AI100/AI104</f>
-        <v>6.0916044222920671E-2</v>
+        <v>5.792818441423371E-2</v>
       </c>
       <c r="AJ101" s="31">
         <v>3.3000000000000002E-2</v>
@@ -12996,7 +12999,7 @@
       </c>
       <c r="AI102" s="56" cm="1">
         <f t="array" ref="AI102">_FV(A1,"Market cap",TRUE)</f>
-        <v>13692130000000</v>
+        <v>14444162990000</v>
       </c>
       <c r="AJ102" s="47" t="s">
         <v>157</v>
@@ -13095,11 +13098,11 @@
       </c>
       <c r="AI103" s="53">
         <f>AI102/AI104</f>
-        <v>0.93908395577707937</v>
+        <v>0.94207181558576625</v>
       </c>
       <c r="AJ103" s="28">
         <f>AI102*AJ101</f>
-        <v>451840290000</v>
+        <v>476657378670</v>
       </c>
     </row>
     <row r="104" spans="1:37" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13197,7 +13200,7 @@
       </c>
       <c r="AI104" s="58">
         <f>AI100+AI102</f>
-        <v>14580304472000</v>
+        <v>15332337462000</v>
       </c>
     </row>
     <row r="105" spans="1:37" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -13470,7 +13473,7 @@
       </c>
       <c r="AI106" s="60">
         <f>(AI101*AI93)+(AI103*AI98)</f>
-        <v>0.10548425993985303</v>
+        <v>0.10548837168708447</v>
       </c>
     </row>
     <row r="107" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -13593,7 +13596,7 @@
       <c r="AE108" s="78"/>
       <c r="AF108" s="63">
         <f>AF107*(1+AI108)/(AI109-AI108)</f>
-        <v>12185857181300.285</v>
+        <v>12185234666973.336</v>
       </c>
       <c r="AG108" s="64" t="s">
         <v>146</v>
@@ -13624,7 +13627,7 @@
       </c>
       <c r="AF109" s="63">
         <f>AF108+AF107</f>
-        <v>13142705666148.77</v>
+        <v>13142083151821.82</v>
       </c>
       <c r="AG109" s="64" t="s">
         <v>143</v>
@@ -13634,7 +13637,7 @@
       </c>
       <c r="AI109" s="33">
         <f>AI106</f>
-        <v>0.10548425993985303</v>
+        <v>0.10548837168708447</v>
       </c>
     </row>
     <row r="110" spans="1:37" ht="19" x14ac:dyDescent="0.2">
@@ -13655,7 +13658,7 @@
       </c>
       <c r="AC111" s="56">
         <f>NPV(AI109,AB109,AC109,AD109,AE109,AF109)</f>
-        <v>10115805115698.859</v>
+        <v>10115258737215.971</v>
       </c>
       <c r="AD111" s="51"/>
       <c r="AE111" s="51"/>
@@ -13700,7 +13703,7 @@
       </c>
       <c r="AC114" s="56">
         <f>AC111+AC112-AC113</f>
-        <v>10814130768698.859</v>
+        <v>10813584390215.971</v>
       </c>
       <c r="AD114" s="51"/>
       <c r="AE114" s="51"/>
@@ -13730,7 +13733,7 @@
       </c>
       <c r="AC116" s="69">
         <f>AC114/AC115*AJ101</f>
-        <v>68.812395994015972</v>
+        <v>68.808919282541751</v>
       </c>
       <c r="AD116" s="51"/>
       <c r="AE116" s="51"/>
@@ -13745,7 +13748,7 @@
       </c>
       <c r="AC117" s="70" cm="1">
         <f t="array" ref="AC117">_FV(AJ99,"Price")</f>
-        <v>90.48</v>
+        <v>91.61</v>
       </c>
       <c r="AD117" s="51"/>
       <c r="AE117" s="51"/>
@@ -13760,7 +13763,7 @@
       </c>
       <c r="AC118" s="71">
         <f>AC116/AC117-1</f>
-        <v>-0.23947396116251141</v>
+        <v>-0.24889292345222414</v>
       </c>
       <c r="AD118" s="51"/>
       <c r="AE118" s="51"/>

--- a/Technology/Hardware/Taiwan Semiconductor.xlsx
+++ b/Technology/Hardware/Taiwan Semiconductor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CA2FB1-01A6-1646-B61F-7F1CA9F5360C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73F4C9C-5FF3-2A45-BFEA-D5073FB4C428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1744,7 +1744,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="10" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1773,14 +1773,14 @@
     <xf numFmtId="9" fontId="3" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1817,6 +1817,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1836,7 +1838,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1849,6 +1851,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1976,11 +1980,11 @@
     <v>Powered by Refinitiv</v>
     <v>110.69</v>
     <v>72.84</v>
-    <v>1.0945</v>
-    <v>1.23</v>
-    <v>1.264E-2</v>
-    <v>0.25</v>
-    <v>2.5369999999999998E-3</v>
+    <v>1.0941000000000001</v>
+    <v>1.06</v>
+    <v>1.0676000000000001E-2</v>
+    <v>-0.01</v>
+    <v>-9.9649999999999996E-5</v>
     <v>USD</v>
     <v>Taiwan Semiconductor Manufacturing Co Ltd is a Taiwan-based company mainly engaged in the provision of integrated circuit manufacturing services. The integrated circuit manufacturing services include process technology, special process technology, design ecosystem support, mask technology, 3DFabricTM advanced packaging and silicon stacking technology services. The Company has completed the transfer and mass production of 5nm technology, and is engaged in the research and development of 3nm process technology and 2nm process technology. The product application range covers the entire electronic application industry, including personal computers and peripheral products, information application products, wired and wireless communication system products, servers and data centers.</v>
     <v>52045</v>
@@ -1988,25 +1992,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>No.8, Li-Hsin 6th Road, Hsinchu Science Park, HSINCHU, HSINCHU, 300 TW</v>
-    <v>98.78</v>
+    <v>100.37</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45261.975559432809</v>
+    <v>45269.041556596872</v>
     <v>0</v>
-    <v>97.02</v>
-    <v>478768800000</v>
+    <v>98.944999999999993</v>
+    <v>465880100000</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
-    <v>97.7</v>
-    <v>18.1586</v>
-    <v>97.31</v>
-    <v>98.54</v>
-    <v>98.8</v>
+    <v>99.12</v>
+    <v>18.528099999999998</v>
+    <v>99.29</v>
+    <v>100.35</v>
+    <v>100.34</v>
     <v>5186414000</v>
     <v>TSM</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd. (XNYS:TSM)</v>
-    <v>7500388</v>
-    <v>9074103</v>
+    <v>10572458</v>
+    <v>9018423</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2171,9 +2175,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2618,8 +2622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S196"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
@@ -14124,7 +14128,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14141,7 +14145,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="32" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>478768800000</v>
+        <v>465880100000</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>201</v>
@@ -14161,22 +14165,22 @@
         <v>203</v>
       </c>
       <c r="G3" s="36">
-        <f>AVERAGE(Financials!N129:S129)</f>
-        <v>1.0863127457442593E-5</v>
+        <f>AVERAGE(Financials!K129:O129)</f>
+        <v>1.303490346074021E-5</v>
       </c>
       <c r="H3" s="35" t="s">
         <v>204</v>
       </c>
       <c r="I3" s="37">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>533018456597.45508</v>
+        <v>530978924593.50897</v>
       </c>
       <c r="J3" s="38" t="s">
         <v>205</v>
       </c>
       <c r="K3" s="39">
         <f>(Financials!O172*-1)/Model!A3</f>
-        <v>1.8455384373417816E-2</v>
+        <v>1.8965957614416242E-2</v>
       </c>
       <c r="L3" s="40" t="s">
         <v>206</v>
@@ -14214,21 +14218,21 @@
       </c>
       <c r="G4" s="46">
         <f>A5*(1+(5*G3))</f>
-        <v>5186695703.3816452</v>
+        <v>5186752022.0289869</v>
       </c>
       <c r="H4" s="45" t="s">
         <v>211</v>
       </c>
       <c r="I4" s="47">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>445925386884.10651</v>
+        <v>444131735022.61987</v>
       </c>
       <c r="J4" s="45" t="s">
         <v>212</v>
       </c>
       <c r="K4" s="48" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.264E-2</v>
+        <v>1.0676000000000001E-2</v>
       </c>
       <c r="L4" s="49" t="s">
         <v>213</v>
@@ -14273,14 +14277,14 @@
       </c>
       <c r="I5" s="47">
         <f>I4+G5-G6</f>
-        <v>464628543855.10651</v>
+        <v>462834891993.61987</v>
       </c>
       <c r="J5" s="45" t="s">
         <v>219</v>
       </c>
       <c r="K5" s="51" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>98.54</v>
+        <v>100.35</v>
       </c>
       <c r="L5" s="52" t="s">
         <v>220</v>
@@ -14300,7 +14304,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="55">
         <f>O20/F10</f>
-        <v>7.0034346566806116</v>
+        <v>6.8148986278926893</v>
       </c>
       <c r="B6" s="43" t="s">
         <v>222</v>
@@ -14328,14 +14332,14 @@
       </c>
       <c r="I6" s="48">
         <f>N25</f>
-        <v>8.922854513995726E-2</v>
+        <v>8.9475252056771579E-2</v>
       </c>
       <c r="J6" s="45" t="s">
         <v>225</v>
       </c>
       <c r="K6" s="56">
         <f>I5/G4</f>
-        <v>89.580837285706949</v>
+        <v>89.234050524853345</v>
       </c>
       <c r="L6" s="57" t="s">
         <v>226</v>
@@ -14355,14 +14359,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="58">
         <f>O20/F12</f>
-        <v>18.293168271435121</v>
+        <v>17.800706862295584</v>
       </c>
       <c r="B7" s="59" t="s">
         <v>228</v>
       </c>
       <c r="C7" s="60">
         <f>F15/A3</f>
-        <v>2.3082122310392823E-2</v>
+        <v>2.3720695518009892E-2</v>
       </c>
       <c r="D7" s="59" t="s">
         <v>229</v>
@@ -14389,7 +14393,7 @@
       </c>
       <c r="K7" s="66">
         <f>K6/K5-1</f>
-        <v>-9.0919045202892845E-2</v>
+        <v>-0.11077179347430643</v>
       </c>
       <c r="L7" s="67" t="s">
         <v>232</v>
@@ -14722,7 +14726,7 @@
       </c>
       <c r="O14" s="90">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="41"/>
       <c r="Q14" s="41"/>
@@ -14874,7 +14878,7 @@
       </c>
       <c r="O17" s="100">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.762570000000001E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="41"/>
       <c r="Q17" s="41"/>
@@ -14957,24 +14961,24 @@
       </c>
       <c r="O20" s="106">
         <f>A3</f>
-        <v>478768800000</v>
+        <v>465880100000</v>
       </c>
       <c r="P20" s="41"/>
       <c r="Q20" s="41"/>
       <c r="R20" s="41"/>
     </row>
     <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="121" t="str" cm="1">
+      <c r="A21" s="120" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Semiconductors &amp; Semiconductor Equipment</v>
       </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="122" cm="1">
+      <c r="B21" s="120"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="121" cm="1">
         <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1987</v>
       </c>
-      <c r="E21" s="122"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="81"/>
       <c r="G21" s="81"/>
       <c r="H21" s="81"/>
@@ -14987,21 +14991,21 @@
       </c>
       <c r="O21" s="106">
         <f>O19+O20</f>
-        <v>508951969063</v>
+        <v>496063269063</v>
       </c>
       <c r="P21" s="41"/>
       <c r="Q21" s="41"/>
       <c r="R21" s="41"/>
     </row>
     <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="110" t="str" cm="1">
+      <c r="A22" s="122" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Taiwan Semiconductor Manufacturing Co Ltd is a Taiwan-based company mainly engaged in the provision of integrated circuit manufacturing services. The integrated circuit manufacturing services include process technology, special process technology, design ecosystem support, mask technology, 3DFabricTM advanced packaging and silicon stacking technology services. The Company has completed the transfer and mass production of 5nm technology, and is engaged in the research and development of 3nm process technology and 2nm process technology. The product application range covers the entire electronic application industry, including personal computers and peripheral products, information application products, wired and wireless communication system products, servers and data centers.</v>
       </c>
-      <c r="B22" s="110"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="122"/>
       <c r="F22" s="81"/>
       <c r="G22" s="81"/>
       <c r="H22" s="81"/>
@@ -15015,18 +15019,18 @@
       </c>
       <c r="O22" s="108">
         <f>(O19/O21)</f>
-        <v>5.9304553077117211E-2</v>
+        <v>6.0845402079480991E-2</v>
       </c>
       <c r="P22" s="41"/>
       <c r="Q22" s="41"/>
       <c r="R22" s="41"/>
     </row>
     <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="110"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
+      <c r="A23" s="122"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
       <c r="F23" s="81"/>
       <c r="G23" s="81"/>
       <c r="H23" s="81"/>
@@ -15040,18 +15044,18 @@
       </c>
       <c r="O23" s="109">
         <f>O20/O21</f>
-        <v>0.94069544692288276</v>
+        <v>0.93915459792051903</v>
       </c>
       <c r="P23" s="41"/>
       <c r="Q23" s="41"/>
       <c r="R23" s="41"/>
     </row>
     <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="110"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
+      <c r="A24" s="122"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="122"/>
       <c r="F24" s="81"/>
       <c r="G24" s="81"/>
       <c r="H24" s="81"/>
@@ -15069,11 +15073,11 @@
       <c r="R24" s="41"/>
     </row>
     <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="110"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
+      <c r="A25" s="122"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
       <c r="F25" s="81"/>
       <c r="G25" s="81"/>
       <c r="H25" s="81"/>
@@ -15084,7 +15088,7 @@
       <c r="M25" s="81"/>
       <c r="N25" s="113">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.922854513995726E-2</v>
+        <v>8.9475252056771579E-2</v>
       </c>
       <c r="O25" s="114"/>
       <c r="P25" s="41"/>
@@ -15092,11 +15096,11 @@
       <c r="R25" s="41"/>
     </row>
     <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="110"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
+      <c r="A26" s="122"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
       <c r="F26" s="81"/>
       <c r="G26" s="81"/>
       <c r="H26" s="81"/>
@@ -15112,11 +15116,11 @@
       <c r="R26" s="41"/>
     </row>
     <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="110"/>
-      <c r="B27" s="110"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
+      <c r="A27" s="122"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
       <c r="F27" s="81"/>
       <c r="G27" s="81"/>
       <c r="H27" s="81"/>
@@ -15132,11 +15136,11 @@
       <c r="R27" s="41"/>
     </row>
     <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="110"/>
-      <c r="B28" s="110"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
+      <c r="A28" s="122"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
       <c r="F28" s="81"/>
       <c r="G28" s="81"/>
       <c r="H28" s="81"/>
@@ -15152,11 +15156,11 @@
       <c r="R28" s="41"/>
     </row>
     <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="120"/>
-      <c r="B29" s="120"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="120"/>
+      <c r="A29" s="110"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
       <c r="F29" s="81"/>
       <c r="G29" s="81"/>
       <c r="H29" s="81"/>
@@ -15172,11 +15176,11 @@
       <c r="R29" s="41"/>
     </row>
     <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="120"/>
-      <c r="B30" s="120"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
+      <c r="A30" s="110"/>
+      <c r="B30" s="110"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
       <c r="F30" s="81"/>
       <c r="G30" s="81"/>
       <c r="H30" s="81"/>
